--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/plate_1/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.616</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.461</v>
+        <v>14.933</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2939296075.975</v>
+        <v>-0.286</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1616178.013</v>
+        <v>33.807</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.985</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.113</v>
+        <v>6.853</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1814767.027056828</v>
+        <v>24.55175935473903</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1562563.758093598</v>
+        <v>24.55693273123797</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>846884.6793301026</v>
+        <v>24.57848837272668</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3645842.887406347</v>
+        <v>24.51819931425061</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-491165.8183386859</v>
+        <v>24.56020274097695</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>313532.7610808936</v>
+        <v>24.56427440839428</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2938944.518591957</v>
+        <v>24.5292251514874</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1936995.347864158</v>
+        <v>24.5856019782352</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3000282.9679324</v>
+        <v>24.59394803370861</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-979742.0566487371</v>
+        <v>24.55542098516771</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-756017.5902825388</v>
+        <v>24.57895057341039</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-731482.3375429536</v>
+        <v>24.57416075711398</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1539298.308760329</v>
+        <v>24.53689211698009</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1194232.536647802</v>
+        <v>24.54349104039181</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1128569.878070973</v>
+        <v>24.58024208205794</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1276517.810555409</v>
+        <v>24.54531256994152</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-75520.57262656977</v>
+        <v>24.57028649274248</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>800350.0906020685</v>
+        <v>24.58920867986391</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2088625.993960442</v>
+        <v>24.50606867796281</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1383976.359389969</v>
+        <v>24.53063259756864</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-1021411.760633274</v>
+        <v>24.54674416280706</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2235554.178782157</v>
+        <v>24.49621522766672</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-881945.918165308</v>
+        <v>24.56193904556192</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-839055.6132417555</v>
+        <v>24.5528530008251</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>309044.2188932474</v>
+        <v>24.57764349190657</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>580900.6166577868</v>
+        <v>24.59018239819982</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-3276476.644713924</v>
+        <v>24.51899472713776</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1013895.403491454</v>
+        <v>24.60179367250115</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>957499.4978045539</v>
+        <v>24.60231044017496</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-2708930.151608562</v>
+        <v>24.53186609118352</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3042172.420281437</v>
+        <v>24.63238902907356</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3129156.391791651</v>
+        <v>24.63391241642042</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2131549.580006392</v>
+        <v>24.64369536805825</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2482115.115146677</v>
+        <v>24.66766059586438</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2467024.241505542</v>
+        <v>24.66271290300161</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-300892.3657659593</v>
+        <v>24.56809362738965</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1520344.748690057</v>
+        <v>24.63678295313469</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2781671.709086236</v>
+        <v>24.65767454185989</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-649323.8930904748</v>
+        <v>24.55319190809092</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>674707.4377464331</v>
+        <v>24.60702439086904</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>819708.9772022624</v>
+        <v>24.62073215188254</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-1751067.062334834</v>
+        <v>24.51296575603154</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>215850.9990145761</v>
+        <v>24.59893490056383</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>659117.2805514587</v>
+        <v>24.61799143202931</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-1887108.633083396</v>
+        <v>24.51453781074347</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1632780.556611934</v>
+        <v>24.64704586592789</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-2533941.063102393</v>
+        <v>24.54248206754474</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-462025.1518710984</v>
+        <v>24.56909261868927</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>296915.7044338844</v>
+        <v>24.58573544299081</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-3564599.515801609</v>
+        <v>24.51742993736254</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>967519.2711747102</v>
+        <v>24.59761901050102</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1433500.484563512</v>
+        <v>24.60740463106663</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-2691090.984899321</v>
+        <v>24.53175380935622</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3515670.12021759</v>
+        <v>24.6325170792757</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3997088.924338605</v>
+        <v>24.64137916157656</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2866171.489955728</v>
+        <v>24.64804117222972</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3016717.489561028</v>
+        <v>24.6661059694089</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3226518.123600472</v>
+        <v>24.67361483606583</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-1451000.747233818</v>
+        <v>24.54657035365149</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>728240.2773689533</v>
+        <v>24.62224306192239</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2408191.934620273</v>
+        <v>24.65218815916977</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-1402511.725695239</v>
+        <v>24.53876013732743</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>392737.2019092516</v>
+        <v>24.59317150005556</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>721613.8335547656</v>
+        <v>24.61525528585076</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1927880.190106886</v>
+        <v>24.50610456315316</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-124235.1142333972</v>
+        <v>24.58951759264766</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>960484.6770454175</v>
+        <v>24.62392062338521</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-1869674.210159437</v>
+        <v>24.51360875123638</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1611219.212282214</v>
+        <v>24.6455534879952</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-4675432.252354</v>
+        <v>24.53623847151425</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-2627414.949041936</v>
+        <v>24.55729614269633</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-626257.712379133</v>
+        <v>24.58001869428398</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-4986922.003953975</v>
+        <v>24.52701448753337</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>733480.5838749944</v>
+        <v>24.58643859388107</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2096945.260797381</v>
+        <v>24.6039118781604</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-5020079.746394593</v>
+        <v>24.53192155095736</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3751975.284829882</v>
+        <v>24.60981472722174</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5240083.939342534</v>
+        <v>24.62648798598375</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2202628.87780232</v>
+        <v>24.60999680515975</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2502888.302996042</v>
+        <v>24.62526814806118</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3108493.066225928</v>
+        <v>24.63682393691669</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-2913365.301143505</v>
+        <v>24.53725985394753</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-450508.9955228845</v>
+        <v>24.58732562435819</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>3023882.665879255</v>
+        <v>24.6319949367625</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-2454898.671010008</v>
+        <v>24.53339867625853</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>137157.0822675148</v>
+        <v>24.58055272819466</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1193440.238055701</v>
+        <v>24.60646821234148</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-2573359.798216589</v>
+        <v>24.51969278978346</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-229659.3209030559</v>
+        <v>24.57856823103558</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1383748.630846539</v>
+        <v>24.61628389495525</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-2948841.341997304</v>
+        <v>24.51438153858187</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1477292.285767246</v>
+        <v>24.61414049822903</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-358791.5904094501</v>
+        <v>24.59079373718294</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-481114.7291157618</v>
+        <v>24.54955312863994</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>321000.311835849</v>
+        <v>24.59473383636157</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>626104.7417976655</v>
+        <v>24.60716786934358</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-1355500.897001468</v>
+        <v>24.50028513735367</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-824620.2532386074</v>
+        <v>24.54953186832396</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-348561.5404181962</v>
+        <v>24.57958658535847</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-1291163.863583333</v>
+        <v>24.53656950187479</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-454932.0930127986</v>
+        <v>24.55985359392273</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>545428.732013969</v>
+        <v>24.59629082937542</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1735311.405031766</v>
+        <v>24.47839821383113</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-1314272.448822195</v>
+        <v>24.51907979556772</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-933866.9510015394</v>
+        <v>24.54231920426857</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1795683.488400111</v>
+        <v>24.4776659087003</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-707572.0161893172</v>
+        <v>24.56634493621888</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>776503.2234410819</v>
+        <v>24.61904069500757</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-316878.8559447487</v>
+        <v>24.58588570546282</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>791322.7115293455</v>
+        <v>24.64467308717797</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1049860.548861201</v>
+        <v>24.67840803711642</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-1164253.588790995</v>
+        <v>24.47150925144734</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-510256.7613273373</v>
+        <v>24.54892249296114</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>142092.8271906241</v>
+        <v>24.6115198749543</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2410763.802675912</v>
+        <v>24.67864320370374</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1567268.215809578</v>
+        <v>24.67486317317026</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1957032.007280507</v>
+        <v>24.71291708876171</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1986599.872845918</v>
+        <v>24.72545896808754</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-342296.1508332559</v>
+        <v>24.55511414893721</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1630084.049368723</v>
+        <v>24.70155468782187</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1884844.454222426</v>
+        <v>24.72092104782343</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-269276.8231805262</v>
+        <v>24.56391611630405</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>796456.3104193854</v>
+        <v>24.62832455016726</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1230287.670734548</v>
+        <v>24.65202217083894</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-1332576.248254212</v>
+        <v>24.51202211702345</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>864190.089919353</v>
+        <v>24.63927298758828</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1093329.267420642</v>
+        <v>24.65685186618325</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-1323865.460480302</v>
+        <v>24.52277271794114</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2451817.136871072</v>
+        <v>24.70294605267472</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2712440.225275917</v>
+        <v>24.74300751783012</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2397018.337515295</v>
+        <v>24.80439911985963</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2541441.814097844</v>
+        <v>24.84222092128352</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2640087.984711024</v>
+        <v>24.86656217628488</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>191652.3692922431</v>
+        <v>24.58581580217328</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2103896.201927373</v>
+        <v>24.78724978561818</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2302529.026768344</v>
+        <v>24.82820251521472</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2866355.331697053</v>
+        <v>24.69022532219439</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1080868.964945644</v>
+        <v>24.66258936459896</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1487882.614213961</v>
+        <v>24.69093314935564</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2011863.611911564</v>
+        <v>24.72364768268421</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-905787.2494993077</v>
+        <v>24.52538696308902</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1437637.658783199</v>
+        <v>24.68315146127352</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1880878.420314321</v>
+        <v>24.71697832630941</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-958797.7145307279</v>
+        <v>24.54735808002555</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>648346.7546731824</v>
+        <v>24.61680594323496</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1197496.361755042</v>
+        <v>24.64856000178522</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-1530961.70865583</v>
+        <v>24.50245177865153</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>739585.0827775755</v>
+        <v>24.63251417583314</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1345076.852120664</v>
+        <v>24.66589985300565</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-1360686.667367584</v>
+        <v>24.52047833997707</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2548494.432104392</v>
+        <v>24.70518672121356</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>3227837.568493342</v>
+        <v>24.75674912395852</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2492944.897324712</v>
+        <v>24.80459066044062</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2555469.612531106</v>
+        <v>24.83119478624415</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2918714.237140552</v>
+        <v>24.87677663308227</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-511584.0094481649</v>
+        <v>24.55149947178476</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1957565.447520857</v>
+        <v>24.77383583543858</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2574074.288062035</v>
+        <v>24.83116167871309</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3819736.384922272</v>
+        <v>24.65846055943217</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-8695.197629400454</v>
+        <v>24.59642803519345</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>635854.027958474</v>
+        <v>24.62641504931993</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1521066.697378024</v>
+        <v>24.66311803615353</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-1658665.505152345</v>
+        <v>24.51710517900418</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1714645.154093977</v>
+        <v>24.63505577715292</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2585074.138079872</v>
+        <v>24.6780329717609</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-1804419.641240297</v>
+        <v>24.54058958675937</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>740699.7828486683</v>
+        <v>24.60229228385449</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1943882.150482929</v>
+        <v>24.64301792487425</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-2044535.535993965</v>
+        <v>24.51600936692314</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>713010.6650589394</v>
+        <v>24.61104828739986</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2027325.013529145</v>
+        <v>24.6560987593961</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-2427223.199113362</v>
+        <v>24.51836531577357</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2565558.887222497</v>
+        <v>24.66079839494475</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>4477634.618048137</v>
+        <v>24.72203833850402</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2180136.72824437</v>
+        <v>24.70625299673336</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2771733.267441872</v>
+        <v>24.74555432397518</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>4067559.469672844</v>
+        <v>24.80754663219033</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-1343668.215723944</v>
+        <v>24.52001803165729</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1904371.06270362</v>
+        <v>24.69351337808742</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>3341017.440831028</v>
+        <v>24.77202594101797</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-1630792.280852214</v>
+        <v>24.5485767061792</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-1146976.140664118</v>
+        <v>24.56550775056314</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>596731.3842175337</v>
+        <v>24.59286391387271</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-2933462.850483457</v>
+        <v>24.51586152649816</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-365573.6223757612</v>
+        <v>24.57323650217561</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-8828.272510876834</v>
+        <v>24.57984710460249</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-2419443.854647148</v>
+        <v>24.54000586294077</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2218582.880813353</v>
+        <v>24.61552703766875</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2628634.451836558</v>
+        <v>24.6263829616651</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-445100.5004630371</v>
+        <v>24.59563516299524</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>158639.8739203133</v>
+        <v>24.61653396924535</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>153132.6596805735</v>
+        <v>24.61869419523972</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-604612.9607589005</v>
+        <v>24.55139683075949</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-532539.4982115516</v>
+        <v>24.57094171920048</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1572540.672712639</v>
+        <v>24.61632456664783</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-1228688.535905989</v>
+        <v>24.53147890601953</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-35370.80889706172</v>
+        <v>24.57749558345355</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>294563.6089629607</v>
+        <v>24.59741145671429</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1917553.535436557</v>
+        <v>24.48310099354673</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-1095788.642100859</v>
+        <v>24.53357992457176</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-831358.3163887333</v>
+        <v>24.54869532750508</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1917048.929889149</v>
+        <v>24.49087596476084</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>67705.22818657459</v>
+        <v>24.58918892940573</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-1090799.185761215</v>
+        <v>24.54488884775626</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-281282.2524454246</v>
+        <v>24.5827000477141</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>492336.6776576721</v>
+        <v>24.60071578165725</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-2551761.039791346</v>
+        <v>24.51099201599332</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>694365.0993352407</v>
+        <v>24.61380040890344</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>762014.0866299189</v>
+        <v>24.61517731730756</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-2100666.173988663</v>
+        <v>24.53546149016012</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>2584626.142190226</v>
+        <v>24.65859536591887</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2800190.45899604</v>
+        <v>24.66141785645988</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1737521.310487012</v>
+        <v>24.68061691941387</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>2185737.992369065</v>
+        <v>24.69718762475372</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>2190852.465072653</v>
+        <v>24.70138953307049</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-230758.2416490851</v>
+        <v>24.56984881783293</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1424672.381490444</v>
+        <v>24.65679851587722</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>2046869.326263566</v>
+        <v>24.68268543225915</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-599957.4221222111</v>
+        <v>24.53752377207438</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>413289.2291642021</v>
+        <v>24.61439487717064</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>636417.5785140854</v>
+        <v>24.62884210375605</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-1567784.399625588</v>
+        <v>24.48700342518989</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>370238.2078974739</v>
+        <v>24.60639255629044</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>456965.1373231398</v>
+        <v>24.62195273093076</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-1544725.246284831</v>
+        <v>24.50538540450349</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1626837.077020232</v>
+        <v>24.67610522833843</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-2561700.814301164</v>
+        <v>24.53011335414707</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-1082494.472262246</v>
+        <v>24.56840820812269</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>120107.3421959095</v>
+        <v>24.59137204268107</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-2828981.502248095</v>
+        <v>24.50470052175001</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>555978.5002052286</v>
+        <v>24.60301546587987</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>853183.4216202829</v>
+        <v>24.6145467233053</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-2262632.509536305</v>
+        <v>24.52961636645996</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>2521756.987610649</v>
+        <v>24.65104731280233</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>3267901.108105217</v>
+        <v>24.66245947695906</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>2149402.62892201</v>
+        <v>24.67803190049318</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>2387431.363966793</v>
+        <v>24.68761283294116</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>2890911.520644083</v>
+        <v>24.70581468420959</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-1371721.905497703</v>
+        <v>24.53969232222803</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>638886.0456945106</v>
+        <v>24.63237548412927</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1364017.346308623</v>
+        <v>24.6675468179201</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-1268876.493621645</v>
+        <v>24.51768609535293</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>204187.0180779434</v>
+        <v>24.5930694697593</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>528481.9344566802</v>
+        <v>24.61742039823093</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-1695834.561883535</v>
+        <v>24.47429403754462</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>20822.56961447212</v>
+        <v>24.5885061832809</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>602578.7030056054</v>
+        <v>24.62078891148703</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-1567420.240372497</v>
+        <v>24.49794509077364</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1410951.113157453</v>
+        <v>24.66510250941131</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-4071658.724451832</v>
+        <v>24.52913243384092</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-2294572.820768805</v>
+        <v>24.55997676179156</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-18123.81162302133</v>
+        <v>24.58902128835201</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-3957926.435414077</v>
+        <v>24.51940355345732</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>638785.0985867222</v>
+        <v>24.59237483176711</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1587677.090159975</v>
+        <v>24.6129300335863</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-4134481.507439926</v>
+        <v>24.53403155319279</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>3132997.459318706</v>
+        <v>24.62846878982997</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>4474158.992327426</v>
+        <v>24.64895983932509</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>2694639.302006059</v>
+        <v>24.64035791431012</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>3212719.370157155</v>
+        <v>24.65153085259503</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>3813191.080240577</v>
+        <v>24.67122495010723</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-2396447.809717018</v>
+        <v>24.53922814562762</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>238344.4890848976</v>
+        <v>24.60217128082051</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2516063.023987209</v>
+        <v>24.65352180975151</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-2102625.492762188</v>
+        <v>24.51113536148287</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-69402.92817703652</v>
+        <v>24.57638918502123</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>562659.2546178694</v>
+        <v>24.60430483668518</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-2386916.297431807</v>
+        <v>24.4862195305617</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-280488.2290067038</v>
+        <v>24.56877312842796</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>490318.7582283413</v>
+        <v>24.6057509481899</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-2456394.355395904</v>
+        <v>24.49578267165577</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1114440.443867794</v>
+        <v>24.62401395780247</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>181228.6445180719</v>
+        <v>24.61497114619488</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-257163.9643858065</v>
+        <v>24.57734705353125</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>624730.6912399888</v>
+        <v>24.62634356809276</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>633901.5832201005</v>
+        <v>24.62894250459674</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-883286.2350152539</v>
+        <v>24.50597806418596</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-343521.6329648407</v>
+        <v>24.57384122650608</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>39956.7550877391</v>
+        <v>24.60510067911433</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-916257.9714704452</v>
+        <v>24.52883286181108</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-67931.08416447563</v>
+        <v>24.57749579157177</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>673558.4629535632</v>
+        <v>24.62276618907373</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-1536718.996465672</v>
+        <v>24.45427361220381</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-974004.6967599259</v>
+        <v>24.52900394888566</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-419743.745736971</v>
+        <v>24.55365281081382</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-1493724.624179975</v>
+        <v>24.47342648153379</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>88334.01052914395</v>
+        <v>24.60858965968001</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>1465803.536003926</v>
+        <v>24.6623887879949</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-6049.996443836905</v>
+        <v>24.61522753667035</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>814569.5176122705</v>
+        <v>24.68624131887432</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>1142320.426991893</v>
+        <v>24.71918485718941</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-760331.0950313829</v>
+        <v>24.48554121655764</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-43449.75878336105</v>
+        <v>24.60337361703624</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>565950.424404051</v>
+        <v>24.6639579547629</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1989046.996665535</v>
+        <v>24.70332462793844</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>1237555.24147358</v>
+        <v>24.70343646945795</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>1550597.546316918</v>
+        <v>24.73958974680592</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>1465540.376573519</v>
+        <v>24.74334403071509</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-207487.7937887196</v>
+        <v>24.54955323944283</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>1325594.48096264</v>
+        <v>24.72313440547494</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>1458050.163126562</v>
+        <v>24.73946021864757</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-210576.6286106558</v>
+        <v>24.55131582959947</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>613037.4947753682</v>
+        <v>24.644814364211</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>1014245.036300626</v>
+        <v>24.67597218314046</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-1226880.275279841</v>
+        <v>24.48344081564595</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>823104.7806863753</v>
+        <v>24.65607644714793</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>884590.5798400793</v>
+        <v>24.67051227340163</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-1084014.339464513</v>
+        <v>24.51299293483904</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>2056469.506609254</v>
+        <v>24.74864565500475</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>2297575.52160188</v>
+        <v>24.78624627169253</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1728612.964500762</v>
+        <v>24.83779781347889</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1894931.242497045</v>
+        <v>24.88182440798711</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>2029712.60125539</v>
+        <v>24.90644247610467</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>122811.9834013978</v>
+        <v>24.59089713617693</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1744507.642285093</v>
+        <v>24.84636379354021</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1828159.399044167</v>
+        <v>24.87543057254375</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>2209776.869321242</v>
+        <v>24.70745898913378</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>1005466.269081932</v>
+        <v>24.6810000699737</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>1177906.314590569</v>
+        <v>24.70569432508677</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>1497997.812481207</v>
+        <v>24.73256217239965</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-761684.9156000766</v>
+        <v>24.50898724143767</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>1069038.907667073</v>
+        <v>24.69248367616719</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>1378159.249094083</v>
+        <v>24.72426118261502</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-865725.2805633426</v>
+        <v>24.52842182010142</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>452304.5002010122</v>
+        <v>24.62528575537809</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>970696.8972967765</v>
+        <v>24.66572352908765</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-1403726.179250074</v>
+        <v>24.46710234001273</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>617602.0158199143</v>
+        <v>24.64036516354324</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>953575.391178173</v>
+        <v>24.67176132866599</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-1167448.809845935</v>
+        <v>24.50353037074409</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>2019274.668875675</v>
+        <v>24.74090846822844</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>2583317.745314089</v>
+        <v>24.79176624782912</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1736619.643491018</v>
+        <v>24.82898613735926</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>1936739.264850107</v>
+        <v>24.86014194185306</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>2273553.207689723</v>
+        <v>24.90904679021746</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-515426.9568862683</v>
+        <v>24.54501572206343</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1715628.150209585</v>
+        <v>24.82095499196009</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>1963313.73388516</v>
+        <v>24.86697468590512</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2510688.315343814</v>
+        <v>24.66712413298872</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>103507.4612596057</v>
+        <v>24.60330405026846</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>517402.7656232399</v>
+        <v>24.63401548921228</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>925328.1893060844</v>
+        <v>24.66441590683713</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-1274279.938203103</v>
+        <v>24.50167794834834</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>1125431.522680811</v>
+        <v>24.63900540793901</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1618757.644478901</v>
+        <v>24.68145112122473</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-1581466.734245495</v>
+        <v>24.52807150255851</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>524769.3304264608</v>
+        <v>24.61394986629993</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>1469840.951646259</v>
+        <v>24.66279595762436</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1887300.972565531</v>
+        <v>24.48857836364225</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>691296.4236034106</v>
+        <v>24.6176012231076</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1330043.885178648</v>
+        <v>24.66293129959009</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-1961520.068433553</v>
+        <v>24.50765891071373</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>2419720.066769208</v>
+        <v>24.69383969274156</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>3573834.4453379</v>
+        <v>24.7560940241872</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1863101.215344456</v>
+        <v>24.73021445547919</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>2538285.609859396</v>
+        <v>24.77830242770668</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>3111207.314801767</v>
+        <v>24.84251900633961</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-952251.3662812978</v>
+        <v>24.52300060213769</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>2198283.671702758</v>
+        <v>24.74036073698971</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>2766359.075752195</v>
+        <v>24.81375648549439</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-2505778.442930635</v>
+        <v>24.53158598534506</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-2183025.535160503</v>
+        <v>24.54126423342312</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-770601.2636379417</v>
+        <v>24.5662234051147</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-3066199.096403047</v>
+        <v>24.49433436286474</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-1620169.794405389</v>
+        <v>24.54088939528068</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-1486907.925280376</v>
+        <v>24.54582934736595</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-2797659.508220476</v>
+        <v>24.51585719640187</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>73393.57947166366</v>
+        <v>24.58173932128291</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>440943.5411689233</v>
+        <v>24.59062329312588</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-1162740.276099895</v>
+        <v>24.55729985666566</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-666668.3436341775</v>
+        <v>24.57736075802934</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-661618.5552384696</v>
+        <v>24.57908833002829</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-1112810.088834898</v>
+        <v>24.51981550944458</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-1172955.982864024</v>
+        <v>24.53374225087741</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>255686.760473833</v>
+        <v>24.57103020943005</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-1200079.826597248</v>
+        <v>24.53515206935529</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-6537.448799970093</v>
+        <v>24.58370531546642</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>343940.0283208236</v>
+        <v>24.60133148531687</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1925899.578590104</v>
+        <v>24.48302446054299</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-1165905.348244104</v>
+        <v>24.53561742251057</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-717398.2696441339</v>
+        <v>24.54947249330062</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1888092.988441894</v>
+        <v>24.49366915819738</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>170809.0076383878</v>
+        <v>24.59614093834586</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-1787604.948931693</v>
+        <v>24.52760951062018</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-1110170.642497001</v>
+        <v>24.55846537783485</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-519153.4376653702</v>
+        <v>24.5739275095865</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-2710422.9162829</v>
+        <v>24.48992462788245</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-180010.5443084411</v>
+        <v>24.58250281290996</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-112276.5546023586</v>
+        <v>24.58194405539397</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-2491698.690674036</v>
+        <v>24.51107049642723</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1251072.981760359</v>
+        <v>24.62509747095009</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1349363.433512613</v>
+        <v>24.62556887362465</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>822570.1630659135</v>
+        <v>24.64172602623229</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1389561.61318711</v>
+        <v>24.65709647271309</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1447162.780938127</v>
+        <v>24.66073559849188</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-792083.2449651281</v>
+        <v>24.53645261769733</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>628452.9601351286</v>
+        <v>24.61846407829739</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1000331.103602684</v>
+        <v>24.6364545797007</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-574663.6806288257</v>
+        <v>24.54249718268041</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>485306.395697569</v>
+        <v>24.62330258920703</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>696711.0872456165</v>
+        <v>24.63508536725336</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-1607819.147678676</v>
+        <v>24.48912000598592</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>452757.3281866961</v>
+        <v>24.61285630671953</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>617696.4984736169</v>
+        <v>24.62660497879479</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1595261.303087258</v>
+        <v>24.51013048707124</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>1815105.538850918</v>
+        <v>24.68707119187995</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-2903783.649354655</v>
+        <v>24.51569565669987</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1757882.709480378</v>
+        <v>24.54727900098839</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-661940.0456733453</v>
+        <v>24.56771659070054</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2915394.117653851</v>
+        <v>24.48699500832792</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-347846.6904696434</v>
+        <v>24.57557109094495</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-105286.6202346235</v>
+        <v>24.58511721704504</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-2345204.457624927</v>
+        <v>24.50862794273547</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>1424649.142871181</v>
+        <v>24.62133444396547</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>1963381.913805604</v>
+        <v>24.63035705838312</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>1179417.602810556</v>
+        <v>24.64366575576519</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1474956.456609827</v>
+        <v>24.65210650334539</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>2167262.279619669</v>
+        <v>24.66966439737099</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-1666940.01893298</v>
+        <v>24.51054620385468</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-104229.4035081615</v>
+        <v>24.59846864529941</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>415634.2804812163</v>
+        <v>24.62606303294413</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-1124883.166967493</v>
+        <v>24.52642916589869</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>413290.2265703</v>
+        <v>24.60583381008612</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>682987.8131383844</v>
+        <v>24.62740571741671</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1693063.433378589</v>
+        <v>24.48091766239298</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>220040.4284307085</v>
+        <v>24.59977792531804</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>712238.1587591908</v>
+        <v>24.62999599861613</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-1483730.904736048</v>
+        <v>24.50705845641184</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1818556.000488728</v>
+        <v>24.68058409073695</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-4449014.979458397</v>
+        <v>24.5176983777046</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-3189748.647441071</v>
+        <v>24.54234774354213</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-931839.0442017843</v>
+        <v>24.56925425548019</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-4098204.467878724</v>
+        <v>24.50475003213242</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-1050398.616560472</v>
+        <v>24.56871245144844</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>235560.4219224022</v>
+        <v>24.58776765409836</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-4351790.261112506</v>
+        <v>24.51670031303745</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>862926.1805319673</v>
+        <v>24.60304645538796</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>2492690.512237131</v>
+        <v>24.62168387620626</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>1044531.718564783</v>
+        <v>24.61178787589416</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>1515090.675247059</v>
+        <v>24.62223686093469</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>2579217.644526985</v>
+        <v>24.64174258267743</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-2638723.550519452</v>
+        <v>24.51628511230462</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-677690.9260445235</v>
+        <v>24.57440292348131</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1297125.032494718</v>
+        <v>24.61886862590096</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-1942738.40709707</v>
+        <v>24.51920831161675</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>231635.3119970761</v>
+        <v>24.58737683829345</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>730887.8987644467</v>
+        <v>24.61286938990365</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-2391592.599886171</v>
+        <v>24.49212652727086</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-61933.79556679791</v>
+        <v>24.57773543232931</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>642731.5456044612</v>
+        <v>24.61312109469042</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-2460307.910258902</v>
+        <v>24.50375413884229</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>1530062.1195053</v>
+        <v>24.63669248424008</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>484315.0752192938</v>
+        <v>24.61961980816313</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-160486.1699922645</v>
+        <v>24.5905711241812</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>745644.9847688563</v>
+        <v>24.63954716936297</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>745361.933037278</v>
+        <v>24.63834748193646</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-846559.1797274862</v>
+        <v>24.51249273980297</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-177098.1429215494</v>
+        <v>24.58985172914617</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>247208.5576286649</v>
+        <v>24.61425752184465</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-805722.5198886242</v>
+        <v>24.53136251903464</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>48155.22563570245</v>
+        <v>24.58354704964295</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>867604.5484274012</v>
+        <v>24.62581030415089</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1564736.428497823</v>
+        <v>24.45109917893447</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-1059606.388917598</v>
+        <v>24.53068339037287</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-564449.58774063</v>
+        <v>24.55118052799858</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-1532181.71048348</v>
+        <v>24.47161005660728</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>97855.56875796603</v>
+        <v>24.61266741274381</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>1397942.213209965</v>
+        <v>24.66173947396567</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>89756.96298502917</v>
+        <v>24.62817298332034</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>956266.4393057168</v>
+        <v>24.70183938206054</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>1198183.095273945</v>
+        <v>24.72414051728133</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-779715.8756989642</v>
+        <v>24.48907621208742</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>-42377.79274744827</v>
+        <v>24.61975867644838</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>507438.7858600494</v>
+        <v>24.66951584802528</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>2135890.385209203</v>
+        <v>24.71123966690086</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1326697.573798767</v>
+        <v>24.72065473652175</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1621903.375545394</v>
+        <v>24.75624990200192</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1563278.562488083</v>
+        <v>24.75552813799163</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-228531.34626591</v>
+        <v>24.55707585457383</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>1433444.685529039</v>
+        <v>24.74259666341005</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>1567168.791574767</v>
+        <v>24.75227039797825</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-144719.2014953968</v>
+        <v>24.55732601131574</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>692498.5113998624</v>
+        <v>24.65615997351795</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1178093.012515502</v>
+        <v>24.68379421697237</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-1264383.541920688</v>
+        <v>24.48548806448061</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>1011163.677183968</v>
+        <v>24.6660105405487</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1037731.226621661</v>
+        <v>24.67547542178282</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-1167842.521682035</v>
+        <v>24.51585991143982</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>2333151.018338025</v>
+        <v>24.76013634131116</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>2469916.366172508</v>
+        <v>24.79190771228167</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1880941.61190483</v>
+        <v>24.85839159204307</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>2062582.427882537</v>
+        <v>24.90498154220261</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>2125375.202324688</v>
+        <v>24.91770316763215</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>119772.2801949881</v>
+        <v>24.59869385621785</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1913507.19260428</v>
+        <v>24.87056175167621</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1980487.697183461</v>
+        <v>24.88850034413604</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>2498703.301408251</v>
+        <v>24.71968707310296</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>1200355.620843977</v>
+        <v>24.70349493127835</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1422665.85860061</v>
+        <v>24.72773263250153</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1671197.64055172</v>
+        <v>24.7499812585921</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-644120.3870021679</v>
+        <v>24.52173911260434</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>1307439.430813762</v>
+        <v>24.71712148911861</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>1579671.007936459</v>
+        <v>24.74236722570886</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-729364.0276078642</v>
+        <v>24.53886963481173</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>599108.2908276876</v>
+        <v>24.64121016018738</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>1178282.797547363</v>
+        <v>24.67798704344368</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-1430191.629838374</v>
+        <v>24.47462148065774</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>868002.9499685527</v>
+        <v>24.65611543612852</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>1062266.761252923</v>
+        <v>24.68233804954216</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-1182654.039827256</v>
+        <v>24.51175862775548</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>2468778.215338132</v>
+        <v>24.75797940330326</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>2837320.659463853</v>
+        <v>24.80282529330042</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1995617.175627159</v>
+        <v>24.85600506756365</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>2201641.631851223</v>
+        <v>24.88978068914266</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>2389364.437326303</v>
+        <v>24.92681429758951</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-467118.5246253113</v>
+        <v>24.55917226283585</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>1991805.565371576</v>
+        <v>24.85160570395253</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>2181750.170941484</v>
+        <v>24.88670027901931</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>2802116.979775249</v>
+        <v>24.67713515597122</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>440467.1684954723</v>
+        <v>24.62273356020495</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>875145.6995596081</v>
+        <v>24.65365204303178</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>1283547.478775538</v>
+        <v>24.68065857521502</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-1137050.256047886</v>
+        <v>24.51426678026775</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>1340236.890764626</v>
+        <v>24.66076879539016</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1748852.861684728</v>
+        <v>24.69692850341072</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-1486526.695027936</v>
+        <v>24.53639856278076</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>703761.7285036286</v>
+        <v>24.62628177263404</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1689443.534249794</v>
+        <v>24.67201078116597</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1913656.782518906</v>
+        <v>24.49376554537207</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>946141.0563286612</v>
+        <v>24.62860382638166</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>1425097.056965031</v>
+        <v>24.66977363732948</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-1987531.7909249</v>
+        <v>24.51346495299556</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>2923233.432288605</v>
+        <v>24.70620102330079</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>3805780.464550551</v>
+        <v>24.76359345739437</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>2252294.236524175</v>
+        <v>24.75206437171678</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>2917890.534988974</v>
+        <v>24.80266843475091</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>3335680.321930367</v>
+        <v>24.85743456273088</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-905897.2945157409</v>
+        <v>24.53538038136108</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>2570340.540081443</v>
+        <v>24.76541504657068</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>2953338.300581938</v>
+        <v>24.82902822621787</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2355412.19047804</v>
+        <v>24.5508748592649</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-2020496.845698996</v>
+        <v>24.54944880803842</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-306628.4574086911</v>
+        <v>24.56686649531499</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3319561.808322629</v>
+        <v>24.52201098828896</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1285072.253717259</v>
+        <v>24.55343256424599</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-698249.6299323279</v>
+        <v>24.55526031234685</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-2964330.780926138</v>
+        <v>24.52824816359758</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>349853.3827324428</v>
+        <v>24.57106404833029</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>879844.3380511455</v>
+        <v>24.57639564772179</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1265045.554766472</v>
+        <v>24.53537781154365</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-1045083.236262726</v>
+        <v>24.55646212860666</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1087131.090631477</v>
+        <v>24.55352509886118</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1536533.610616953</v>
+        <v>24.53763067919223</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1599569.50051802</v>
+        <v>24.52873300079537</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-63941.24865594997</v>
+        <v>24.55905524494985</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1602445.036063565</v>
+        <v>24.53791735292481</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-815398.4427329632</v>
+        <v>24.54923523394779</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>137302.0718159784</v>
+        <v>24.56315445046056</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1505240.994618877</v>
+        <v>24.51207346570255</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1226346.436240612</v>
+        <v>24.51725741181789</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-916760.9625297433</v>
+        <v>24.53044977513982</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-2103929.950428223</v>
+        <v>24.49113755504198</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-1321110.271827742</v>
+        <v>24.53418977706326</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1271985.095545999</v>
+        <v>24.55149194687822</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-293146.3256473494</v>
+        <v>24.56788132639431</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-47045.78937978351</v>
+        <v>24.57629957636883</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-2951211.139579266</v>
+        <v>24.52058863464162</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>375903.5532404328</v>
+        <v>24.59080655397885</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>480357.324909093</v>
+        <v>24.58898907540403</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-2674793.146104693</v>
+        <v>24.52873311116084</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>1835208.256647761</v>
+        <v>24.61310950074712</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>1814194.728674367</v>
+        <v>24.61183664311204</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>1323106.161934904</v>
+        <v>24.61647809579851</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>1702963.409010961</v>
+        <v>24.63724629303074</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>1688703.455305278</v>
+        <v>24.63546327725621</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-380690.968789927</v>
+        <v>24.56486358691797</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>977087.0872179642</v>
+        <v>24.61412311843063</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>1789323.829765126</v>
+        <v>24.62852273701643</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-926613.8596136727</v>
+        <v>24.53844087351313</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-239098.4387775525</v>
+        <v>24.57528099614423</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>75783.97492112947</v>
+        <v>24.58391709174327</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-1336442.980540287</v>
+        <v>24.50906244663319</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-201165.7492939656</v>
+        <v>24.57191289290701</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>284547.1179397703</v>
+        <v>24.58776902081101</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>558582.7173376378</v>
+        <v>24.60448832451058</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-2391591.431800301</v>
+        <v>24.5447957491656</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-598542.2885684521</v>
+        <v>24.56307554568968</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>90453.37924995138</v>
+        <v>24.57553174072594</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-3170870.266766078</v>
+        <v>24.52206846486747</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>466472.4841955337</v>
+        <v>24.58991243470774</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>987703.4946268759</v>
+        <v>24.59716240160657</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-2473916.120136975</v>
+        <v>24.53194750082819</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>2541171.190698905</v>
+        <v>24.61688251401884</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>2828675.50236196</v>
+        <v>24.62282876842669</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>1849516.474785951</v>
+        <v>24.62483125170903</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1989810.872511858</v>
+        <v>24.63948885851531</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>2258452.090340544</v>
+        <v>24.65017921651941</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-1114809.654819005</v>
+        <v>24.54729661845094</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>628437.6372976857</v>
+        <v>24.60349368881241</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>1792837.523635535</v>
+        <v>24.6268847707262</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-1338681.72327538</v>
+        <v>24.5281249539508</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-250387.2651366369</v>
+        <v>24.56575564458387</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>87563.18151740552</v>
+        <v>24.58248677111381</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-1398710.922087829</v>
+        <v>24.50520510985627</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-333860.2204458711</v>
+        <v>24.56594481821683</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>564669.2515938102</v>
+        <v>24.59665300524459</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-1700027.672569223</v>
+        <v>24.50173240285307</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>704357.6172206705</v>
+        <v>24.60706633003337</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-4385972.00245384</v>
+        <v>24.53685115872502</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-2654221.526743744</v>
+        <v>24.55156572278396</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-1086427.117861794</v>
+        <v>24.57020323665079</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-4485065.828179433</v>
+        <v>24.52987759325942</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>3416.678027843781</v>
+        <v>24.57945387743719</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>1221415.104850381</v>
+        <v>24.5943891062437</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-4768229.419329113</v>
+        <v>24.53085038913142</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>2008268.33878257</v>
+        <v>24.59618858737411</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>3116431.007938056</v>
+        <v>24.60972988817507</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>704961.9463539146</v>
+        <v>24.59047532775342</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>953227.7347703344</v>
+        <v>24.60311806176059</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>1597294.343206539</v>
+        <v>24.61649020543519</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-2526827.990703175</v>
+        <v>24.53756177151741</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-626164.2566030944</v>
+        <v>24.5724988822847</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>2066992.255793236</v>
+        <v>24.61074202964572</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-2379063.204674369</v>
+        <v>24.52454506231758</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-649774.045247021</v>
+        <v>24.55885399905073</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>100346.2694636839</v>
+        <v>24.57933740814242</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-1953236.55503116</v>
+        <v>24.5196483689033</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-493806.5758589898</v>
+        <v>24.5605911812245</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>616322.4870580201</v>
+        <v>24.59446107215549</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-2845867.012263911</v>
+        <v>24.50500086278002</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>335573.0547586302</v>
+        <v>24.58391217226979</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>-893944.4713140238</v>
+        <v>24.55850251257576</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-770448.9136301349</v>
+        <v>24.51377601716645</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>88498.25531597843</v>
+        <v>24.55588613274425</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>384951.7378029293</v>
+        <v>24.56892696344644</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-1289416.0409748</v>
+        <v>24.49806555011375</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-1001556.850936572</v>
+        <v>24.51576006255416</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-678838.4142170466</v>
+        <v>24.53668156701617</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-1238443.980811853</v>
+        <v>24.53966561407952</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-629523.7195776239</v>
+        <v>24.54820974066772</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>272984.1263942068</v>
+        <v>24.58015310910703</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-1241389.024566835</v>
+        <v>24.49183932694212</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-1050467.052327758</v>
+        <v>24.51148039425757</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-870147.036947344</v>
+        <v>24.53210192093371</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-1658025.368692661</v>
+        <v>24.48036460049378</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-884562.6550241882</v>
+        <v>24.54539256763211</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>544411.338887049</v>
+        <v>24.59406124611009</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-553665.4739825147</v>
+        <v>24.5556075336355</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>553564.4940912714</v>
+        <v>24.6099629337734</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>768570.1017991897</v>
+        <v>24.64581214398865</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-1067131.682495617</v>
+        <v>24.47749602437145</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-686116.7080815132</v>
+        <v>24.51903772422617</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>-161812.5960341778</v>
+        <v>24.5730310871975</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1365258.362129365</v>
+        <v>24.63169312061185</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>656132.8844586822</v>
+        <v>24.61979039863349</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1164235.715379352</v>
+        <v>24.65375092195096</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1338369.332038804</v>
+        <v>24.66854136266367</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-474013.3610554319</v>
+        <v>24.53854067028906</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>790678.7718420614</v>
+        <v>24.64638713139521</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>973191.4945901571</v>
+        <v>24.6563308195037</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-295060.0216203894</v>
+        <v>24.55980634516485</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>264676.319522816</v>
+        <v>24.60575592782926</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>862534.1382379674</v>
+        <v>24.62506917795102</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-987123.0982223646</v>
+        <v>24.5152564742084</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>517741.6541931816</v>
+        <v>24.61736242354006</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>795350.2284052821</v>
+        <v>24.63211616840466</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-1254232.870044796</v>
+        <v>24.51510452493589</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1582673.41566911</v>
+        <v>24.66667249145711</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>2250162.670984303</v>
+        <v>24.70309774523534</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1698857.841462035</v>
+        <v>24.75428557796197</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>2037947.878489244</v>
+        <v>24.78652785567568</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>2273576.835014458</v>
+        <v>24.81506853949686</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>159693.092394849</v>
+        <v>24.57698439254032</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1484989.650650603</v>
+        <v>24.73501848310654</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1719414.784280816</v>
+        <v>24.76688281595411</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>1821148.830682042</v>
+        <v>24.64696337076725</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>368211.9133955637</v>
+        <v>24.61199606405368</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>746936.4151361248</v>
+        <v>24.63593933585117</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>1319624.689858711</v>
+        <v>24.67083805975734</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>-751488.2067649015</v>
+        <v>24.51293768440472</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>751850.7139171968</v>
+        <v>24.63225408227486</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>1008178.657558923</v>
+        <v>24.6563580720956</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>-719466.8464873704</v>
+        <v>24.54716062880539</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>238648.7582032243</v>
+        <v>24.59833030168985</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>903980.0128831726</v>
+        <v>24.62540286866425</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>-1092584.502923163</v>
+        <v>24.50843823112062</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>457944.407440703</v>
+        <v>24.61379442557746</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>1029699.245476065</v>
+        <v>24.64385986966753</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-1150523.698815447</v>
+        <v>24.51614484844045</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>1761815.551230155</v>
+        <v>24.67277836370569</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>2790887.732946557</v>
+        <v>24.72031072907615</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1810558.861228491</v>
+        <v>24.75878945789217</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>2015882.737700654</v>
+        <v>24.77952347186729</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>2490510.033413601</v>
+        <v>24.82921135313584</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-308189.8241085593</v>
+        <v>24.54665325563083</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>1379281.140458425</v>
+        <v>24.72572906558263</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1948815.381390493</v>
+        <v>24.77360256088595</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1995238.846533369</v>
+        <v>24.6229851535782</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-581658.5951375817</v>
+        <v>24.5570010859753</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>-88650.62025530871</v>
+        <v>24.5836667656364</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>676203.9317645285</v>
+        <v>24.62093052730253</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>-1481672.337551555</v>
+        <v>24.50917666938813</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>784460.4167097433</v>
+        <v>24.59692943127012</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>1297839.762616754</v>
+        <v>24.63026793446916</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-1467212.006288425</v>
+        <v>24.54040050943301</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>255305.189984046</v>
+        <v>24.588077141338</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>1508062.215587823</v>
+        <v>24.62386195697115</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-1439239.738689507</v>
+        <v>24.52183289740674</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>398727.7990758992</v>
+        <v>24.59720650604771</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1645900.377528711</v>
+        <v>24.63873084635802</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>-2177278.557386374</v>
+        <v>24.51517000335507</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1630298.019534697</v>
+        <v>24.63563751623898</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>3754795.563182224</v>
+        <v>24.69213807043815</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>1442335.066740755</v>
+        <v>24.67086551046628</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>2047469.329424972</v>
+        <v>24.70553692302587</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>3334071.699068026</v>
+        <v>24.76944793358048</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-1078592.748250013</v>
+        <v>24.51879438629973</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>1064437.937159904</v>
+        <v>24.65789624515238</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>2493784.71304879</v>
+        <v>24.72721627574582</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-2407078.240133843</v>
+        <v>24.54549976688341</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-2041010.653286486</v>
+        <v>24.54921307917277</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>65866.57594510613</v>
+        <v>24.57058869700878</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-3256935.975095766</v>
+        <v>24.51758708199903</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-756053.5348484351</v>
+        <v>24.5574015857808</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-51657.99665320586</v>
+        <v>24.56116222073122</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-3031426.168573629</v>
+        <v>24.52327777824345</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>947693.3557264499</v>
+        <v>24.57762234686627</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>1562812.290521173</v>
+        <v>24.58554969232875</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-1099156.396094221</v>
+        <v>24.54406652661789</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-891091.3409385219</v>
+        <v>24.56769088313109</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-955128.7148768295</v>
+        <v>24.56655630323495</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-1516510.326109604</v>
+        <v>24.53270855333794</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-1491625.191941576</v>
+        <v>24.5347918256538</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>319189.6426525093</v>
+        <v>24.56846143344029</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-1350962.648999354</v>
+        <v>24.54772701122432</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-421269.1560626539</v>
+        <v>24.5707025789597</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>593050.3579553277</v>
+        <v>24.58722650546493</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-1387319.828721886</v>
+        <v>24.51842005930091</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-858129.1700666164</v>
+        <v>24.54136187372189</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-570108.3597715202</v>
+        <v>24.5540865340796</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-2076151.788398599</v>
+        <v>24.500987565796</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-762428.969009209</v>
+        <v>24.56572933752552</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-1212800.652308746</v>
+        <v>24.54720974183009</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-205597.1499442904</v>
+        <v>24.56993948621072</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>150093.5170761744</v>
+        <v>24.58203780988693</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>-2897385.076792166</v>
+        <v>24.51768092852268</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>831957.7982518036</v>
+        <v>24.59787569196238</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>912480.5771173594</v>
+        <v>24.5974288162497</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>-2658730.067067157</v>
+        <v>24.52505671030779</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>2249835.223555777</v>
+        <v>24.62256201837154</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2201361.491095221</v>
+        <v>24.62329673513576</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>1576747.837839971</v>
+        <v>24.62850521962571</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1870192.418762728</v>
+        <v>24.6512558428879</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1797300.405656999</v>
+        <v>24.65074726588515</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>-361722.3274423887</v>
+        <v>24.56074593902802</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>1087268.420093947</v>
+        <v>24.62326164738092</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>1964036.766345935</v>
+        <v>24.64023371220343</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>-584109.4797202098</v>
+        <v>24.55364868768838</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>213105.057671383</v>
+        <v>24.60417635420928</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>402744.4343889868</v>
+        <v>24.61456763503318</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>-1182040.627819783</v>
+        <v>24.52154822428722</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>335559.6849227704</v>
+        <v>24.60478891351046</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>638231.4346303435</v>
+        <v>24.61888240300182</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1258225.521038801</v>
+        <v>24.64463081009841</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-2609452.948424073</v>
+        <v>24.54071979666185</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-665620.9035006182</v>
+        <v>24.56543827847046</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>218457.4922341907</v>
+        <v>24.58136020977345</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-3207563.095968221</v>
+        <v>24.51942285359479</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>840255.4560863459</v>
+        <v>24.59732381138019</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>1368082.433225546</v>
+        <v>24.60578300218133</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-2624297.815110479</v>
+        <v>24.52847184518315</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>2816181.891618171</v>
+        <v>24.62645919374288</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>3118351.843083135</v>
+        <v>24.6341824141411</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>2100169.260551666</v>
+        <v>24.63698618455517</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2186720.567736983</v>
+        <v>24.65371828250146</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>2419376.368175056</v>
+        <v>24.66551529950591</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-1293170.791389814</v>
+        <v>24.54351518375215</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>545155.9417531608</v>
+        <v>24.6130902915949</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>1810255.644479357</v>
+        <v>24.63873743746621</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-1104293.326300893</v>
+        <v>24.54350588822376</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>189334.6020450486</v>
+        <v>24.59489020167497</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>388943.726402043</v>
+        <v>24.61310098971729</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1254634.777822673</v>
+        <v>24.51817118142414</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>223210.7900756921</v>
+        <v>24.59930681579253</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>940209.5052182779</v>
+        <v>24.62804781900057</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-1650433.866961431</v>
+        <v>24.51773063766188</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1486348.325497125</v>
+        <v>24.64723306544598</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-4721110.911140986</v>
+        <v>24.53505223413742</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-2776517.938808995</v>
+        <v>24.55476355077369</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-806405.3019004668</v>
+        <v>24.57666592360333</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-4438327.664546976</v>
+        <v>24.52928844868857</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>591806.8341344731</v>
+        <v>24.58673745791024</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1988388.905805846</v>
+        <v>24.60319825472116</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-4834939.641244328</v>
+        <v>24.52972887341761</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>2732811.740041752</v>
+        <v>24.60563458100235</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>3807683.479690948</v>
+        <v>24.62111177614509</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>1258362.695862898</v>
+        <v>24.60225788583487</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>1485385.327798765</v>
+        <v>24.61725807901042</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>2168310.662961275</v>
+        <v>24.63218925109706</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-2692213.308249917</v>
+        <v>24.53678504171089</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>-682871.1593832732</v>
+        <v>24.58240069893519</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2335951.193196317</v>
+        <v>24.62315948821365</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-2106751.614892693</v>
+        <v>24.53679538706508</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>-37199.37631783736</v>
+        <v>24.58216740610465</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>606812.382041605</v>
+        <v>24.60446323684026</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-1748301.565572446</v>
+        <v>24.52929724551335</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>194229.5013906069</v>
+        <v>24.586723726186</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>1101885.271354613</v>
+        <v>24.61971875265146</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-2791586.047281882</v>
+        <v>24.51752157664389</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1290413.928042712</v>
+        <v>24.61629132834205</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-266000.3644211725</v>
+        <v>24.59072208819225</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-469059.9481968437</v>
+        <v>24.55275783433119</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>631325.443179815</v>
+        <v>24.60065312867217</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>896524.5612253429</v>
+        <v>24.61319001741679</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-1143088.833164565</v>
+        <v>24.51462460882956</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-670995.1461659538</v>
+        <v>24.55572162778443</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-283321.9959681285</v>
+        <v>24.5775934106397</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-1284975.003338308</v>
+        <v>24.53787493195517</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-628275.7975103301</v>
+        <v>24.55880466949434</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>554086.0553131395</v>
+        <v>24.59722683980023</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-1127515.946153921</v>
+        <v>24.49362507305207</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-854137.8452410845</v>
+        <v>24.5318415052926</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-634614.4413566405</v>
+        <v>24.55556786866194</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-1673704.508098588</v>
+        <v>24.48142610699009</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-667343.8374479269</v>
+        <v>24.56836101945451</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>1062347.279301575</v>
+        <v>24.62196835617194</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-401005.107952819</v>
+        <v>24.58680549509883</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1018485.245915504</v>
+        <v>24.65129781084409</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>1257008.133019422</v>
+        <v>24.68832313038583</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-1014091.66749788</v>
+        <v>24.4809368035976</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-505072.0022475497</v>
+        <v>24.55294942000122</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>49379.61521458994</v>
+        <v>24.61003528954574</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1982968.550665975</v>
+        <v>24.67117266670614</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1161089.963308848</v>
+        <v>24.66939540736497</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1641351.103860563</v>
+        <v>24.70849872981503</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>1807435.616292685</v>
+        <v>24.72175683683801</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-266709.3130142115</v>
+        <v>24.56189285158818</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>1222218.161275499</v>
+        <v>24.69665237206484</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>1343193.305889924</v>
+        <v>24.70604457083863</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-332121.5755448054</v>
+        <v>24.56049547541371</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>392955.041862097</v>
+        <v>24.62115123271858</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>1048502.514085616</v>
+        <v>24.64640109470768</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-900317.6301127874</v>
+        <v>24.5208252439935</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>871711.7692755504</v>
+        <v>24.6443285988076</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1102461.274243412</v>
+        <v>24.66128518554578</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>-1412134.35202704</v>
+        <v>24.5191042633212</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1924406.410939228</v>
+        <v>24.69543980307625</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>2683652.540030981</v>
+        <v>24.73586411108824</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1867146.855483689</v>
+        <v>24.79219043121184</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>2285371.135649624</v>
+        <v>24.83435266474305</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>2539394.650898224</v>
+        <v>24.86313718610366</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>68497.49819670497</v>
+        <v>24.58282466851812</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>1758337.583546764</v>
+        <v>24.77602142993969</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1937856.926667457</v>
+        <v>24.80974082954015</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>2484095.439867746</v>
+        <v>24.68615397814055</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>918847.5990893082</v>
+        <v>24.66169626252757</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>1260327.605145384</v>
+        <v>24.69085126358133</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>1811876.705637618</v>
+        <v>24.72403330148381</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-601424.7861888458</v>
+        <v>24.53663238281136</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>1174182.032014899</v>
+        <v>24.68280919196282</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-842615.5191085975</v>
+        <v>24.54837861357966</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>328345.9915408575</v>
+        <v>24.61425195341334</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1074502.17420947</v>
+        <v>24.64686674574741</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-1011833.234028174</v>
+        <v>24.51470915019533</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>800202.3257641232</v>
+        <v>24.64136099005768</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>1368718.624082337</v>
+        <v>24.67336629887733</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-1302479.417693692</v>
+        <v>24.5206626320963</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>2106613.813814433</v>
+        <v>24.70177781599294</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>3251052.441374968</v>
+        <v>24.7528800859992</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>2000180.921788979</v>
+        <v>24.79690493650655</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>2290499.052926996</v>
+        <v>24.82749656388064</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>2760107.872369291</v>
+        <v>24.87712614267288</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-462510.9188918954</v>
+        <v>24.55331900418265</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1660548.635744151</v>
+        <v>24.76721623868614</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>2192869.505756151</v>
+        <v>24.81654136238883</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>2835204.480060585</v>
+        <v>24.65526279533157</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-33900.34174722938</v>
+        <v>24.59690056764841</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>508947.4614211864</v>
+        <v>24.62890509760621</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>1251389.009738024</v>
+        <v>24.66555693721606</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-1316221.410578243</v>
+        <v>24.52820528188335</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1358620.267953694</v>
+        <v>24.63800064316762</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>1770576.772620486</v>
+        <v>24.67150078880681</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1577107.568396663</v>
+        <v>24.54273950010828</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>344396.5315715976</v>
+        <v>24.60191408642923</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>1853448.722370087</v>
+        <v>24.64298492301872</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-1276911.450670356</v>
+        <v>24.52782266991606</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>792347.8760110611</v>
+        <v>24.62010097976041</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>2143605.05210596</v>
+        <v>24.66407953720548</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-2234157.388464343</v>
+        <v>24.52021905537102</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>2056517.515578408</v>
+        <v>24.6604285251952</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>4443972.53835406</v>
+        <v>24.72070004318685</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>1766263.058697198</v>
+        <v>24.70356815630834</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>2602749.286293434</v>
+        <v>24.74736417803957</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3945940.155142503</v>
+        <v>24.81209746010978</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-1093135.765792714</v>
+        <v>24.52641493171981</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1586027.877575029</v>
+        <v>24.69360318026574</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>2911518.265761673</v>
+        <v>24.76499178675652</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-1185717.16588275</v>
+        <v>24.52439971794875</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>-1181570.104012668</v>
+        <v>24.52505392065933</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>-358517.9406953441</v>
+        <v>24.55586186296902</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-1361671.765779186</v>
+        <v>24.4895944795069</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>-368813.7177220181</v>
+        <v>24.54272878313748</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>-230785.0375755519</v>
+        <v>24.54611234226728</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-1283380.402670075</v>
+        <v>24.50522411277928</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>209979.7405028153</v>
+        <v>24.57511981428134</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>355130.3855560918</v>
+        <v>24.58240736485057</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-655340.4360291675</v>
+        <v>24.533018976502</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>-490607.5763566814</v>
+        <v>24.55825221791038</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>-516803.6797600548</v>
+        <v>24.55928932899985</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>-424599.229884486</v>
+        <v>24.5203072594821</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-564745.7422176538</v>
+        <v>24.51375769277171</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>331192.3697457386</v>
+        <v>24.55710309572116</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-506295.0597505455</v>
+        <v>24.54209676765319</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-1311.961119331036</v>
+        <v>24.58579224002963</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>176618.3126902356</v>
+        <v>24.60542894810793</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-778046.4896615479</v>
+        <v>24.48964086857958</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-395582.9292066318</v>
+        <v>24.54566936675635</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-266005.1062221878</v>
+        <v>24.55662698016098</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-840211.9974717208</v>
+        <v>24.49184178621456</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>103594.4220680055</v>
+        <v>24.60142864823143</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-801570.4259618187</v>
+        <v>24.51604147055448</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-659412.3681826367</v>
+        <v>24.53951125790853</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-312744.4644007974</v>
+        <v>24.5586371878761</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>-1222418.830832481</v>
+        <v>24.47764084249333</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>-20179.46521005565</v>
+        <v>24.58309933758735</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>14590.48693918419</v>
+        <v>24.57987102697199</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-1098424.38210998</v>
+        <v>24.49393152758863</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>540095.575615486</v>
+        <v>24.61832456155517</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>500660.7162585249</v>
+        <v>24.61531578573081</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>227047.3146817994</v>
+        <v>24.62330885149751</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>436071.639165796</v>
+        <v>24.64394637004496</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>426166.3113968259</v>
+        <v>24.64637819183073</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-216129.90657436</v>
+        <v>24.53610958546555</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>147784.1778600575</v>
+        <v>24.60541060792612</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>440779.501038848</v>
+        <v>24.62545705186646</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>-131812.8502867485</v>
+        <v>24.5469781955999</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>215031.3109221999</v>
+        <v>24.62578946111651</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>214767.6750570399</v>
+        <v>24.63746599590609</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-636215.5469909387</v>
+        <v>24.48947717065638</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>262378.9612078387</v>
+        <v>24.62642938154156</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>232256.2618672233</v>
+        <v>24.63680853202998</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>-707210.4452787765</v>
+        <v>24.5050612345255</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>815676.3731564775</v>
+        <v>24.69942246889141</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>-1367215.963351048</v>
+        <v>24.50258737876313</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-934954.0006936088</v>
+        <v>24.5277868713634</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-347345.3396160899</v>
+        <v>24.55225664648173</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>-1349707.344878154</v>
+        <v>24.47429905172285</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-113622.1317370785</v>
+        <v>24.57565853750743</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-1755.485877000289</v>
+        <v>24.58411309945165</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>-1126845.370686817</v>
+        <v>24.49174010513703</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>586005.8490983825</v>
+        <v>24.61546973072661</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>713073.8147878214</v>
+        <v>24.62212218182311</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>391915.3554572084</v>
+        <v>24.62727866501854</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>492500.189953859</v>
+        <v>24.63975319899638</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>756882.209945446</v>
+        <v>24.65826366772906</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>-691826.1136075247</v>
+        <v>24.50544063183581</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>-201825.1309947231</v>
+        <v>24.5831707593475</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>206552.4806459693</v>
+        <v>24.61452035929554</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-396587.8503262468</v>
+        <v>24.52898641785705</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>154393.9965559184</v>
+        <v>24.60731001584948</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>187466.0977085572</v>
+        <v>24.62982732607299</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>-679764.1367573891</v>
+        <v>24.4804505267319</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>167981.4252147795</v>
+        <v>24.61262520818302</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>252460.2731447605</v>
+        <v>24.64212924653958</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-660214.9815175929</v>
+        <v>24.50259535303647</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>844006.8633218978</v>
+        <v>24.69423750466505</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-2215352.914609954</v>
+        <v>24.50439267159858</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>-1794979.914259749</v>
+        <v>24.52458109881458</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-685397.4815208402</v>
+        <v>24.55636593490912</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>-1882739.927463607</v>
+        <v>24.49625249746023</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>-275029.5447924603</v>
+        <v>24.57061878446552</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>177217.5109313919</v>
+        <v>24.59019667696203</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-2075034.460814456</v>
+        <v>24.50227296831406</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>356903.5917487066</v>
+        <v>24.59804075657008</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>891885.3481435421</v>
+        <v>24.61597341302293</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>323622.3315866442</v>
+        <v>24.5960371882161</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>456972.6055235812</v>
+        <v>24.6094536499349</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>871352.2614170251</v>
+        <v>24.63088997419642</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-1278077.184465135</v>
+        <v>24.50987259882845</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>-680551.6211010828</v>
+        <v>24.55906450336407</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>556641.4774702532</v>
+        <v>24.61051904205798</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-789339.6323371632</v>
+        <v>24.52042874849487</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>114862.2049453473</v>
+        <v>24.58981244392258</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>233221.2736299548</v>
+        <v>24.61728051564557</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-962751.1825095713</v>
+        <v>24.49588427050001</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>131425.9679543603</v>
+        <v>24.59242701297406</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>238407.1503928887</v>
+        <v>24.62852641271078</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-1126659.279693146</v>
+        <v>24.5008092538616</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>805284.6809411504</v>
+        <v>24.64907897752993</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>246395.6108583506</v>
+        <v>24.62322465244154</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>-85288.30139002827</v>
+        <v>24.58662122992617</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>395286.5495083057</v>
+        <v>24.64635423058573</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>403458.5541491703</v>
+        <v>24.65019653668799</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>-342511.47982983</v>
+        <v>24.52771911276138</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>-47382.35994635562</v>
+        <v>24.59388037180458</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>128835.8361350761</v>
+        <v>24.61133785099849</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>-349424.8486456793</v>
+        <v>24.5374004287252</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>-39188.62621380159</v>
+        <v>24.58247719553149</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>408011.2592689618</v>
+        <v>24.63566961788701</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>-625095.0015415464</v>
+        <v>24.45967229808775</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>-384061.0166207773</v>
+        <v>24.54515857265898</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>-179640.6575908891</v>
+        <v>24.57046822200422</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>-669767.3140252513</v>
+        <v>24.47139834032737</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>82847.77401662015</v>
+        <v>24.62171195827842</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>736631.5520902736</v>
+        <v>24.68014876847132</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>1364.165919249689</v>
+        <v>24.63713007236599</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>511615.7475160286</v>
+        <v>24.72828392368899</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>596414.6825471099</v>
+        <v>24.75898488226661</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>-318479.6481050811</v>
+        <v>24.50091930145359</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>1350.361727707846</v>
+        <v>24.62564061156489</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>212002.4552765113</v>
+        <v>24.67903296301031</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>903392.8310651955</v>
+        <v>24.7212733899945</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>597450.4052088355</v>
+        <v>24.7298628625004</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>729712.6012947581</v>
+        <v>24.77448050168272</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>728184.7259627004</v>
+        <v>24.77837851329614</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>3603.12316571258</v>
+        <v>24.5772575877524</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>621220.0105656511</v>
+        <v>24.76473870275273</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>609002.7673573116</v>
+        <v>24.76287498494251</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>-41897.98380643108</v>
+        <v>24.56364875535838</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>-502888.8539622588</v>
+        <v>24.49207395975769</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>482744.5147173666</v>
+        <v>24.69292261604954</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>505246.8506126438</v>
+        <v>24.7058959355407</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>-543727.8089746415</v>
+        <v>24.51625449813118</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>1034405.11930145</v>
+        <v>24.78448733807933</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>1174377.077647141</v>
+        <v>24.82283483348466</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>798664.946980261</v>
+        <v>24.89695871130191</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>945604.2646072359</v>
+        <v>24.95667412932805</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>990321.9942015854</v>
+        <v>24.97539052157978</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>114060.4274112431</v>
+        <v>24.62501396477384</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>851745.8046812691</v>
+        <v>24.9092524005578</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>859419.1902238742</v>
+        <v>24.92525488909811</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>1065530.181691819</v>
+        <v>24.73309052745245</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>545687.0737890956</v>
+        <v>24.71223599013967</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>633695.2482196636</v>
+        <v>24.74341533197421</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>745638.1139869299</v>
+        <v>24.77358099599787</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>-187370.5786411516</v>
+        <v>24.53595567197316</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>562483.6995844468</v>
+        <v>24.73685477801418</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>609288.1311101841</v>
+        <v>24.7533851611549</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>-314883.7911523579</v>
+        <v>24.54387660394753</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>196470.7566001866</v>
+        <v>24.64590318196901</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>505718.3397144519</v>
+        <v>24.69151750769807</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>-571135.385702702</v>
+        <v>24.48087076768478</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>437540.6549639947</v>
+        <v>24.68387267864517</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>525205.1743869509</v>
+        <v>24.7161466569441</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>-540247.5035085096</v>
+        <v>24.51344098614854</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>1111047.819032734</v>
+        <v>24.78538196380122</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>1351218.57842202</v>
+        <v>24.83831383243964</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>869779.7867309669</v>
+        <v>24.89773555402969</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>999778.7184398185</v>
+        <v>24.94201173655043</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>1089900.736782329</v>
+        <v>24.98842985826116</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>-151671.8115184038</v>
+        <v>24.57978573073926</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>884167.1040682882</v>
+        <v>24.88994187855833</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>971266.1067487537</v>
+        <v>24.9262702434353</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>1179516.321193152</v>
+        <v>24.68994583013326</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>228483.4202006869</v>
+        <v>24.62582452852055</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>413157.302769089</v>
+        <v>24.66358092693306</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>544704.627545102</v>
+        <v>24.69896250310281</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>-443202.2064336871</v>
+        <v>24.52530136822636</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>617868.4918802181</v>
+        <v>24.67735428399575</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>702162.3869964975</v>
+        <v>24.70897253522272</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>-588025.6981830985</v>
+        <v>24.54128926230098</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>283191.4179739042</v>
+        <v>24.63337401657105</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>835958.8995466192</v>
+        <v>24.68893172528491</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>-732848.1222807121</v>
+        <v>24.50489354300112</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>547712.0848468493</v>
+        <v>24.65692470784937</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>787434.95841022</v>
+        <v>24.70607515413232</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>-882467.1337776859</v>
+        <v>24.51718640269693</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>1392384.334666435</v>
+        <v>24.73130790566932</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>1874112.86349377</v>
+        <v>24.79824245116078</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>1049647.506924734</v>
+        <v>24.78323059845613</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>1382702.917672582</v>
+        <v>24.84573489956534</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>1588925.769920904</v>
+        <v>24.91290765673578</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>-347503.2068616601</v>
+        <v>24.55000539006079</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>1160140.076760689</v>
+        <v>24.79593344657938</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>1361336.554560444</v>
+        <v>24.86614220119258</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/plate_1/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.5755193984341</v>
+        <v>15.57551939843405</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.01861640482184</v>
+        <v>17.01861640482171</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.80538388561849</v>
+        <v>30.80538388561838</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.627970510409593</v>
+        <v>1.627970510409597</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.68158699764179</v>
+        <v>22.68158699764184</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.0519672007505</v>
+        <v>28.0519672007504</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.041149287405457</v>
+        <v>8.041149287405464</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>37.76915723740284</v>
+        <v>37.76915723740279</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>44.25189157955044</v>
+        <v>44.25189157955029</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.13922420231101</v>
+        <v>17.13922420231095</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.15332801391525</v>
+        <v>19.15332801391523</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19.37420929196282</v>
+        <v>19.37420929196292</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.86883549311802</v>
+        <v>11.86883549311808</v>
       </c>
     </row>
     <row r="15">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.29029697963374</v>
+        <v>36.29029697963396</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.33726797268795</v>
+        <v>13.33726797268789</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.21269049089166</v>
+        <v>25.21269049089164</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.87327177172522</v>
+        <v>33.87327177172529</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.871726582733384</v>
+        <v>1.871726582733341</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.998296517503471</v>
+        <v>9.998296517503613</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>14.17967464234143</v>
+        <v>14.17967464234156</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.405947819113276</v>
+        <v>2.405947819113209</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.66736588042396</v>
+        <v>16.66736588042395</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20.4744861405229</v>
+        <v>20.47448614052286</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.97979237161958</v>
+        <v>27.97979237161965</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.75695970410814</v>
+        <v>29.75695970410811</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.9777461990506318</v>
+        <v>0.9777461990506175</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.69001772119088</v>
+        <v>33.69001772119089</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.2600228026064</v>
+        <v>33.26002280260634</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.090496635493992</v>
+        <v>7.090496635493885</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.14972044350648</v>
+        <v>47.1497204435066</v>
       </c>
     </row>
     <row r="33">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.88281766614097</v>
+        <v>47.88281766614101</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.48845080913951</v>
+        <v>51.48845080913944</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>51.33323830618869</v>
+        <v>51.33323830618866</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>22.81266955778191</v>
+        <v>22.81266955778183</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.85928105908426</v>
+        <v>41.85928105908413</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>55.05031719605749</v>
+        <v>55.05031719605732</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.62419159309824</v>
+        <v>18.6241915930983</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.5813561957663</v>
+        <v>33.58135619576633</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.21939288173361</v>
+        <v>35.21939288173354</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.887587562856076</v>
+        <v>2.887587562856009</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.80336631137739</v>
+        <v>28.80336631137736</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.64376765026574</v>
+        <v>34.64376765026567</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.244493514262839</v>
+        <v>3.24449351426286</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>45.61295128446444</v>
+        <v>45.61295128446432</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>10.14683075939281</v>
+        <v>10.1468307593929</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.07632784009888</v>
+        <v>23.07632784009889</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.8123905021171</v>
+        <v>27.81239050211698</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.01488799161835175</v>
+        <v>0.01488799161834464</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.00150478825873</v>
+        <v>33.00150478825879</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.39310691586851</v>
+        <v>36.3931069158687</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8.065803538588163</v>
+        <v>8.065803538588082</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>49.33606211837807</v>
+        <v>49.33606211837812</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>52.53713240201856</v>
+        <v>52.53713240201859</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>54.10015925135766</v>
+        <v>54.10015925135747</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>55.57825402940058</v>
+        <v>55.57825402940048</v>
       </c>
     </row>
     <row r="59">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>11.47372890035979</v>
+        <v>11.4737289003598</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.22963825466371</v>
+        <v>33.22963825466384</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>50.00101671264522</v>
+        <v>50.00101671264526</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>10.83500875986071</v>
+        <v>10.83500875986086</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.19461100920264</v>
+        <v>30.1946110092026</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.74115025501982</v>
+        <v>33.7411502550199</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.711206229816415</v>
+        <v>1.711206229816181</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.39678266444975</v>
+        <v>24.39678266444978</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.03998445862666</v>
+        <v>38.03998445862661</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.476125974130692</v>
+        <v>4.476125974130614</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.47291560756624</v>
+        <v>44.47291560756631</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.913503683711482</v>
+        <v>4.913503683711475</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14.13248421956083</v>
+        <v>14.13248421956086</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.14052804034959</v>
+        <v>23.14052804034954</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.222806899920954</v>
+        <v>-0.2228068999209789</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.81047933184959</v>
+        <v>29.81047933184963</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>36.96894838716449</v>
+        <v>36.96894838716456</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.881449283591405</v>
+        <v>1.88144928359133</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.9553983787811</v>
+        <v>43.95539837878104</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.09290578784451</v>
+        <v>51.09290578784462</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>41.5591334528507</v>
+        <v>41.55913345285047</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.68565350101092</v>
+        <v>43.68565350101082</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>47.9747134345639</v>
+        <v>47.97471343456388</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.9794471042472</v>
+        <v>4.979447104247289</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>22.71524854830453</v>
+        <v>22.71524854830448</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>47.73543365000434</v>
+        <v>47.73543365000441</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6.863372042740647</v>
+        <v>6.863372042740632</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.02640512110076</v>
+        <v>27.02640512110069</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.24300007024168</v>
+        <v>35.24300007024163</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.61202999768749</v>
+        <v>2.612029997687557</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>23.87581716324085</v>
+        <v>23.87581716324097</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.51384946698447</v>
+        <v>38.51384946698456</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.518104887387413</v>
+        <v>1.518104887387331</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.20396439167712</v>
+        <v>38.20396439167722</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.17924313160912</v>
+        <v>22.17924313160911</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>18.47450435840661</v>
+        <v>18.47450435840658</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>30.95314499905338</v>
+        <v>30.95314499905331</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.69970670776522</v>
+        <v>35.69970670776532</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.517081730621896</v>
+        <v>4.517081730621925</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>12.91489900327896</v>
+        <v>12.91489900327901</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>20.44550711320263</v>
+        <v>20.44550711320261</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.19602039952147</v>
+        <v>10.19602039952144</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20.40527309340663</v>
+        <v>20.40527309340664</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.61831833658579</v>
+        <v>32.61831833658577</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1.24938229849079</v>
+        <v>1.249382298490776</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>7.244760085333137</v>
+        <v>7.244760085333006</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>12.66153836200031</v>
+        <v>12.66153836200033</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2.600059449391992</v>
+        <v>2.600059449391988</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>16.75484624472438</v>
+        <v>16.75484624472442</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.06055998976866</v>
+        <v>36.0605599897686</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>19.87246257576984</v>
+        <v>19.8724625757699</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.15922465655282</v>
+        <v>41.15922465655274</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.12531890663343</v>
+        <v>46.12531890663345</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.219871999491872</v>
+        <v>3.219871999492018</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>15.9932392621295</v>
+        <v>15.99323926212968</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.73443390994842</v>
+        <v>28.73443390994833</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.9774365083982</v>
+        <v>54.97743650839823</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.81517561828714</v>
+        <v>53.81517561828719</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.74266802569021</v>
+        <v>60.74266802568995</v>
       </c>
     </row>
     <row r="119">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.77314358823495</v>
+        <v>19.7731435882349</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.4185945160159</v>
+        <v>55.41859451601589</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>60.02270152774958</v>
+        <v>60.02270152774962</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>22.20346303675649</v>
+        <v>22.20346303675653</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.06828483871381</v>
+        <v>37.06828483871382</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>43.11935490482134</v>
+        <v>43.11935490482144</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4.280716836286821</v>
+        <v>4.280716836286921</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.01804568373349</v>
+        <v>40.01804568373358</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.74571666807933</v>
+        <v>43.7457166680792</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6.284170351655458</v>
+        <v>6.284170351655472</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.3979303700381</v>
+        <v>62.39793037003804</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>66.27128070098459</v>
+        <v>66.27128070098468</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>78.56159425568703</v>
+        <v>78.56159425568701</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.73096168456101</v>
+        <v>81.73096168456097</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>83.89574796115984</v>
+        <v>83.89574796115986</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30.23560726140348</v>
+        <v>30.23560726140363</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.90505047330008</v>
+        <v>72.90505047330007</v>
       </c>
     </row>
     <row r="137">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>58.89490710144763</v>
+        <v>58.8949071014477</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.29794379645375</v>
+        <v>44.29794379645368</v>
       </c>
     </row>
     <row r="140">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>60.09377537116865</v>
+        <v>60.09377537116875</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.33279080799691</v>
+        <v>10.33279080799693</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.76107071495915</v>
+        <v>50.76107071495908</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>58.40776829422528</v>
+        <v>58.40776829422536</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13.19322508204519</v>
+        <v>13.19322508204516</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.59190095308297</v>
+        <v>34.5919009530829</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.90367327462985</v>
+        <v>41.90367327462981</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2.184137438661711</v>
+        <v>2.184137438661534</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>37.44471510182169</v>
+        <v>37.44471510182167</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.84773187200133</v>
+        <v>46.84773187200145</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6.655081389154432</v>
+        <v>6.65508138915445</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>62.11515298636465</v>
+        <v>62.11515298636475</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>71.75308431379658</v>
+        <v>71.75308431379661</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>78.18291810509393</v>
+        <v>78.18291810509399</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>79.49272496543526</v>
+        <v>79.49272496543522</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>87.10220066996445</v>
+        <v>87.10220066996435</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>15.06202731738587</v>
+        <v>15.06202731738579</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>67.65670872253976</v>
+        <v>67.6567087225397</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>80.78879595209465</v>
+        <v>80.78879595209473</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>57.6192334154583</v>
+        <v>57.61923341545837</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.85295662472955</v>
+        <v>25.85295662472954</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.74139743142894</v>
+        <v>33.74139743142899</v>
       </c>
     </row>
     <row r="163">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>5.318270730172074</v>
+        <v>5.318270730172234</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>47.29710075777817</v>
+        <v>47.29710075777822</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>58.12906794398734</v>
+        <v>58.12906794398732</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>8.629014497887329</v>
+        <v>8.629014497887315</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.07344465033285</v>
+        <v>33.07344465033272</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.62932963864423</v>
+        <v>44.62932963864422</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3.056347260743852</v>
+        <v>3.056347260743685</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.9466051306178</v>
+        <v>33.94660513061773</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>48.66966185794237</v>
+        <v>48.66966185794236</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1.119853899541706</v>
+        <v>1.119853899541717</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>52.21469072384109</v>
+        <v>52.21469072384106</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>71.7823777914612</v>
+        <v>71.78237779146112</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>58.90350551699255</v>
+        <v>58.90350551699258</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>67.84316410067325</v>
+        <v>67.84316410067323</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.42448864230548</v>
+        <v>87.42448864230538</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>5.31375250784982</v>
+        <v>5.31375250784988</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>55.22006622986067</v>
+        <v>55.22006622986063</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>77.29422196147685</v>
+        <v>77.29422196147704</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.98184477585965</v>
+        <v>13.98184477585968</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.53532226655846</v>
+        <v>17.53532226655842</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.34230600550585</v>
+        <v>30.34230600550584</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.8301465472364953</v>
+        <v>0.8301465472364491</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.82780659242673</v>
+        <v>22.82780659242677</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.8838429833784</v>
+        <v>25.88384298337841</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.025094697152266</v>
+        <v>7.025094697152273</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>43.32195979110608</v>
+        <v>43.32195979110617</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>46.53099402137444</v>
+        <v>46.53099402137442</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20.81593827798564</v>
+        <v>20.81593827798548</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.79258917936318</v>
+        <v>27.79258917936328</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>27.72894938845301</v>
+        <v>27.72894938845298</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.85522058754764</v>
+        <v>18.85522058754765</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.70207951683883</v>
+        <v>19.70207951683882</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>44.43664722891233</v>
+        <v>44.43664722891236</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10.36465390125902</v>
+        <v>10.36465390125895</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.51043082798363</v>
+        <v>25.51043082798364</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.69801053140591</v>
+        <v>29.698010531406</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-2.427067747983816</v>
+        <v>-2.427067747983795</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>9.737873951291007</v>
+        <v>9.737873951291146</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.65235061231105</v>
+        <v>13.65235061231118</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.03359196864910885</v>
+        <v>0.03359196864907688</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.87497178084506</v>
+        <v>26.874971780845</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16.80650581009576</v>
+        <v>16.80650581009589</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.5992162719465</v>
+        <v>23.59921627194651</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.09070419978086</v>
+        <v>30.09070419978087</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.9856655783092449</v>
+        <v>0.9856655783093089</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>32.75510426458061</v>
+        <v>32.75510426458075</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.41717661233769</v>
+        <v>33.41717661233772</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>7.177675261253796</v>
+        <v>7.177675261253864</v>
       </c>
     </row>
     <row r="212">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>50.99560118490989</v>
+        <v>50.9956011849099</v>
       </c>
     </row>
     <row r="214">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>54.81552845527323</v>
+        <v>54.8155284552732</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>54.88304987833928</v>
+        <v>54.88304987833951</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.86166156152499</v>
+        <v>22.86166156152501</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>45.08404404220246</v>
+        <v>45.08404404220238</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>53.43637140149377</v>
+        <v>53.43637140149405</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>17.25970458106745</v>
+        <v>17.25970458106747</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.95216705543705</v>
+        <v>31.95216705543715</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.18761312933125</v>
+        <v>35.18761312933127</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-0.5558142743961341</v>
+        <v>-0.5558142743961696</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.22088648832422</v>
+        <v>32.22088648832419</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.68765091244403</v>
+        <v>33.68765091244402</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2.092539640568557</v>
+        <v>2.092539640568543</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>51.09471004424104</v>
+        <v>51.09471004424108</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.440005942386666</v>
+        <v>5.440005942386623</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>17.28859586975528</v>
+        <v>17.28859586975523</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.92155601903597</v>
+        <v>26.921556019036</v>
       </c>
     </row>
     <row r="231">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.15370017845087</v>
+        <v>31.15370017845091</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>33.93034857944337</v>
+        <v>33.93034857944341</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>6.648033939726723</v>
+        <v>6.648033939726634</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>47.48251966360684</v>
+        <v>47.48251966360669</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>53.8508162779316</v>
+        <v>53.85081627793157</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>53.04750849705229</v>
+        <v>53.04750849705226</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>56.04729850141931</v>
+        <v>56.04729850141928</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>62.3924767048553</v>
+        <v>62.39247670485533</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>8.381481343789677</v>
+        <v>8.381481343789694</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>34.14634048077731</v>
+        <v>34.14634048077728</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>43.43850795930774</v>
+        <v>43.43850795930791</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.395491403068462</v>
+        <v>8.395491403068494</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.78569810543848</v>
+        <v>28.7856981054385</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>33.27460189334179</v>
+        <v>33.27460189334182</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-1.41928819789123</v>
+        <v>-1.419288197891216</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.29544503497344</v>
+        <v>26.29544503497354</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.68766188927852</v>
+        <v>35.68766188927853</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>2.841415745204234</v>
+        <v>2.841415745204241</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>46.76943849796681</v>
+        <v>46.76943849796687</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2.433490459650024</v>
+        <v>2.43349045964997</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>12.7014961442033</v>
+        <v>12.70149614420335</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.8548227887174</v>
+        <v>25.85482278871735</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-0.7135144135510068</v>
+        <v>-0.7135144135509606</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>30.26438129014986</v>
+        <v>30.26438129014988</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>36.6590999779786</v>
+        <v>36.65909997797858</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.5052190679621162</v>
+        <v>0.5052190679620594</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>45.24811760616012</v>
+        <v>45.24811760616018</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>53.50510117215529</v>
+        <v>53.50510117215523</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>50.45583417783513</v>
+        <v>50.45583417783493</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>55.16558704118368</v>
+        <v>55.16558704118383</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>60.62434434489174</v>
+        <v>60.62434434489178</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>3.807698150991346</v>
+        <v>3.807698150991381</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.1626082994795</v>
+        <v>28.16260829947944</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>49.2168789857561</v>
+        <v>49.21687898575616</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>4.965111111377563</v>
+        <v>4.965111111377606</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.26645775466261</v>
+        <v>25.26645775466263</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.57748031389179</v>
+        <v>31.5774803138918</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1.838005217619109</v>
+        <v>-1.838005217619081</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.69289824529048</v>
+        <v>22.69289824529058</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.66951229436913</v>
+        <v>31.66951229436915</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-0.1742700558524959</v>
+        <v>-0.1742700558524639</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>37.81599622622683</v>
+        <v>37.81599622622693</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.4102375581874</v>
+        <v>28.41023755818742</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.82383464247848</v>
+        <v>20.8238346424785</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>38.43449862755153</v>
+        <v>38.43449862755158</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>38.61763330931313</v>
+        <v>38.61763330931319</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.024247145209227</v>
+        <v>8.024247145209294</v>
       </c>
     </row>
     <row r="279">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.77047755133016</v>
+        <v>26.77047755133022</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.60064039714516</v>
+        <v>11.60064039714522</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.89473986512095</v>
+        <v>24.89473986512102</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.51459530216325</v>
+        <v>36.51459530216327</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-2.12854425708526</v>
+        <v>-2.12854425708527</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8.156605692736591</v>
+        <v>8.156605692736687</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>18.28724746882616</v>
+        <v>18.28724746882619</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1.017395956305794</v>
+        <v>1.017395956305855</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.43423928349785</v>
+        <v>27.43423928349792</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>50.43490173943744</v>
+        <v>50.43490173943748</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.80988459053923</v>
+        <v>25.80988459053917</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.04292217161544</v>
+        <v>46.04292217161551</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>54.12388582544396</v>
+        <v>54.12388582544401</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>6.897372916427319</v>
+        <v>6.897372916427326</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.86974633772567</v>
+        <v>24.86974633772562</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>40.14754351483366</v>
+        <v>40.14754351483382</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>56.69102832370123</v>
+        <v>56.6910283237012</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>54.19278482950399</v>
+        <v>54.19278482950408</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>61.3345571651288</v>
+        <v>61.33455716512871</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>59.39405604939614</v>
+        <v>59.39405604939623</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.14588417385238</v>
+        <v>21.14588417385239</v>
       </c>
     </row>
     <row r="301">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>59.78226298115645</v>
+        <v>59.78226298115653</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.18915399768871</v>
+        <v>22.18915399768867</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.93478719423989</v>
+        <v>36.93478719423993</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.11783454012496</v>
+        <v>44.11783454012503</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.3397586576335243</v>
+        <v>0.3397586576335065</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>43.147007820242</v>
+        <v>43.14700782024207</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.43093811850194</v>
+        <v>44.43093811850191</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>5.279826136492019</v>
+        <v>5.279826136492041</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>65.18976247962526</v>
+        <v>65.1897624796253</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>69.78925947376327</v>
+        <v>69.78925947376317</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>74.65133652849558</v>
+        <v>74.65133652849551</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>79.33626729261651</v>
+        <v>79.33626729261667</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>83.13285141845202</v>
+        <v>83.13285141845206</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.4765195205175</v>
+        <v>29.47651952051747</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>75.92499487740437</v>
+        <v>75.92499487740434</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>78.32094170077985</v>
+        <v>78.32094170077984</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>58.5513259213288</v>
+        <v>58.55132592132881</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>47.85645960665421</v>
+        <v>47.85645960665409</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>51.61190837132784</v>
+        <v>51.61190837132791</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>58.5829528105139</v>
+        <v>58.58295281051393</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>9.092112130073836</v>
+        <v>9.092112130073854</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>49.63227202424257</v>
+        <v>49.63227202424255</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>56.47753612619042</v>
+        <v>56.47753612619038</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>11.1633793018882</v>
+        <v>11.16337930188818</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.6894585499317</v>
+        <v>33.68945854993162</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.54915837537155</v>
+        <v>42.54915837537146</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-2.022246425382846</v>
+        <v>-2.0222464253828</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.27025246383651</v>
+        <v>38.27025246383656</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>44.96743646713041</v>
+        <v>44.96743646713051</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>4.699335764329188</v>
+        <v>4.699335764329227</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>62.73131965967666</v>
+        <v>62.73131965967663</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>73.00285371235395</v>
+        <v>73.0028537123541</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>72.65595857451592</v>
+        <v>72.65595857451576</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>78.03709017291332</v>
+        <v>78.03709017291328</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>87.09387400193593</v>
+        <v>87.09387400193587</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.86641956197176</v>
+        <v>11.86641956197186</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>72.86688514599892</v>
+        <v>72.86688514599884</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>79.63898856675611</v>
+        <v>79.63898856675613</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>52.67073788050272</v>
+        <v>52.67073788050277</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.58533904085075</v>
+        <v>27.58533904085081</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>34.08744408574604</v>
+        <v>34.08744408574616</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.49576504833187</v>
+        <v>40.4957650483319</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.604458780587485</v>
+        <v>5.604458780587436</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>43.93645348422337</v>
+        <v>43.93645348422342</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>51.81664016340177</v>
+        <v>51.8166401634017</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6.462712300975554</v>
+        <v>6.462712300975614</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.42884061501157</v>
+        <v>32.42884061501158</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.07988552595749</v>
+        <v>44.07988552595751</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1.178085188423871</v>
+        <v>-1.178085188423843</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.89943483167564</v>
+        <v>35.89943483167568</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.08395189879528</v>
+        <v>45.08395189879529</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.1928433078953695</v>
+        <v>0.1928433078954015</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>57.74476965135878</v>
+        <v>57.74476965135879</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>72.9052045185621</v>
+        <v>72.90520451856207</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>62.09685963976446</v>
+        <v>62.09685963976438</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>75.19308398299562</v>
+        <v>75.19308398299555</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>86.30576851774715</v>
+        <v>86.30576851774714</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>7.17837422203667</v>
+        <v>7.178374222036634</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>69.31489552697418</v>
+        <v>69.31489552697428</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>80.51877963585073</v>
+        <v>80.51877963585075</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>7.55534641553243</v>
+        <v>7.555346415532483</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>9.925865084820309</v>
+        <v>9.925865084820281</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.29967744713823</v>
+        <v>20.29967744713822</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-0.3069300764174372</v>
+        <v>-0.3069300764174905</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>12.08038813518976</v>
+        <v>12.08038813518975</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>13.22196747666262</v>
+        <v>13.22196747666259</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.065206077017123</v>
+        <v>4.065206077017052</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.53386193981991</v>
+        <v>26.53386193981992</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.41028161912309</v>
+        <v>29.41028161912313</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>12.52309850778621</v>
+        <v>12.52309850778626</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>18.25556372235771</v>
+        <v>18.25556372235794</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>18.31391763118611</v>
+        <v>18.31391763118607</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>12.88393433959514</v>
+        <v>12.88393433959515</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>12.17722363611929</v>
+        <v>12.17722363611934</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.96369151488848</v>
+        <v>28.96369151488851</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.72776015497884</v>
+        <v>10.72776015497877</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.87638838496484</v>
+        <v>25.87638838496481</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.32470383873577</v>
+        <v>30.32470383873583</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-2.550617840237589</v>
+        <v>-2.550617840237646</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>8.699905976149836</v>
+        <v>8.699905976149779</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.33935055102531</v>
+        <v>15.33935055102532</v>
       </c>
     </row>
     <row r="383">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.26932467491939</v>
+        <v>28.26932467491937</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.95956227800854</v>
+        <v>10.95956227800862</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>16.64395862743054</v>
+        <v>16.64395862743052</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>21.60322332613137</v>
+        <v>21.60322332613138</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-0.5671387616981995</v>
+        <v>-0.5671387616982173</v>
       </c>
     </row>
     <row r="389">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.86060125754145</v>
+        <v>24.86060125754156</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>3.68150405425688</v>
+        <v>3.681504054256841</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.1451419799415</v>
+        <v>37.14514197994156</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.023944209106</v>
+        <v>38.0239442091062</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.81894561141148</v>
+        <v>36.81894561141142</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>44.30438385644678</v>
+        <v>44.30438385644683</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.06483621238577</v>
+        <v>45.06483621238582</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>15.3264747978539</v>
+        <v>15.32647479785383</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.39565138317041</v>
+        <v>34.39565138317031</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>39.38771702749651</v>
+        <v>39.38771702749654</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.62647346923125</v>
+        <v>17.62647346923131</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.99644340755572</v>
+        <v>32.99644340755582</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>36.06189197679782</v>
+        <v>36.0618919767979</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-1.232899749020373</v>
+        <v>-1.232899749020277</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.61648657184423</v>
+        <v>33.6164865718443</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.40601121802748</v>
+        <v>36.40601121802739</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1.311733143793955</v>
+        <v>1.311733143793944</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>54.00354875142111</v>
+        <v>54.00354875142123</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2.699888408714049</v>
+        <v>2.699888408714003</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.87866891288755</v>
+        <v>11.87866891288751</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.65727865671722</v>
+        <v>20.6572786567172</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1.277731921445358</v>
+        <v>-1.277731921445383</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.70967859726283</v>
+        <v>22.70967859726277</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.97580537590426</v>
+        <v>24.97580537590421</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>5.943287171632718</v>
+        <v>5.943287171632694</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>38.11876810234963</v>
+        <v>38.11876810234961</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>42.71682092744456</v>
+        <v>42.71682092744439</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>40.82313825382359</v>
+        <v>40.82313825382369</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>44.54770747174742</v>
+        <v>44.54770747174756</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>53.27258721132685</v>
+        <v>53.27258721132687</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>4.598420054871198</v>
+        <v>4.598420054871188</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.62371581400769</v>
+        <v>24.62371581400767</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>31.28548922462181</v>
+        <v>31.28548922462179</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.38865304947464</v>
+        <v>10.38865304947461</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.68011345781422</v>
+        <v>31.68011345781419</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>35.41327872433348</v>
+        <v>35.41327872433347</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1.374549451953449</v>
+        <v>-1.374549451953385</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.51173657683571</v>
+        <v>29.51173657683575</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>37.4580693322718</v>
+        <v>37.45806933227186</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>4.075750421316592</v>
+        <v>4.075750421316499</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>52.78120621914269</v>
+        <v>52.78120621914262</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.2531253104588274</v>
+        <v>0.2531253104588167</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>7.529168538714128</v>
+        <v>7.529168538714178</v>
       </c>
     </row>
     <row r="433">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1.658868114140507</v>
+        <v>-1.658868114140549</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>18.88073092071367</v>
+        <v>18.88073092071366</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>27.54699259032125</v>
+        <v>27.54699259032133</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-0.8326621369932496</v>
+        <v>-0.8326621369932781</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.27221628387085</v>
+        <v>31.27221628387101</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>41.30600935959821</v>
+        <v>41.30600935959815</v>
       </c>
     </row>
     <row r="440">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>39.73281496931114</v>
+        <v>39.73281496931135</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>49.40656107272439</v>
+        <v>49.40656107272437</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>1.568203257566651</v>
+        <v>1.568203257566662</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.69516278642891</v>
+        <v>19.69516278642895</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>37.94952964938633</v>
+        <v>37.94952964938628</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>6.561553727355783</v>
+        <v>6.561553727355786</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.27226822180447</v>
+        <v>28.27226822180454</v>
       </c>
     </row>
     <row r="448">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1.892464197629366</v>
+        <v>-1.892464197629291</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.23812529978628</v>
+        <v>25.23812529978639</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>33.4444712543645</v>
+        <v>33.44447125436449</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-0.2159065357549785</v>
+        <v>-0.2159065357550354</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>42.2378132571712</v>
+        <v>42.23781325717113</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>32.50911195493472</v>
+        <v>32.50911195493478</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.75440553438906</v>
+        <v>22.75440553438909</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>40.84905118294532</v>
+        <v>40.84905118294529</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>40.84339888773827</v>
+        <v>40.84339888773832</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.769981310476076</v>
+        <v>8.76998131047608</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.36322921857515</v>
+        <v>22.3632292185751</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.97867635074108</v>
+        <v>30.9786763507411</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.33283739579608</v>
+        <v>13.33283739579614</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.71392415887201</v>
+        <v>26.71392415887215</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.555484374833</v>
+        <v>39.55548437483306</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-2.640639808611738</v>
+        <v>-2.640639808611716</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>6.591999567993319</v>
+        <v>6.591999567993412</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.64235061015163</v>
+        <v>15.64235061015168</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.3752485659300717</v>
+        <v>0.3752485659300291</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.59322802540854</v>
+        <v>27.59322802540859</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>49.30176931760778</v>
+        <v>49.30176931760782</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.17208263415096</v>
+        <v>28.1720826341509</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>49.53657433639978</v>
+        <v>49.53657433639987</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>55.50122507630261</v>
+        <v>55.50122507630262</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>6.411392184007816</v>
+        <v>6.411392184007763</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.89662076298708</v>
+        <v>24.89662076298714</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>38.68064381437759</v>
+        <v>38.68064381437766</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>58.9598296318751</v>
+        <v>58.95982963187502</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>56.22648517314202</v>
+        <v>56.22648517314205</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>62.96133409167719</v>
+        <v>62.96133409167714</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>61.62386288859669</v>
+        <v>61.6238628885968</v>
       </c>
     </row>
     <row r="480">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>59.21147649787925</v>
+        <v>59.21147649787926</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>62.31354642993882</v>
+        <v>62.3135464299389</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.36823706090501</v>
+        <v>23.36823706090505</v>
       </c>
     </row>
     <row r="484">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>47.05129826865954</v>
+        <v>47.05129826865959</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-0.4433746997702492</v>
+        <v>-0.4433746997703061</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>47.07400427135667</v>
+        <v>47.07400427135673</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.62878085624443</v>
+        <v>47.62878085624433</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>3.680664572043472</v>
+        <v>3.68066457204349</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>70.467921058825</v>
+        <v>70.46792105882493</v>
       </c>
     </row>
     <row r="491">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>78.94220085848924</v>
+        <v>78.94220085848931</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>84.05874401325286</v>
+        <v>84.05874401325291</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>85.82752014713731</v>
+        <v>85.82752014713726</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.38945658814668</v>
+        <v>29.38945658814671</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>80.76546627246802</v>
+        <v>80.76546627246813</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>82.68391644485112</v>
+        <v>82.68391644485109</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>62.81270416335029</v>
+        <v>62.81270416335036</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>52.10081580108675</v>
+        <v>52.10081580108667</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>56.94235191466716</v>
+        <v>56.94235191466726</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>62.35494833771607</v>
+        <v>62.3549483377161</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.69550032367705</v>
+        <v>11.69550032367704</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>54.91149284629554</v>
+        <v>54.91149284629557</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>60.93987982882821</v>
+        <v>60.93987982882828</v>
       </c>
     </row>
     <row r="505">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.19844117675212</v>
+        <v>36.1984411767521</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>46.09695107934909</v>
+        <v>46.09695107934912</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-2.54980011064405</v>
+        <v>-2.5498001106441</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>43.2616632528668</v>
+        <v>43.26166325286685</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>47.13405489094012</v>
+        <v>47.13405489094008</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>4.422440179477562</v>
+        <v>4.422440179477569</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>70.91702599516169</v>
+        <v>70.91702599516164</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>77.62838621360017</v>
+        <v>77.62838621360009</v>
       </c>
     </row>
     <row r="514">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>85.16020227895832</v>
+        <v>85.16020227895822</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>90.20798876496789</v>
+        <v>90.20798876496787</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.18724612971572</v>
+        <v>13.18724612971579</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>80.41799890159039</v>
+        <v>80.41799890159032</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>85.61137549640738</v>
+        <v>85.61137549640746</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>55.7712600794752</v>
+        <v>55.77126007947518</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>32.87882120710375</v>
+        <v>32.87882120710388</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.70742119348267</v>
+        <v>39.70742119348266</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>46.12322548260569</v>
+        <v>46.1232254826057</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.796508756303265</v>
+        <v>7.796508756303208</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>47.36766526360468</v>
+        <v>47.36766526360479</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>53.89472715768778</v>
+        <v>53.89472715768783</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>7.633153393411575</v>
+        <v>7.633153393411675</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.63549714970179</v>
+        <v>34.63549714970182</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>46.78719309400303</v>
+        <v>46.787193094003</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1.557054031192493</v>
+        <v>-1.557054031192383</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>39.56383276596515</v>
+        <v>39.56383276596514</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>46.45071659231418</v>
+        <v>46.45071659231424</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-0.1488464170891106</v>
+        <v>-0.1488464170891248</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>64.3589161557894</v>
+        <v>64.35891615578939</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>75.9520450937061</v>
+        <v>75.95204509370615</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>69.64584797479709</v>
+        <v>69.64584797479706</v>
       </c>
     </row>
     <row r="537">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>90.65976260327089</v>
+        <v>90.65976260327095</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>8.092593785731466</v>
+        <v>8.09259378573153</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>76.65279821649753</v>
+        <v>76.65279821649757</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>84.20648297739129</v>
+        <v>84.20648297739133</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.15910394871806</v>
+        <v>12.15910394871811</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.12138377868195</v>
+        <v>14.12138377868201</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.16299406015109</v>
+        <v>24.16299406015117</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.274783606696925</v>
+        <v>3.274783606697</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.17777783622952</v>
+        <v>17.17777783622961</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.18791961050087</v>
+        <v>21.1879196105007</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>7.453417097213094</v>
+        <v>7.45341709721303</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.14364072592243</v>
+        <v>28.14364072592242</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>31.45233778234436</v>
+        <v>31.45233778234433</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.29792072373736</v>
+        <v>14.2979207237373</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.32559288517196</v>
+        <v>16.32559288517187</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>15.93798438780946</v>
+        <v>15.93798438780945</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.55719619276685</v>
+        <v>11.55719619276689</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>10.96634753955145</v>
+        <v>10.9663475395515</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.3601141045316</v>
+        <v>25.36011410453161</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.734930796932431</v>
+        <v>9.734930796932407</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.7036511199981</v>
+        <v>17.70365111999808</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.34959078407121</v>
+        <v>27.34959078407124</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.183912757798723</v>
+        <v>8.183912757798662</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.47739378690045</v>
+        <v>11.47739378690043</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.13330550666043</v>
+        <v>15.13330550666028</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.261700699809225</v>
+        <v>3.261700699809172</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>11.70695106208922</v>
+        <v>11.70695106208916</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>17.44516124369373</v>
+        <v>17.44516124369383</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.99726861304541</v>
+        <v>23.99726861304552</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.64460542362873</v>
+        <v>25.64460542362854</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>2.918713157768455</v>
+        <v>2.918713157768519</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.89425403586395</v>
+        <v>28.89425403586398</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.70974838047002</v>
+        <v>29.70974838047005</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>6.881952769073475</v>
+        <v>6.881952769073479</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>39.04885011729135</v>
+        <v>39.04885011729144</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>38.89897433303252</v>
+        <v>38.89897433303265</v>
       </c>
     </row>
     <row r="574">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>43.89430873543365</v>
+        <v>43.89430873543368</v>
       </c>
     </row>
     <row r="576">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>21.8827505224225</v>
+        <v>21.88275052242262</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.42263969791555</v>
+        <v>36.42263969791556</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>45.12055035322721</v>
+        <v>45.12055035322722</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.24096916716775</v>
+        <v>15.24096916716776</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.19366796575681</v>
+        <v>23.19366796575697</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.83600807512153</v>
+        <v>26.83600807512146</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.928769777507107</v>
+        <v>7.928769777507117</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.24532152817786</v>
+        <v>23.2453215281779</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.79829912888699</v>
+        <v>29.79829912888709</v>
       </c>
     </row>
     <row r="586">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.67761852247889</v>
+        <v>10.67761852247901</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.1349315585444</v>
+        <v>22.13493155854445</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.53750974581054</v>
+        <v>26.5375097458106</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2.327739990678445</v>
+        <v>2.327739990678563</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.43600968035388</v>
+        <v>29.43600968035399</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.32062319324324</v>
+        <v>33.32062319324316</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>9.115787828872897</v>
+        <v>9.115787828872868</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>43.261151122713</v>
+        <v>43.26115112271296</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>45.21863233127898</v>
+        <v>45.21863233127892</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>44.55341066807142</v>
+        <v>44.55341066807146</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>45.96385019856672</v>
+        <v>45.96385019856677</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>48.66461515631077</v>
+        <v>48.66461515631079</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>14.56339180427669</v>
+        <v>14.56339180427667</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>32.38357044664583</v>
+        <v>32.3835704466459</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>44.2865368700155</v>
+        <v>44.28653687001544</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.17750868376292</v>
+        <v>11.17750868376297</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>23.19459695936929</v>
+        <v>23.19459695936928</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.92628953563047</v>
+        <v>26.92628953563056</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>7.945456346779388</v>
+        <v>7.945456346779455</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.65959510956407</v>
+        <v>21.65959510956414</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>33.231694224494</v>
+        <v>33.23169422449407</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>5.957476358604634</v>
+        <v>5.957476358604701</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>34.24660360907245</v>
+        <v>34.24660360907244</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>5.743526832590629</v>
+        <v>5.74352683259055</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.72559939547239</v>
+        <v>13.72559939547225</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>20.95195729801312</v>
+        <v>20.95195729801288</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>1.847945340599274</v>
+        <v>1.847945340599296</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.97792062260826</v>
+        <v>25.97792062260831</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>32.52585121877482</v>
+        <v>32.52585121877481</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>2.541545814685083</v>
+        <v>2.541545814684998</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>35.8226945524444</v>
+        <v>35.82269455244429</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>41.26517058272879</v>
+        <v>41.26517058272875</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>31.07184226470406</v>
+        <v>31.07184226470418</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>32.87224966336042</v>
+        <v>32.87224966336058</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>37.54297894286482</v>
+        <v>37.54297894286473</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>7.327113487360524</v>
+        <v>7.327113487360474</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>21.34227515866827</v>
+        <v>21.34227515866834</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>41.20113985429132</v>
+        <v>41.20113985429135</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>7.009949287742515</v>
+        <v>7.009949287742547</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.78395384602885</v>
+        <v>20.78395384602898</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.75875602284338</v>
+        <v>26.75875602284332</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>7.81372158890925</v>
+        <v>7.813721588909232</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.37194702632486</v>
+        <v>21.37194702632476</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.68513800804871</v>
+        <v>31.68513800804874</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1.806539909499996</v>
+        <v>1.806539909499961</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.80748731111257</v>
+        <v>28.80748731111261</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>16.31532030747115</v>
+        <v>16.3153203074711</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>13.68614272863165</v>
+        <v>13.68614272863158</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.36904263568615</v>
+        <v>27.36904263568611</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.09150226372571</v>
+        <v>32.09150226372576</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>5.073829372922141</v>
+        <v>5.073829372922003</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>9.73645673727847</v>
+        <v>9.736456737278431</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>14.96372015669863</v>
+        <v>14.96372015669873</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>10.47745063347298</v>
+        <v>10.47745063347296</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>18.08962616694429</v>
+        <v>18.08962616694426</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.37197064000835</v>
+        <v>29.37197064000829</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>7.859118641313351</v>
+        <v>7.859118641313287</v>
       </c>
     </row>
     <row r="644">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>13.27204903985926</v>
+        <v>13.27204903985918</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>3.874102821316296</v>
+        <v>3.874102821316189</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>14.17678742610551</v>
+        <v>14.17678742610563</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.211018950838</v>
+        <v>33.21101895083796</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>15.06939505184725</v>
+        <v>15.06939505184726</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.84698204684025</v>
+        <v>36.84698204684023</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>41.07582651572304</v>
+        <v>41.075826515723</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>4.617480869889533</v>
+        <v>4.617480869889587</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>12.23744420328412</v>
+        <v>12.23744420328408</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>22.72306387083665</v>
+        <v>22.72306387083668</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>42.78648437928967</v>
+        <v>42.78648437928969</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>37.90040542366157</v>
+        <v>37.90040542366158</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>47.14754177052027</v>
+        <v>47.14754177052026</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.31665872447195</v>
+        <v>50.31665872447199</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.1874841069305</v>
+        <v>17.18748410693056</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.59090673385717</v>
+        <v>40.59090673385726</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>43.96834719873834</v>
+        <v>43.96834719873846</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>21.74524229154071</v>
+        <v>21.74524229154063</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.73945727252033</v>
+        <v>29.73945727252034</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.27812732047026</v>
+        <v>38.27812732047033</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>9.515897796432398</v>
+        <v>9.515897796432483</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.58372964779275</v>
+        <v>34.58372964779277</v>
       </c>
     </row>
     <row r="667">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>6.872495953786707</v>
+        <v>6.872495953786739</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>50.0442765526244</v>
+        <v>50.04427655262431</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>60.20206703998207</v>
+        <v>60.20206703998197</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>64.13356987126076</v>
+        <v>64.13356987126072</v>
       </c>
     </row>
     <row r="672">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>77.04788634355846</v>
+        <v>77.04788634355857</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.60782225871055</v>
+        <v>29.60782225871052</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>59.88865793954636</v>
+        <v>59.88865793954633</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>65.24488474530891</v>
+        <v>65.24488474530907</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>47.38636489607259</v>
+        <v>47.38636489607256</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>32.35620990305984</v>
+        <v>32.35620990305991</v>
       </c>
     </row>
     <row r="679">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>12.68414371255503</v>
+        <v>12.68414371255495</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>39.24072724417064</v>
+        <v>39.24072724417055</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>43.76877767455559</v>
+        <v>43.76877767455564</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.15035829811444</v>
+        <v>16.15035829811438</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.21299881884569</v>
+        <v>29.21299881884564</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.28391151929966</v>
+        <v>38.28391151929964</v>
       </c>
     </row>
     <row r="687">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>33.24131513584267</v>
+        <v>33.24131513584269</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>42.33311556881615</v>
+        <v>42.33311556881605</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>9.245665836802196</v>
+        <v>9.245665836802296</v>
       </c>
     </row>
     <row r="691">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>66.50252050374134</v>
+        <v>66.50252050374114</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>64.7964565040494</v>
+        <v>64.79645650404937</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>69.20074818496006</v>
+        <v>69.20074818496018</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>79.38172219518559</v>
+        <v>79.38172219518547</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>19.23719848487171</v>
+        <v>19.23719848487151</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>56.04262362004155</v>
+        <v>56.0426236200417</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>68.4647335743426</v>
+        <v>68.46473357434266</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>42.89310508291157</v>
+        <v>42.89310508291145</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>18.67009230505807</v>
+        <v>18.67009230505811</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>24.84840811689572</v>
+        <v>24.8484081168957</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.43347207783513</v>
+        <v>34.43347207783523</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>7.079133000235316</v>
+        <v>7.079133000235338</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>35.95535814280291</v>
+        <v>35.95535814280295</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.49710091938074</v>
+        <v>42.49710091938067</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>11.53012225749094</v>
+        <v>11.53012225749093</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.47023895261685</v>
+        <v>28.47023895261696</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.79049343268308</v>
+        <v>40.79049343268313</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>9.450691316383217</v>
+        <v>9.450691316383093</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>30.53297497099389</v>
+        <v>30.53297497099372</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>44.83858457776725</v>
+        <v>44.83858457776724</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>3.143946997286129</v>
+        <v>3.143946997286108</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>43.04314177818656</v>
+        <v>43.04314177818653</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>65.30552825764175</v>
+        <v>65.30552825764168</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>48.27663669998736</v>
+        <v>48.27663669998732</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>57.63991929212282</v>
+        <v>57.6399192921228</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>77.54760311297046</v>
+        <v>77.54760311297039</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>8.989637279857813</v>
+        <v>8.989637279857821</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>42.70623069902555</v>
+        <v>42.7062306990255</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>65.19433804426664</v>
+        <v>65.19433804426674</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>12.18633835428887</v>
+        <v>12.18633835428876</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>14.28096242830157</v>
+        <v>14.28096242830175</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.33642957125458</v>
+        <v>26.33642957125453</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>4.223449160603248</v>
+        <v>4.223449160603238</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>20.91378500920496</v>
+        <v>20.91378500920492</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.6147649167502</v>
+        <v>25.6147649167503</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>7.47729999861539</v>
+        <v>7.477299998615397</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.73750420379116</v>
+        <v>31.73750420379126</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.48780898289039</v>
+        <v>35.48780898289051</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.06418363949776</v>
+        <v>16.06418363949784</v>
       </c>
     </row>
     <row r="731">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>17.36080848535485</v>
+        <v>17.36080848535482</v>
       </c>
     </row>
     <row r="733">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>12.30523156098889</v>
+        <v>12.30523156098892</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.88129216268462</v>
+        <v>28.88129216268453</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>12.6011597761813</v>
+        <v>12.60115977618126</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.79393948655552</v>
+        <v>21.79393948655557</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.82349860377341</v>
+        <v>31.82349860377345</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>9.95973701783484</v>
+        <v>9.959737017834845</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>16.06277700452369</v>
+        <v>16.06277700452371</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.38445794026836</v>
+        <v>19.38445794026842</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>4.085388020073857</v>
+        <v>4.085388020073829</v>
       </c>
     </row>
     <row r="743">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>18.0312569961248</v>
+        <v>18.03125699612488</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>24.61550212071556</v>
+        <v>24.6155021207156</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.94070704176078</v>
+        <v>26.94070704176086</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>3.868159002946502</v>
+        <v>3.868159002946609</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>32.30282046281405</v>
+        <v>32.30282046281442</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.91677258080572</v>
+        <v>32.91677258080582</v>
       </c>
     </row>
     <row r="750">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.63070688075369</v>
+        <v>41.63070688075372</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>41.29306378133479</v>
+        <v>41.2930637813348</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.17657632513816</v>
+        <v>42.17657632513819</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.19470959994744</v>
+        <v>45.19470959994747</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>44.44500139429434</v>
+        <v>44.44500139429431</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>22.17650601900166</v>
+        <v>22.17650601900159</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>37.33014176376282</v>
+        <v>37.33014176376294</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>46.49943989367131</v>
+        <v>46.49943989367122</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>19.36089826500843</v>
+        <v>19.36089826500839</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.36677960761135</v>
+        <v>28.36677960761132</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.50907587103874</v>
+        <v>30.5090758710388</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>10.3849833460005</v>
+        <v>10.38498334600051</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.38062765196625</v>
+        <v>30.38062765196619</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.36857928705769</v>
+        <v>34.36857928705756</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>41.10448003663245</v>
+        <v>41.10448003663244</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.675609559954697</v>
+        <v>9.675609559954498</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>21.80581745786342</v>
+        <v>21.80581745786333</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.32278316810595</v>
+        <v>27.32278316810575</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.613545290127782</v>
+        <v>2.613545290127853</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.07522661733746</v>
+        <v>32.07522661733762</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.91696754430818</v>
+        <v>35.91696754430821</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>8.509927509506817</v>
+        <v>8.509927509506849</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>44.68499538986831</v>
+        <v>44.68499538986845</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>46.6941966174975</v>
+        <v>46.69419661749746</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>46.57937558244811</v>
+        <v>46.57937558244812</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>47.42915595202801</v>
+        <v>47.42915595202781</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>49.71342338265003</v>
+        <v>49.71342338265005</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>13.04938490810319</v>
+        <v>13.04938490810318</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.40186144389239</v>
+        <v>31.40186144389246</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>44.03166886121802</v>
+        <v>44.03166886121814</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.05093581428518</v>
+        <v>14.05093581428516</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.00115840811541</v>
+        <v>28.00115840811553</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.1537029346548</v>
+        <v>30.15370293465498</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>10.17903643872981</v>
+        <v>10.17903643872993</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.76682792697851</v>
+        <v>28.76682792697856</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>37.78497089394987</v>
+        <v>37.78497089394997</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>6.995280921397669</v>
+        <v>6.995280921397718</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>43.03810161473201</v>
+        <v>43.03810161473191</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>4.707884978449727</v>
+        <v>4.707884978449641</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>13.46130944077514</v>
+        <v>13.46130944077528</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>22.32960856291577</v>
+        <v>22.32960856291579</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>2.657425840270164</v>
+        <v>2.657425840270175</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.06666310350629</v>
+        <v>29.06666310350627</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.39900527010579</v>
+        <v>36.39900527010562</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>2.769448199677026</v>
+        <v>2.769448199677022</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.06712135014241</v>
+        <v>39.06712135014234</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>44.22259503297768</v>
+        <v>44.22259503297745</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.87157996340142</v>
+        <v>34.87157996340134</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.47941684607805</v>
+        <v>36.47941684607823</v>
       </c>
     </row>
     <row r="800">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>6.572032033366561</v>
+        <v>6.572032033366664</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>21.04193565874021</v>
+        <v>21.04193565874018</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>42.78142314651797</v>
+        <v>42.78142314651799</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>9.571531618301993</v>
+        <v>9.571531618302021</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.67012447882025</v>
+        <v>25.67012447882026</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.67975066847119</v>
+        <v>30.67975066847117</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>10.09756956554303</v>
+        <v>10.097569565543</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>27.72165061608943</v>
+        <v>27.72165061608936</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.95657623859226</v>
+        <v>35.95657623859223</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2.821510101375342</v>
+        <v>2.821510101375345</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.6550294176246</v>
+        <v>36.6550294176247</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.1568778762708</v>
+        <v>23.15687787627094</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.66204264332688</v>
+        <v>18.66204264332696</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.78092605052026</v>
+        <v>35.78092605052027</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>39.9066740085446</v>
+        <v>39.90667400854455</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>7.877154695359735</v>
+        <v>7.877154695359785</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.3450414333065</v>
+        <v>15.34504143330663</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.47750890057197</v>
+        <v>21.47750890057209</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>10.27157796663641</v>
+        <v>10.27157796663646</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>18.28898219847681</v>
+        <v>18.28898219847678</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.72401248063117</v>
+        <v>32.72401248063108</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>9.904076452934316</v>
+        <v>9.904076452934287</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>13.79683974585391</v>
+        <v>13.79683974585394</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>16.92273990290686</v>
+        <v>16.92273990290674</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>4.186832959069406</v>
+        <v>4.18683295906936</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>17.27815778751336</v>
+        <v>17.27815778751343</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>39.77898569407398</v>
+        <v>39.77898569407401</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>18.25653316021642</v>
+        <v>18.25653316021645</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>45.52265001622607</v>
+        <v>45.52265001622602</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>50.10428940171751</v>
+        <v>50.10428940171741</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>6.152720125038599</v>
+        <v>6.152720125038631</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.09450402231398</v>
+        <v>16.09450402231393</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.92363016146301</v>
+        <v>26.92363016146303</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>49.82811955770072</v>
+        <v>49.82811955770057</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>46.59593970714178</v>
+        <v>46.59593970714181</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>55.13189270623123</v>
+        <v>55.13189270623127</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>58.08380672194505</v>
+        <v>58.08380672194511</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.13917175967407</v>
+        <v>21.13917175967406</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>48.04751895074002</v>
+        <v>48.04751895074004</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>50.23381831654865</v>
+        <v>50.23381831654873</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.32690584281109</v>
+        <v>21.32690584281107</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.44025821097121</v>
+        <v>31.4402582109713</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.58381962433371</v>
+        <v>40.58381962433367</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>11.31276576894966</v>
+        <v>11.31276576894973</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.14040950730733</v>
+        <v>40.14040950730742</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.8942775437588</v>
+        <v>43.89427754375876</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>4.97232824903357</v>
+        <v>4.972328249033634</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>54.55961288889711</v>
+        <v>54.55961288889713</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>65.84344143757519</v>
+        <v>65.84344143757515</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>66.9335857325685</v>
+        <v>66.93358573256862</v>
       </c>
     </row>
     <row r="851">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>81.68603676985889</v>
+        <v>81.6860367698589</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>27.48755301811278</v>
+        <v>27.48755301811285</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>65.19432154232771</v>
+        <v>65.1943215423277</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>69.20008183607109</v>
+        <v>69.20008183607112</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>54.5025955241308</v>
+        <v>54.50259552413084</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>41.54898899320921</v>
+        <v>41.54898899320916</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>47.34275019191533</v>
+        <v>47.34275019191536</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>56.70067370410052</v>
+        <v>56.70067370410061</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.58358882435237</v>
+        <v>15.58358882435244</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>46.21598894834991</v>
+        <v>46.21598894834987</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.74015828529049</v>
+        <v>14.74015828529051</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.3311809369506</v>
+        <v>30.33118093695067</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>40.26604031521521</v>
+        <v>40.26604031521519</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>10.24597081105845</v>
+        <v>10.24597081105858</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.38607381423328</v>
+        <v>38.38607381423313</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>47.21487803234236</v>
+        <v>47.2148780323425</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>7.480875373175007</v>
+        <v>7.480875373174985</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>55.84613395035997</v>
+        <v>55.84613395036</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>72.08243679948951</v>
+        <v>72.08243679948949</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>67.86018998781518</v>
+        <v>67.86018998781523</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>73.9419558717679</v>
+        <v>73.9419558717678</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>83.77961528935968</v>
+        <v>83.77961528935963</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>16.10731988000864</v>
+        <v>16.10731988000868</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>61.33003435162296</v>
+        <v>61.33003435162294</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>72.66885650537087</v>
+        <v>72.66885650537091</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>49.45897388043647</v>
+        <v>49.45897388043657</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.5444785760337</v>
+        <v>25.54447857603372</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>32.18822678383746</v>
+        <v>32.18822678383753</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>41.27474178351012</v>
+        <v>41.27474178351019</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>9.579782310992556</v>
+        <v>9.579782310992616</v>
       </c>
     </row>
     <row r="882">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>47.99313623878481</v>
+        <v>47.99313623878476</v>
       </c>
     </row>
     <row r="884">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.2671764440788</v>
+        <v>29.26717644407888</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>43.76076779591595</v>
+        <v>43.76076779591592</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>11.65533498893497</v>
+        <v>11.65533498893485</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.83534705053614</v>
+        <v>34.83534705053587</v>
       </c>
     </row>
     <row r="889">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>3.09563932756198</v>
+        <v>3.09563932756204</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>47.0052933635688</v>
+        <v>47.00529336356884</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>71.4378887992731</v>
+        <v>71.43788879927307</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>52.64943021840193</v>
+        <v>52.64943021840189</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>65.28963479905302</v>
+        <v>65.28963479905299</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>85.58669028304334</v>
+        <v>85.58669028304332</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>9.163198272515984</v>
+        <v>9.163198272516045</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>50.32870454781167</v>
+        <v>50.3287045478116</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>70.69494198456339</v>
+        <v>70.69494198456354</v>
       </c>
     </row>
     <row r="899">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>12.23785519703146</v>
+        <v>12.23785519703145</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>21.79593344226255</v>
+        <v>21.79593344226263</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>7.515870423563396</v>
+        <v>7.515870423563381</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>20.96386005190466</v>
+        <v>20.96386005190469</v>
       </c>
     </row>
     <row r="904">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>10.07897683725113</v>
+        <v>10.07897683725112</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.55763493449548</v>
+        <v>28.55763493449559</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.35371149030539</v>
+        <v>30.35371149030545</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>13.98536983622371</v>
+        <v>13.98536983622378</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>16.99523481974562</v>
+        <v>16.99523481974553</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>16.51660089998452</v>
+        <v>16.51660089998458</v>
       </c>
     </row>
     <row r="911">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>15.46720092907975</v>
+        <v>15.46720092907974</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>32.11219710814063</v>
+        <v>32.11219710814064</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>15.79880979394687</v>
+        <v>15.79880979394685</v>
       </c>
     </row>
     <row r="915">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>7.747908225571294</v>
+        <v>7.747908225571322</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>16.6999585743831</v>
+        <v>16.69995857438305</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>19.73289377497193</v>
+        <v>19.73289377497186</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>7.992905252624983</v>
+        <v>7.992905252624908</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.17429400826931</v>
+        <v>28.17429400826933</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>15.32455932864602</v>
+        <v>15.32455932864601</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>17.21063299423903</v>
+        <v>17.21063299423916</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>21.81002900628219</v>
+        <v>21.81002900628224</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>7.043077927334895</v>
+        <v>7.043077927334881</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>25.6470251328662</v>
+        <v>25.64702513286634</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>26.18506969588757</v>
+        <v>26.18506969588752</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>10.43116556262257</v>
+        <v>10.43116556262253</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>33.59452565589175</v>
+        <v>33.59452565589176</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>33.03704459305435</v>
+        <v>33.0370445930543</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.69859103583361</v>
+        <v>30.69859103583355</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.06181548979289</v>
+        <v>35.06181548979293</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>34.85504927512999</v>
+        <v>34.85504927513011</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>21.37176345796768</v>
+        <v>21.37176345796764</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.09587438292488</v>
+        <v>29.09587438292493</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>35.31472788029319</v>
+        <v>35.31472788029318</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>22.93700858756972</v>
+        <v>22.9370085875697</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.88914470600617</v>
+        <v>30.8891447060062</v>
       </c>
     </row>
     <row r="939">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>8.946006740743737</v>
+        <v>8.946006740743773</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>32.9752537461538</v>
+        <v>32.97525374615381</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>32.16974494733387</v>
+        <v>32.16974494733395</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>8.682360211834947</v>
+        <v>8.682360211834929</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>45.88550891816572</v>
+        <v>45.88550891816578</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>8.643464830334011</v>
+        <v>8.643464830334043</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>14.11809686369544</v>
+        <v>14.1180968636954</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>21.560207150797</v>
+        <v>21.56020715079698</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>6.021633896213451</v>
+        <v>6.021633896213466</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>24.28089960919321</v>
+        <v>24.28089960919318</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.93337695417193</v>
+        <v>25.93337695417188</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>10.75264492191683</v>
+        <v>10.75264492191684</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>33.86744852000292</v>
+        <v>33.86744852000297</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>35.58222154675082</v>
+        <v>35.58222154675088</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.76868426264782</v>
+        <v>33.7686842626478</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>35.77299002481598</v>
+        <v>35.772990024816</v>
       </c>
     </row>
     <row r="956">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>11.94177056659858</v>
+        <v>11.94177056659851</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>21.86989774917793</v>
+        <v>21.86989774917798</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>30.14421761945166</v>
+        <v>30.14421761945162</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>17.27932708719452</v>
+        <v>17.2793270871945</v>
       </c>
     </row>
     <row r="961">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>30.06204263386219</v>
+        <v>30.06204263386223</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>8.60679563187448</v>
+        <v>8.606795631874526</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.24706537252604</v>
+        <v>30.24706537252605</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>32.40354384742533</v>
+        <v>32.40354384742535</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>10.56272214819637</v>
+        <v>10.5627221481963</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>45.64152028506705</v>
+        <v>45.64152028506697</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>5.720382649195049</v>
+        <v>5.720382649195006</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>9.560836027249728</v>
+        <v>9.560836027249724</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>19.69778487622954</v>
+        <v>19.69778487622948</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>5.897841780843965</v>
+        <v>5.897841780843994</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>23.02883264741228</v>
+        <v>23.02883264741233</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>27.84776039991322</v>
+        <v>27.84776039991329</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>5.760170651873224</v>
+        <v>5.760170651873249</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.43369100551859</v>
+        <v>29.43369100551858</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>34.64143118027075</v>
+        <v>34.64143118027084</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>30.61099788964172</v>
+        <v>30.61099788964182</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>32.52774647386733</v>
+        <v>32.52774647386739</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>38.48395185175129</v>
+        <v>38.48395185175131</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>7.279727386664963</v>
+        <v>7.279727386664952</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>16.01279134209013</v>
+        <v>16.01279134209012</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>34.0948402408942</v>
+        <v>34.09484024089417</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>13.49768143455092</v>
+        <v>13.49768143455089</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>27.77265509113844</v>
+        <v>27.77265509113839</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.64123411611464</v>
+        <v>29.64123411611461</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>8.231572090835165</v>
+        <v>8.231572090835154</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.37922942025566</v>
+        <v>28.37922942025562</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.34913000130295</v>
+        <v>30.34913000130301</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>7.006813280311466</v>
+        <v>7.006813280311444</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>39.50559704732038</v>
+        <v>39.50559704732036</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>31.22780820999683</v>
+        <v>31.2278082099969</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>23.26598332134197</v>
+        <v>23.26598332134193</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>38.43963338857311</v>
+        <v>38.43963338857313</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>38.69765591833404</v>
+        <v>38.69765591833405</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>14.96264768619387</v>
+        <v>14.96264768619385</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>24.43766470514018</v>
+        <v>24.43766470514017</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>30.09508816636564</v>
+        <v>30.09508816636566</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>17.30101108488133</v>
+        <v>17.3010110848813</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>24.9880344276327</v>
+        <v>24.98803442763264</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>36.06873909723842</v>
+        <v>36.06873909723843</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>7.893911162180096</v>
+        <v>7.893911162180132</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>14.8597105268336</v>
+        <v>14.85971052683362</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>20.76738868068688</v>
+        <v>20.76738868068702</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>8.276155369572148</v>
+        <v>8.276155369572152</v>
       </c>
     </row>
     <row r="1005">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>45.4071734390545</v>
+        <v>45.40717343905447</v>
       </c>
     </row>
     <row r="1007">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>45.90363955382826</v>
+        <v>45.90363955382824</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>49.20946296166899</v>
+        <v>49.209462961669</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>13.33428926910824</v>
+        <v>13.33428926910827</v>
       </c>
     </row>
     <row r="1011">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>34.36233442627436</v>
+        <v>34.36233442627439</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>48.02836575300508</v>
+        <v>48.02836575300513</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>47.51012332112508</v>
+        <v>47.51012332112497</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>52.28111548236136</v>
+        <v>52.28111548236139</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>52.22600161423944</v>
+        <v>52.22600161423945</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>26.09089728817226</v>
+        <v>26.09089728817235</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>48.74417491783181</v>
+        <v>48.7441749178318</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>48.29606443394795</v>
+        <v>48.29606443394801</v>
       </c>
     </row>
     <row r="1020">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>9.354991268316233</v>
+        <v>9.354991268316319</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>41.89757476806537</v>
+        <v>41.8975747680653</v>
       </c>
     </row>
     <row r="1023">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>9.558531699914933</v>
+        <v>9.558531699914951</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>57.15951019579362</v>
+        <v>57.15951019579375</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>61.3814626434356</v>
+        <v>61.38146264343561</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>61.52967941039863</v>
+        <v>61.52967941039873</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>68.07410027098781</v>
+        <v>68.07410027098783</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>70.0657499337309</v>
+        <v>70.06574993373077</v>
       </c>
     </row>
     <row r="1030">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>64.53140102956783</v>
+        <v>64.53140102956786</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>64.87890448932242</v>
+        <v>64.87890448932251</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>50.80749483487645</v>
+        <v>50.80749483487642</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>44.74925704746858</v>
+        <v>44.74925704746857</v>
       </c>
     </row>
     <row r="1035">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>51.63447011978097</v>
+        <v>51.63447011978087</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>19.39832727641729</v>
+        <v>19.39832727641735</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>45.65317490470791</v>
+        <v>45.65317490470783</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>47.29195093589198</v>
+        <v>47.29195093589202</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>17.44994816702426</v>
+        <v>17.44994816702428</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>31.26818117037549</v>
+        <v>31.26818117037541</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>39.62491756389652</v>
+        <v>39.62491756389656</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>7.957881897889632</v>
+        <v>7.9578818978896</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>39.7492397833602</v>
+        <v>39.74923978336012</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>42.51224197481783</v>
+        <v>42.5122419748178</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>10.4033789920398</v>
+        <v>10.40337899203977</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>57.9497957389417</v>
+        <v>57.94979573894175</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>64.86512993777512</v>
+        <v>64.86512993777515</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>62.93827759342189</v>
+        <v>62.93827759342183</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>68.46533185592713</v>
+        <v>68.46533185592703</v>
       </c>
     </row>
     <row r="1051">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>19.40168247201719</v>
+        <v>19.40168247201726</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>64.18178459414185</v>
+        <v>64.1817845941418</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>67.94714055449155</v>
+        <v>67.9471405544915</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>45.80084856762331</v>
+        <v>45.80084856762329</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>31.63433894831368</v>
+        <v>31.63433894831359</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>36.2214469579223</v>
+        <v>36.22144695792228</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>39.48894628554994</v>
+        <v>39.4889462855499</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>14.76531983304273</v>
+        <v>14.76531983304277</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>41.56420450212852</v>
+        <v>41.5642045021285</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>43.69316949675014</v>
+        <v>43.6931694967502</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>14.49702622817372</v>
+        <v>14.49702622817382</v>
       </c>
     </row>
     <row r="1063">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>42.25421316273052</v>
+        <v>42.25421316273053</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>9.297716154273516</v>
+        <v>9.297716154273626</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>38.41139887675048</v>
+        <v>38.41139887675055</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>43.86152581603726</v>
+        <v>43.8615258160372</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>7.630466174710524</v>
+        <v>7.630466174710428</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>54.87873026973493</v>
+        <v>54.87873026973482</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>64.8841469168747</v>
+        <v>64.88414691687466</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>58.1500980414805</v>
+        <v>58.15009804148046</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>68.36443564484775</v>
+        <v>68.36443564484772</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>74.68899836449813</v>
+        <v>74.68899836449822</v>
       </c>
     </row>
     <row r="1074">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>62.1367578370802</v>
+        <v>62.13675783708035</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>68.41088042203637</v>
+        <v>68.41088042203646</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.616</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.461</v>
+        <v>16.256</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.638</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.934</v>
+        <v>19.59</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.985</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.113</v>
+        <v>0.949</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.57551939843405</v>
+        <v>16.41615384259065</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.01861640482171</v>
+        <v>16.65410861859746</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.80538388561838</v>
+        <v>30.90299302883643</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.627970510409597</v>
+        <v>2.950228891700252</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.68158699764184</v>
+        <v>24.25618446643644</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.0519672007504</v>
+        <v>28.85712075218796</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.041149287405464</v>
+        <v>7.270242064062192</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>37.76915723740279</v>
+        <v>44.19017751463624</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>44.25189157955029</v>
+        <v>45.60110027360054</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.13922420231095</v>
+        <v>17.56878824981611</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.15332801391523</v>
+        <v>20.54795399694111</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19.37420929196292</v>
+        <v>20.21733646609168</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.86883549311808</v>
+        <v>15.83326989046186</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.02754119887838</v>
+        <v>17.33967551944374</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.29029697963396</v>
+        <v>46.89769004781114</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.33726797268789</v>
+        <v>13.9305348238896</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.21269049089164</v>
+        <v>24.61644279407491</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.87327177172529</v>
+        <v>32.98018527674139</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.871726582733341</v>
+        <v>3.696831818794841</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.998296517503613</v>
+        <v>11.60165091136587</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>14.17967464234156</v>
+        <v>13.68865759166328</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.405947819113209</v>
+        <v>3.211010950396023</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.66736588042395</v>
+        <v>17.99642367016553</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20.47448614052286</v>
+        <v>23.79948101266455</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.97979237161965</v>
+        <v>27.50588821520068</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.75695970410811</v>
+        <v>30.35980720772048</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.9777461990506175</v>
+        <v>3.647228948265276</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.69001772119089</v>
+        <v>33.54144638805356</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.26002280260634</v>
+        <v>33.05594138829783</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.090496635493885</v>
+        <v>8.593650418274912</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.1497204435066</v>
+        <v>46.66444560092002</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.75560606959003</v>
+        <v>46.33256198640573</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.88281766614101</v>
+        <v>46.22054720061411</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.48845080913944</v>
+        <v>50.19198679509184</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>51.33323830618866</v>
+        <v>52.58648067029235</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>22.81266955778183</v>
+        <v>37.09850747911109</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.85928105908413</v>
+        <v>51.47664060824377</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>55.05031719605732</v>
+        <v>55.20459145944763</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.6241915930983</v>
+        <v>21.25339152986998</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.58135619576633</v>
+        <v>30.64547618076503</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.21939288173354</v>
+        <v>34.46058328560495</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.887587562856009</v>
+        <v>5.046581605611888</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.80336631137736</v>
+        <v>28.7879429020297</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.64376765026567</v>
+        <v>35.35478256592889</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.24449351426286</v>
+        <v>4.324709295966432</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>45.61295128446432</v>
+        <v>45.4342518070539</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>10.1468307593929</v>
+        <v>7.982241919612282</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.07632784009889</v>
+        <v>22.93225432127482</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.81239050211698</v>
+        <v>29.14709347617638</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.01488799161834464</v>
+        <v>1.997840777126825</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.00150478825879</v>
+        <v>34.9667953337885</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.3931069158687</v>
+        <v>37.97747034492261</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8.065803538588082</v>
+        <v>9.280465509059386</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>49.33606211837812</v>
+        <v>52.17109895385216</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>52.53713240201859</v>
+        <v>55.04573010718869</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>54.10015925135747</v>
+        <v>58.46146399549107</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>55.57825402940048</v>
+        <v>58.98938795595444</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>57.63812425123821</v>
+        <v>63.58632144232417</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>11.4737289003598</v>
+        <v>8.686916474569092</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.22963825466384</v>
+        <v>36.0182541224853</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>50.00101671264526</v>
+        <v>47.91942808350383</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>10.83500875986086</v>
+        <v>12.56162325999603</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.1946110092026</v>
+        <v>30.48162731253893</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.7411502550199</v>
+        <v>33.42215102803716</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.711206229816181</v>
+        <v>4.170970738954164</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.39678266444978</v>
+        <v>26.30161197919111</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.03998445862661</v>
+        <v>38.02218104073877</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.476125974130614</v>
+        <v>5.971296625706273</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.47291560756631</v>
+        <v>44.51205432146996</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.913503683711475</v>
+        <v>5.971430022735223</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14.13248421956086</v>
+        <v>15.53481250374351</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.14052804034954</v>
+        <v>25.21853270828131</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.2228068999209789</v>
+        <v>2.461702996750081</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.81047933184963</v>
+        <v>31.33561258949315</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>36.96894838716456</v>
+        <v>38.46785354396364</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.88144928359133</v>
+        <v>3.107528113941573</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.95539837878104</v>
+        <v>45.80474247321171</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.09290578784462</v>
+        <v>51.84079600707732</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>41.55913345285047</v>
+        <v>48.453855342234</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.68565350101082</v>
+        <v>50.55536125172985</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>47.97471343456388</v>
+        <v>57.74322591707642</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.979447104247289</v>
+        <v>6.903588316992387</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>22.71524854830448</v>
+        <v>25.82999537549109</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>47.73543365000441</v>
+        <v>51.10513057591196</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6.863372042740632</v>
+        <v>8.342851995368065</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.02640512110069</v>
+        <v>26.20175262985383</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.24300007024163</v>
+        <v>34.25182069836311</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.612029997687557</v>
+        <v>4.803064163652973</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>23.87581716324097</v>
+        <v>25.23173111535744</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.51384946698456</v>
+        <v>37.65434208235899</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.518104887387331</v>
+        <v>2.726585520598899</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.20396439167722</v>
+        <v>38.19135208838637</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.17924313160911</v>
+        <v>22.91646800065175</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>18.47450435840658</v>
+        <v>18.97102024110357</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>30.95314499905331</v>
+        <v>32.48969253714731</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.69970670776532</v>
+        <v>35.61427333017227</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.517081730621925</v>
+        <v>6.767926687944598</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>12.91489900327901</v>
+        <v>14.66523304652512</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>20.44550711320261</v>
+        <v>21.09821861299071</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.19602039952144</v>
+        <v>10.80370992207137</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20.40527309340664</v>
+        <v>20.82875120811045</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.61831833658577</v>
+        <v>32.60231131205724</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1.249382298490776</v>
+        <v>3.575490395939546</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>7.244760085333006</v>
+        <v>9.541103592646113</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>12.66153836200033</v>
+        <v>15.20739626354944</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2.600059449391988</v>
+        <v>3.754719329350163</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>16.75484624472442</v>
+        <v>18.4340844663374</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.0605599897686</v>
+        <v>35.57436716335054</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>19.8724625757699</v>
+        <v>21.10334205423425</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.15922465655274</v>
+        <v>41.32827777279948</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.12531890663345</v>
+        <v>47.46707743339815</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.219871999492018</v>
+        <v>5.53937190466814</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>15.99323926212968</v>
+        <v>17.83900938837837</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.73443390994833</v>
+        <v>27.89856283200687</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.97743650839823</v>
+        <v>53.72608791454874</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.81517561828719</v>
+        <v>52.12733475293929</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.74266802568995</v>
+        <v>58.87475996480286</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>61.26819443088665</v>
+        <v>59.11501480125084</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.7731435882349</v>
+        <v>22.60977728859851</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.41859451601589</v>
+        <v>54.20303034553271</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>60.02270152774962</v>
+        <v>57.85998913588594</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>22.20346303675653</v>
+        <v>27.08636150971166</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.06828483871382</v>
+        <v>37.02211194862683</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>43.11935490482144</v>
+        <v>42.27704052530505</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4.280716836286921</v>
+        <v>6.206445487244114</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.01804568373358</v>
+        <v>37.92861962253435</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.7457166680792</v>
+        <v>43.28383399898175</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6.284170351655472</v>
+        <v>7.570711083583252</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.39793037003804</v>
+        <v>60.24050411950446</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>66.27128070098468</v>
+        <v>65.26281722576449</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>78.56159425568701</v>
+        <v>74.36966367795921</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.73096168456097</v>
+        <v>79.66850781177264</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>83.89574796115986</v>
+        <v>81.30673761537383</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30.23560726140363</v>
+        <v>31.1459223993217</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.90505047330007</v>
+        <v>71.46719106684297</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>77.3373053431671</v>
+        <v>75.31051293573535</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>58.8949071014477</v>
+        <v>57.00399394683917</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.29794379645368</v>
+        <v>43.71830872713886</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.20358935886898</v>
+        <v>49.44570876163198</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>60.09377537116875</v>
+        <v>58.10205427244723</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.33279080799693</v>
+        <v>10.58730882731972</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.76107071495908</v>
+        <v>50.14850164469802</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>58.40776829422536</v>
+        <v>56.45459962869694</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13.19322508204516</v>
+        <v>14.30222914315266</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.5919009530829</v>
+        <v>34.4116120266615</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.90367327462981</v>
+        <v>41.28542580845247</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2.184137438661534</v>
+        <v>4.456402388096105</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>37.44471510182167</v>
+        <v>39.13824356460253</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.84773187200145</v>
+        <v>46.1232818677714</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6.65508138915445</v>
+        <v>8.106324761806903</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>62.11515298636475</v>
+        <v>61.06515567532688</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>71.75308431379661</v>
+        <v>70.28577731134411</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>78.18291810509399</v>
+        <v>74.45787452305231</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>79.49272496543522</v>
+        <v>76.88905478394943</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>87.10220066996435</v>
+        <v>84.23594107211235</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>15.06202731738579</v>
+        <v>13.10819397262398</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>67.6567087225397</v>
+        <v>65.01981478263167</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>80.78879595209473</v>
+        <v>76.98838495793913</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>57.61923341545837</v>
+        <v>55.00388124297514</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.85295662472954</v>
+        <v>26.5655590182886</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.74139743142899</v>
+        <v>33.99167880705592</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.57524450910941</v>
+        <v>43.89051969646304</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>5.318270730172234</v>
+        <v>7.254182990063878</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>47.29710075777822</v>
+        <v>46.09332378581173</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>58.12906794398732</v>
+        <v>55.48244712535373</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>8.629014497887315</v>
+        <v>10.10005752072159</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.07344465033272</v>
+        <v>32.75334620811822</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.62932963864422</v>
+        <v>44.23538892084225</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3.056347260743685</v>
+        <v>5.277703848398613</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.94660513061773</v>
+        <v>34.40658280841735</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>48.66966185794236</v>
+        <v>47.78768292959634</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1.119853899541717</v>
+        <v>2.877205753638528</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>52.21469072384106</v>
+        <v>51.32110784347904</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>71.78237779146112</v>
+        <v>70.30701310808273</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>58.90350551699258</v>
+        <v>56.97036111552297</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>67.84316410067323</v>
+        <v>65.51622882742868</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.42448864230538</v>
+        <v>84.92850408729814</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>5.31375250784988</v>
+        <v>6.970654008359251</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>55.22006622986063</v>
+        <v>55.03256768963418</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>77.29422196147704</v>
+        <v>74.74860100620882</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.98184477585968</v>
+        <v>14.66257695169725</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.53532226655842</v>
+        <v>17.56155284757801</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.34230600550584</v>
+        <v>27.74774449590898</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.8301465472364491</v>
+        <v>3.122433603806108</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.82780659242677</v>
+        <v>19.89073274603587</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.88384298337841</v>
+        <v>22.38996276442662</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.025094697152273</v>
+        <v>7.810078194992464</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>43.32195979110617</v>
+        <v>38.64361589691022</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>46.53099402137442</v>
+        <v>40.43121519122017</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20.81593827798548</v>
+        <v>20.43048172793264</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.79258917936328</v>
+        <v>25.42595827094632</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>27.72894938845298</v>
+        <v>25.50188507470879</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.85522058754765</v>
+        <v>18.82416175312954</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.70207951683882</v>
+        <v>18.59780172329237</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>44.43664722891236</v>
+        <v>39.16808183395477</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10.36465390125895</v>
+        <v>10.49528204354198</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.51043082798364</v>
+        <v>24.40230965627229</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.698010531406</v>
+        <v>28.52362488050158</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-2.427067747983795</v>
+        <v>0.9831867711261104</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>9.737873951291146</v>
+        <v>10.46643310889654</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.65235061231118</v>
+        <v>14.63390330322321</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.03359196864907688</v>
+        <v>2.52178841241011</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.874971780845</v>
+        <v>24.54440297847152</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16.80650581009589</v>
+        <v>17.64157922178087</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.59921627194651</v>
+        <v>24.02201593998663</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.09070419978087</v>
+        <v>28.14479818419814</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.9856655783093089</v>
+        <v>3.442904138550162</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>32.75510426458075</v>
+        <v>30.53122756720019</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.41717661233772</v>
+        <v>31.31346483783596</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>7.177675261253864</v>
+        <v>8.096250284126103</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>49.06826848107045</v>
+        <v>44.90661862387951</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>50.9956011849099</v>
+        <v>46.00090236134142</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>48.89815828698303</v>
+        <v>44.64919802435983</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>54.8155284552732</v>
+        <v>49.93975552015765</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>54.88304987833951</v>
+        <v>49.99581346813984</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.86166156152501</v>
+        <v>25.31309789922558</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>45.08404404220238</v>
+        <v>48.80854465848294</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>53.43637140149405</v>
+        <v>51.4933017150044</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>17.25970458106747</v>
+        <v>18.29421109728274</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.95216705543715</v>
+        <v>30.40613799888724</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.18761312933127</v>
+        <v>33.63909947806805</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-0.5558142743961696</v>
+        <v>2.221047355768114</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.22088648832419</v>
+        <v>30.20738473567241</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.68765091244402</v>
+        <v>31.97328711653753</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2.092539640568543</v>
+        <v>3.961407097239118</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>51.09471004424108</v>
+        <v>47.35479563154436</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.440005942386623</v>
+        <v>6.903880995307361</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>17.28859586975523</v>
+        <v>18.05537698148444</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.921556019036</v>
+        <v>25.5652964281862</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-0.4704187408642184</v>
+        <v>2.327765311318895</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.15370017845091</v>
+        <v>29.00032229172104</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>33.93034857944341</v>
+        <v>31.23532003721462</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>6.648033939726634</v>
+        <v>7.55363192290141</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>47.48251966360669</v>
+        <v>43.05731620241075</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>53.85081627793157</v>
+        <v>48.72000743714371</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>53.04750849705226</v>
+        <v>49.34899524269998</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>56.04729850141928</v>
+        <v>51.08037726847247</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>62.39247670485533</v>
+        <v>58.07009683690492</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>8.381481343789694</v>
+        <v>6.677950147030824</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>34.14634048077728</v>
+        <v>31.38559222822074</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>43.43850795930791</v>
+        <v>38.89008581213709</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.395491403068494</v>
+        <v>9.217422147651469</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.7856981054385</v>
+        <v>28.23884189905439</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>33.27460189334182</v>
+        <v>31.65251011924956</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-1.419288197891216</v>
+        <v>1.746121068530755</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.29544503497354</v>
+        <v>24.96399814256228</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.68766188927853</v>
+        <v>33.90204348990321</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>2.841415745204241</v>
+        <v>5.204870227822383</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>46.76943849796687</v>
+        <v>42.45827169553044</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2.43349045964997</v>
+        <v>5.059587332732217</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>12.70149614420335</v>
+        <v>14.21235072114204</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.85482278871735</v>
+        <v>24.44010265018736</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-0.7135144135509606</v>
+        <v>1.878925369213459</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>30.26438129014988</v>
+        <v>25.94047827357032</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>36.65909997797858</v>
+        <v>33.26063060154226</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.5052190679620594</v>
+        <v>2.887173161509427</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>45.24811760616018</v>
+        <v>39.84308835470944</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>53.50510117215523</v>
+        <v>47.17124263585347</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>50.45583417783493</v>
+        <v>46.05315916241875</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>55.16558704118383</v>
+        <v>49.15054099972485</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>60.62434434489178</v>
+        <v>54.73929987631104</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>3.807698150991381</v>
+        <v>5.075726187090019</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.16260829947944</v>
+        <v>26.35733430364284</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>49.21687898575616</v>
+        <v>42.47388501604508</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>4.965111111377606</v>
+        <v>6.542863192965996</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.26645775466263</v>
+        <v>24.044252707953</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.5774803138918</v>
+        <v>30.45877635552633</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1.838005217619081</v>
+        <v>1.785858920094284</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.69289824529058</v>
+        <v>21.65446820856714</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.66951229436915</v>
+        <v>30.77561246526319</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-0.1742700558524639</v>
+        <v>2.670651406796367</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>37.81599622622693</v>
+        <v>34.38429178750772</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.41023755818742</v>
+        <v>25.95351991835238</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.8238346424785</v>
+        <v>21.29706232522548</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>38.43449862755158</v>
+        <v>35.68030541977287</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>38.61763330931319</v>
+        <v>36.36747616641269</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.024247145209294</v>
+        <v>8.891488684072591</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.98403964141492</v>
+        <v>18.33728767136951</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.77047755133022</v>
+        <v>25.30806244823638</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.60064039714522</v>
+        <v>12.87028047025914</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.89473986512102</v>
+        <v>24.53316230965003</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.51459530216327</v>
+        <v>34.46015954630928</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-2.12854425708527</v>
+        <v>0.8198280378231608</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8.156605692736687</v>
+        <v>9.065721601494879</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>18.28724746882619</v>
+        <v>17.30009992929163</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1.017395956305855</v>
+        <v>3.196528488193199</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.43423928349792</v>
+        <v>24.19707595348732</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>50.43490173943748</v>
+        <v>44.89796469198663</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.80988459053917</v>
+        <v>24.77569269130625</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.04292217161551</v>
+        <v>42.91694940328905</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>54.12388582544401</v>
+        <v>49.74283180637392</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>6.897372916427326</v>
+        <v>7.729525472967346</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.86974633772562</v>
+        <v>22.45804201015656</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>40.14754351483382</v>
+        <v>36.52198269531777</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>56.6910283237012</v>
+        <v>53.16664739383184</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>54.19278482950408</v>
+        <v>48.63646483156482</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>61.33455716512871</v>
+        <v>56.36962226409957</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>59.39405604939623</v>
+        <v>54.2785977303286</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.14588417385239</v>
+        <v>19.6888153824654</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>56.70961735935185</v>
+        <v>51.71294514606786</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>59.78226298115653</v>
+        <v>55.06820007995221</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.18915399768867</v>
+        <v>24.05261117912263</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.93478719423993</v>
+        <v>35.80563874832529</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.11783454012503</v>
+        <v>42.26948823933366</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.3397586576335065</v>
+        <v>3.261190326326556</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>43.14700782024207</v>
+        <v>41.2464485343812</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.43093811850191</v>
+        <v>42.78139527051783</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>5.279826136492041</v>
+        <v>7.247399519664874</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>65.1897624796253</v>
+        <v>61.27900689529219</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>69.78925947376317</v>
+        <v>65.01889842884098</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>74.65133652849551</v>
+        <v>69.8585612321591</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>79.33626729261667</v>
+        <v>74.73872459786577</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>83.13285141845206</v>
+        <v>78.00785258858136</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.47651952051747</v>
+        <v>29.04988133916229</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>75.92499487740434</v>
+        <v>70.39865419376346</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>78.32094170077984</v>
+        <v>72.71834112668378</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>58.55132592132881</v>
+        <v>54.58592304524618</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>47.85645960665409</v>
+        <v>43.67701035693003</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>51.61190837132791</v>
+        <v>47.95210223523051</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>58.58295281051393</v>
+        <v>55.44395039713162</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>9.092112130073854</v>
+        <v>9.240462288299362</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>49.63227202424255</v>
+        <v>46.19869161223642</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>56.47753612619038</v>
+        <v>52.5648371594231</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>11.16337930188818</v>
+        <v>12.52271489536002</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.68945854993162</v>
+        <v>32.78299874192498</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.54915837537146</v>
+        <v>40.69765294232597</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-2.0222464253828</v>
+        <v>1.994317694469849</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.27025246383656</v>
+        <v>35.901906890112</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>44.96743646713051</v>
+        <v>43.19272177442756</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>4.699335764329227</v>
+        <v>7.54994138453764</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>62.73131965967663</v>
+        <v>57.05195515103598</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>73.0028537123541</v>
+        <v>67.83582286674404</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>72.65595857451576</v>
+        <v>66.63075534489306</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>78.03709017291328</v>
+        <v>72.45944321989697</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>87.09387400193587</v>
+        <v>81.47941275309847</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.86641956197186</v>
+        <v>12.99930496191523</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>72.86688514599884</v>
+        <v>66.57571991056875</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>79.63898856675613</v>
+        <v>73.42502839282093</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>52.67073788050277</v>
+        <v>48.82192710750309</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.58533904085081</v>
+        <v>26.00748804833109</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>34.08744408574616</v>
+        <v>32.15324529417781</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.4957650483319</v>
+        <v>38.51624446874932</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.604458780587436</v>
+        <v>7.207489266360039</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>43.93645348422342</v>
+        <v>38.5428349804673</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>51.8166401634017</v>
+        <v>48.03807977482946</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6.462712300975614</v>
+        <v>9.582381392191476</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.42884061501158</v>
+        <v>30.76843068097429</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.07988552595751</v>
+        <v>41.94182500206549</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1.178085188423843</v>
+        <v>2.291955318362955</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.89943483167568</v>
+        <v>33.07752366143453</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.08395189879529</v>
+        <v>42.67572200306313</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.1928433078954015</v>
+        <v>3.508668760742694</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>57.74476965135879</v>
+        <v>52.06952581069085</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>72.90520451856207</v>
+        <v>66.97808678906431</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>62.09685963976438</v>
+        <v>56.33880306410572</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>75.19308398299555</v>
+        <v>68.09014863498285</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>86.30576851774714</v>
+        <v>79.34591148486058</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>7.178374222036634</v>
+        <v>8.627260136273613</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>69.31489552697428</v>
+        <v>61.64750499325041</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>80.51877963585075</v>
+        <v>73.7381079643543</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>7.555346415532483</v>
+        <v>9.892349059462713</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>9.925865084820281</v>
+        <v>11.90506278632985</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.29967744713822</v>
+        <v>20.56118106321673</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-0.3069300764174905</v>
+        <v>1.83440708086928</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>12.08038813518975</v>
+        <v>12.83215379204452</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>13.22196747666259</v>
+        <v>14.04490885251711</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.065206077017052</v>
+        <v>5.487366400124486</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.53386193981992</v>
+        <v>26.46677466761482</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.41028161912313</v>
+        <v>28.50189258720239</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>12.52309850778626</v>
+        <v>13.88218306941103</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>18.25556372235794</v>
+        <v>17.80732328514055</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>18.31391763118607</v>
+        <v>17.95862323117914</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>12.88393433959515</v>
+        <v>14.16619644825715</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>12.17722363611934</v>
+        <v>12.75920316954867</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.96369151488851</v>
+        <v>27.40195372635434</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.72776015497877</v>
+        <v>10.47316865258311</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.87638838496481</v>
+        <v>24.56542891655616</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.32470383873583</v>
+        <v>28.49663079727385</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-2.550617840237646</v>
+        <v>0.2265470625171844</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>8.699905976149779</v>
+        <v>9.527394651412827</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.33935055102532</v>
+        <v>15.39050132764749</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.4251857683360818</v>
+        <v>2.213089752419407</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.26932467491937</v>
+        <v>25.51025180357368</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.95956227800862</v>
+        <v>12.725598194607</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>16.64395862743052</v>
+        <v>18.66875863560197</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>21.60322332613138</v>
+        <v>21.72866054714508</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-0.5671387616982173</v>
+        <v>1.650581302658217</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.19769700160204</v>
+        <v>24.20420119128303</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.86060125754156</v>
+        <v>25.22389546857222</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>3.681504054256841</v>
+        <v>5.021070316492164</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.14514197994156</v>
+        <v>35.91757865735852</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.0239442091062</v>
+        <v>36.57207270864322</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.81894561141142</v>
+        <v>35.47991140971545</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>44.30438385644683</v>
+        <v>42.01469914683447</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.06483621238582</v>
+        <v>42.22566245663165</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>15.32647479785383</v>
+        <v>18.27235154540562</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.39565138317031</v>
+        <v>38.09905963671865</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>39.38771702749654</v>
+        <v>40.61594264555708</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.62647346923131</v>
+        <v>17.70022218893434</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.99644340755582</v>
+        <v>31.097435836325</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>36.0618919767979</v>
+        <v>33.70861952146731</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-1.232899749020277</v>
+        <v>1.373698417766057</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.6164865718443</v>
+        <v>30.96634954112662</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.40601121802739</v>
+        <v>33.86037436892577</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1.311733143793944</v>
+        <v>3.109386550256851</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>54.00354875142123</v>
+        <v>49.14630112381754</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2.699888408714003</v>
+        <v>4.880292127089547</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.87866891288751</v>
+        <v>13.5772945153793</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.6572786567172</v>
+        <v>21.22303547195084</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1.277731921445383</v>
+        <v>1.119770644225696</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.70967859726277</v>
+        <v>22.80985150446163</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.97580537590421</v>
+        <v>24.59464052421639</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>5.943287171632694</v>
+        <v>6.737030584645005</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>38.11876810234961</v>
+        <v>36.24587293795529</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>42.71682092744439</v>
+        <v>40.39270032835472</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>40.82313825382369</v>
+        <v>39.57095812612189</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>44.54770747174756</v>
+        <v>41.47598899424563</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>53.27258721132687</v>
+        <v>51.31567807126483</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>4.598420054871188</v>
+        <v>4.163153913322912</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.62371581400767</v>
+        <v>23.76548838873017</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>31.28548922462179</v>
+        <v>30.43087621775687</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.38865304947461</v>
+        <v>10.54743588569763</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.68011345781419</v>
+        <v>29.73340090602254</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>35.41327872433347</v>
+        <v>32.51050954991156</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1.374549451953385</v>
+        <v>1.101026154050924</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.51173657683575</v>
+        <v>27.00697840057713</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>37.45806933227186</v>
+        <v>34.27077325800693</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>4.075750421316499</v>
+        <v>5.447317932859381</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>52.78120621914262</v>
+        <v>46.83492831182937</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.2531253104588167</v>
+        <v>3.009826459400227</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>7.529168538714178</v>
+        <v>9.796197525303011</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>20.57537446112831</v>
+        <v>20.15314668485557</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1.658868114140549</v>
+        <v>0.373379190178234</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>18.88073092071366</v>
+        <v>17.12654076603988</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>27.54699259032133</v>
+        <v>26.89887706948962</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-0.8326621369932781</v>
+        <v>1.269702977150956</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.27221628387101</v>
+        <v>29.54670488061921</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>41.30600935959815</v>
+        <v>38.5808061421459</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>35.45506616203139</v>
+        <v>33.75136015044832</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>39.73281496931135</v>
+        <v>37.06512234539645</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>49.40656107272437</v>
+        <v>45.33186627893284</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>1.568203257566662</v>
+        <v>2.632540877699935</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.69516278642895</v>
+        <v>19.68026547590541</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>37.94952964938628</v>
+        <v>34.74213561106426</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>6.561553727355786</v>
+        <v>7.402970704580699</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.27226822180454</v>
+        <v>25.95647682739644</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>33.2572118295836</v>
+        <v>30.98671111827697</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1.892464197629291</v>
+        <v>1.077209594623472</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.23812529978639</v>
+        <v>23.2270349607199</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>33.44447125436449</v>
+        <v>31.50973884515919</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-0.2159065357550354</v>
+        <v>1.924016630241855</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>42.23781325717113</v>
+        <v>37.21559906782736</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>32.50911195493478</v>
+        <v>29.1485301791551</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.75440553438909</v>
+        <v>22.07019941668348</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>40.84905118294529</v>
+        <v>37.35531234231313</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>40.84339888773832</v>
+        <v>37.59211615479803</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.76998131047608</v>
+        <v>8.967905176530437</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.3632292185751</v>
+        <v>20.44051103441669</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.9786763507411</v>
+        <v>27.94058049471295</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.33283739579614</v>
+        <v>13.97622782517277</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.71392415887215</v>
+        <v>25.8778236358143</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.55548437483306</v>
+        <v>36.64468300774664</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-2.640639808611716</v>
+        <v>-0.1205803735897462</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>6.591999567993412</v>
+        <v>7.863688703389865</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.64235061015168</v>
+        <v>15.3066457996569</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.3752485659300291</v>
+        <v>2.345301934264072</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.59322802540859</v>
+        <v>23.79015150664985</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>49.30176931760782</v>
+        <v>44.46746101049065</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.1720826341509</v>
+        <v>26.2307651293587</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>49.53657433639987</v>
+        <v>45.47957246432951</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>55.50122507630262</v>
+        <v>50.81233369328136</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>6.411392184007763</v>
+        <v>7.393997874063448</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.89662076298714</v>
+        <v>22.0317964764598</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>38.68064381437766</v>
+        <v>35.42110834275567</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>58.95982963187502</v>
+        <v>54.3090149194191</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>56.22648517314205</v>
+        <v>50.63155653857628</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>62.96133409167714</v>
+        <v>57.18979511374199</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>61.6238628885968</v>
+        <v>56.68991699015839</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>20.65772558125801</v>
+        <v>18.97537143387948</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>59.21147649787926</v>
+        <v>53.63602890203248</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>62.3135464299389</v>
+        <v>56.62829802978365</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.36823706090505</v>
+        <v>23.5839269098565</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>38.35742307589859</v>
+        <v>36.79568374063246</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>47.05129826865959</v>
+        <v>44.42243900055401</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-0.4433746997703061</v>
+        <v>2.303286982719051</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>47.07400427135673</v>
+        <v>43.30230990400763</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.62878085624433</v>
+        <v>46.09489768486917</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>3.68066457204349</v>
+        <v>5.986845074267883</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>70.46792105882493</v>
+        <v>64.49102776429535</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>73.07694682819934</v>
+        <v>68.00620051533934</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>78.94220085848931</v>
+        <v>72.78089249235947</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>84.05874401325291</v>
+        <v>77.84834842979936</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>85.82752014713726</v>
+        <v>80.58824385141804</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.38945658814671</v>
+        <v>28.94921405112898</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>80.76546627246813</v>
+        <v>74.12590963320719</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>82.68391644485109</v>
+        <v>76.0725033666246</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>62.81270416335036</v>
+        <v>57.4510654402284</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>52.10081580108667</v>
+        <v>46.59511667102841</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>56.94235191466726</v>
+        <v>51.37642468182884</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>62.3549483377161</v>
+        <v>57.20373248745731</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.69550032367704</v>
+        <v>11.52222389997254</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>54.91149284629557</v>
+        <v>49.52215526536681</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>60.93987982882828</v>
+        <v>55.3340197092499</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>13.4938914308754</v>
+        <v>14.16346037884991</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.1984411767521</v>
+        <v>34.55373651295914</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>46.09695107934912</v>
+        <v>43.39806950403676</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-2.5498001106441</v>
+        <v>1.492959513060203</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>43.26166325286685</v>
+        <v>39.47824215240547</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>47.13405489094008</v>
+        <v>44.44671157119915</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>4.422440179477569</v>
+        <v>7.4685714269153</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>70.91702599516164</v>
+        <v>63.5789191713182</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>77.62838621360009</v>
+        <v>71.66559883335951</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>79.62029217968457</v>
+        <v>72.17612111419643</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>85.16020227895822</v>
+        <v>77.8225973774581</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>90.20798876496787</v>
+        <v>84.28303723454852</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.18724612971579</v>
+        <v>13.49557750267992</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>80.41799890159032</v>
+        <v>72.31865774996048</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>85.61137549640746</v>
+        <v>77.80304820052007</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>55.77126007947518</v>
+        <v>50.44773040989247</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>32.87882120710388</v>
+        <v>29.52319689477467</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.70742119348266</v>
+        <v>35.77780820645848</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>46.1232254826057</v>
+        <v>41.85946461137716</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.796508756303208</v>
+        <v>8.586282057741769</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>47.36766526360479</v>
+        <v>38.87787721238277</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>53.89472715768783</v>
+        <v>48.97548333611873</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>7.633153393411675</v>
+        <v>10.519133789449</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.63549714970182</v>
+        <v>32.48501753574362</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>46.787193094003</v>
+        <v>43.72688526163404</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1.557054031192383</v>
+        <v>1.45809670902679</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>39.56383276596514</v>
+        <v>35.97148619109476</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>46.45071659231424</v>
+        <v>43.80323238981899</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-0.1488464170891248</v>
+        <v>2.404161352661024</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>64.35891615578939</v>
+        <v>57.39984959446527</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>75.95204509370615</v>
+        <v>69.66689380960656</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>69.64584797479706</v>
+        <v>62.57368908598058</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>82.55609666764738</v>
+        <v>73.80037063580158</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>90.65976260327095</v>
+        <v>82.85602936479896</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>8.09259378573153</v>
+        <v>9.188148874285211</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>76.65279821649757</v>
+        <v>67.90323509511661</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>84.20648297739133</v>
+        <v>76.78074497115264</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.15910394871811</v>
+        <v>15.24061478324864</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.12138377868201</v>
+        <v>15.62057971566926</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.16299406015117</v>
+        <v>25.20001673038543</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.274783606697</v>
+        <v>5.510414326132828</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.17777783622961</v>
+        <v>19.46814727468035</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.1879196105007</v>
+        <v>22.36521520794175</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>7.45341709721303</v>
+        <v>9.401951255807866</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.14364072592242</v>
+        <v>32.68097534710157</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>31.45233778234433</v>
+        <v>34.05339227950088</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.2979207237373</v>
+        <v>15.36410029230298</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.32559288517187</v>
+        <v>18.16670900948325</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>15.93798438780945</v>
+        <v>18.3648471892224</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.55719619276689</v>
+        <v>16.55485133345211</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>10.9663475395515</v>
+        <v>14.18436080713257</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.36011410453161</v>
+        <v>30.57631782742203</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.734930796932407</v>
+        <v>12.16150490879587</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.70365111999808</v>
+        <v>20.0110269003337</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.34959078407124</v>
+        <v>29.32846124807407</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.183912757798662</v>
+        <v>8.851854817434944</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.47739378690043</v>
+        <v>13.01346725880225</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.13330550666028</v>
+        <v>15.0202959533419</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.261700699809172</v>
+        <v>5.247235787208588</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>11.70695106208916</v>
+        <v>14.82835935100331</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>17.44516124369383</v>
+        <v>20.27895112610882</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.99726861304552</v>
+        <v>24.53006284080199</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.64460542362854</v>
+        <v>26.18345128823297</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>2.918713157768519</v>
+        <v>5.760188090994063</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.89425403586398</v>
+        <v>29.25872020352149</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.70974838047005</v>
+        <v>29.52718835267924</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>6.881952769073479</v>
+        <v>9.259549611199148</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>39.04885011729144</v>
+        <v>37.8652219709323</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>38.89897433303265</v>
+        <v>37.79581731110302</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>39.8938129646107</v>
+        <v>40.38282086585839</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>43.89430873543368</v>
+        <v>44.9688462195502</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>43.74412893781006</v>
+        <v>46.20128567639495</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>21.88275052242262</v>
+        <v>31.19954139958161</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.42263969791556</v>
+        <v>41.99100372826577</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>45.12055035322722</v>
+        <v>43.87132531627149</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.24096916716776</v>
+        <v>17.36409630625478</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.19366796575697</v>
+        <v>23.96004974790898</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.83600807512146</v>
+        <v>29.15907732327225</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.928769777507117</v>
+        <v>9.488626583264345</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.2453215281779</v>
+        <v>24.46529170220055</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.79829912888709</v>
+        <v>32.30496177644862</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>32.84402813108628</v>
+        <v>35.0683385142644</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.67761852247901</v>
+        <v>11.34599550988992</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.13493155854445</v>
+        <v>22.65833854365095</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.5375097458106</v>
+        <v>27.80547804859488</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2.327739990678563</v>
+        <v>4.756835986224228</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.43600968035399</v>
+        <v>31.12346359639677</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.32062319324316</v>
+        <v>33.99941348385341</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>9.115787828872868</v>
+        <v>10.85274022942603</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>43.26115112271296</v>
+        <v>45.05116779918716</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>45.21863233127892</v>
+        <v>46.99849207812801</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>44.55341066807146</v>
+        <v>46.56210820561559</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>45.96385019856677</v>
+        <v>47.99201821787656</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>48.66461515631079</v>
+        <v>52.09982155572845</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>14.56339180427667</v>
+        <v>12.48735866860015</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>32.3835704466459</v>
+        <v>35.22079871667545</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>44.28653687001544</v>
+        <v>42.68999070025562</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.17750868376297</v>
+        <v>13.15560594112761</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>23.19459695936928</v>
+        <v>26.06347200852719</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.92628953563056</v>
+        <v>29.32060514902605</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>7.945456346779455</v>
+        <v>9.163768693736952</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.65959510956414</v>
+        <v>24.14494079244057</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>33.23169422449407</v>
+        <v>34.66094150060972</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>5.957476358604701</v>
+        <v>8.099666537096073</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>34.24660360907244</v>
+        <v>36.40774155687196</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>5.74352683259055</v>
+        <v>8.144772599262037</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.72559939547225</v>
+        <v>15.44283504536718</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>20.95195729801288</v>
+        <v>22.99789114108413</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>1.847945340599296</v>
+        <v>4.767016870365765</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.97792062260831</v>
+        <v>27.38444608535783</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>32.52585121877481</v>
+        <v>33.50544838034295</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>2.541545814684998</v>
+        <v>5.132349000750832</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>35.82269455244429</v>
+        <v>37.24765335227696</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>41.26517058272875</v>
+        <v>42.46987034580293</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>31.07184226470418</v>
+        <v>36.72039024467618</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>32.87224966336058</v>
+        <v>38.69973960572869</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>37.54297894286473</v>
+        <v>44.71557967488567</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>7.327113487360474</v>
+        <v>9.165510729053782</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>21.34227515866834</v>
+        <v>26.02744778605163</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>41.20113985429135</v>
+        <v>43.78573020489415</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>7.009949287742547</v>
+        <v>9.357119924195196</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.78395384602898</v>
+        <v>22.46746027394199</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.75875602284332</v>
+        <v>28.73002698600949</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>7.813721588909232</v>
+        <v>9.522387839610683</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.37194702632476</v>
+        <v>23.21689024196419</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.68513800804874</v>
+        <v>32.87405976679464</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1.806539909499961</v>
+        <v>4.502039768698676</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.80748731111261</v>
+        <v>31.40990165070105</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>16.3153203074711</v>
+        <v>19.24799024719277</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>13.68614272863158</v>
+        <v>16.50512208881526</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.36904263568611</v>
+        <v>30.20418432244914</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.09150226372576</v>
+        <v>33.25586367830562</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>5.073829372922003</v>
+        <v>7.635740983396552</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>9.736456737278431</v>
+        <v>13.26765476302479</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>14.96372015669873</v>
+        <v>18.07471642492883</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>10.47745063347296</v>
+        <v>11.63212690658645</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>18.08962616694426</v>
+        <v>19.44216539988521</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.37197064000829</v>
+        <v>29.52206461824268</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>7.859118641313287</v>
+        <v>8.782262739172232</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.64287527915989</v>
+        <v>12.24267051040864</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>13.27204903985918</v>
+        <v>15.80411523669436</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>3.874102821316189</v>
+        <v>5.64481906942228</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>14.17678742610563</v>
+        <v>16.39816980353019</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.21101895083796</v>
+        <v>28.8871247322624</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>15.06939505184726</v>
+        <v>18.79630776727073</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.84698204684023</v>
+        <v>37.65581478381422</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>41.075826515723</v>
+        <v>42.13091071364911</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>4.617480869889587</v>
+        <v>6.929953862008116</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>12.23744420328408</v>
+        <v>15.4275038771289</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>22.72306387083668</v>
+        <v>22.77218850298152</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>42.78648437928969</v>
+        <v>44.44019084801602</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>37.90040542366158</v>
+        <v>39.35528977402888</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>47.14754177052026</v>
+        <v>48.56877823639023</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.31665872447199</v>
+        <v>51.33288152885634</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.18748410693056</v>
+        <v>18.90604321308317</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.59090673385726</v>
+        <v>43.04081571479854</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>43.96834719873846</v>
+        <v>46.3509493537407</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>21.74524229154063</v>
+        <v>23.56200351484506</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.73945727252034</v>
+        <v>31.48976297706388</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.27812732047033</v>
+        <v>38.80031873337107</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>9.515897796432483</v>
+        <v>10.74410891729736</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.58372964779277</v>
+        <v>32.84518009728993</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>39.2080954239693</v>
+        <v>39.83987361237535</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>6.872495953786739</v>
+        <v>8.918682447756847</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>50.04427655262431</v>
+        <v>49.94582673423758</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>60.20206703998197</v>
+        <v>59.48738433050062</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>64.13356987126072</v>
+        <v>61.57666870092176</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>71.7531476125576</v>
+        <v>70.13038906165215</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>77.04788634355857</v>
+        <v>74.56297452151856</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.60782225871052</v>
+        <v>28.03114438985506</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>59.88865793954633</v>
+        <v>61.16131703395376</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>65.24488474530907</v>
+        <v>65.26279564274707</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>47.38636489607256</v>
+        <v>49.38184928202254</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>32.35620990305991</v>
+        <v>35.03322798996749</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.93581446174054</v>
+        <v>39.8372506794236</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>48.8851638324581</v>
+        <v>49.97515101446311</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>12.68414371255495</v>
+        <v>13.61647901331183</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>39.24072724417055</v>
+        <v>41.4176602041741</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>43.76877767455564</v>
+        <v>45.89477309214064</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.15035829811438</v>
+        <v>16.62993216411673</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.21299881884564</v>
+        <v>30.6618281028281</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.28391151929964</v>
+        <v>38.73648104928501</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>8.585468817123338</v>
+        <v>9.750849569676451</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>33.24131513584269</v>
+        <v>35.02763140711973</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>42.33311556881605</v>
+        <v>42.32333391155897</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>9.245665836802296</v>
+        <v>10.64588866122464</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>51.55319654443433</v>
+        <v>52.27374661224795</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>66.50252050374114</v>
+        <v>64.75267496756041</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>64.79645650404937</v>
+        <v>62.64629519919647</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>69.20074818496018</v>
+        <v>67.31746685652166</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>79.38172219518547</v>
+        <v>76.38665682254914</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>19.23719848487151</v>
+        <v>17.85526916371578</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>56.0426236200417</v>
+        <v>53.71576759840084</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>68.46473357434266</v>
+        <v>64.48547881700087</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>42.89310508291145</v>
+        <v>43.98658853845998</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>18.67009230505811</v>
+        <v>21.50120199515833</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>24.8484081168957</v>
+        <v>27.7751349905508</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.43347207783523</v>
+        <v>36.42086475487511</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>7.079133000235338</v>
+        <v>9.385101026709439</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>35.95535814280295</v>
+        <v>37.12154009689658</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.49710091938067</v>
+        <v>43.76900541161417</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>11.53012225749093</v>
+        <v>12.58373773323007</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.47023895261696</v>
+        <v>29.1259682599849</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.79049343268313</v>
+        <v>40.91245442622238</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>9.450691316383093</v>
+        <v>10.52564627012531</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>30.53297497099372</v>
+        <v>31.1201263838644</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>44.83858457776724</v>
+        <v>44.19569369151093</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>3.143946997286108</v>
+        <v>4.968871520087959</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>43.04314177818653</v>
+        <v>43.69060286507387</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>65.30552825764168</v>
+        <v>63.8906283773293</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>48.27663669998732</v>
+        <v>48.45285492629615</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>57.6399192921228</v>
+        <v>56.12024638712933</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>77.54760311297039</v>
+        <v>75.47743907965466</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>8.989637279857821</v>
+        <v>10.04547113822786</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>42.7062306990255</v>
+        <v>45.11301242307201</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>65.19433804426674</v>
+        <v>64.23499972562658</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>12.18633835428876</v>
+        <v>15.14265897655853</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>14.28096242830175</v>
+        <v>15.42627756561551</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.33642957125453</v>
+        <v>26.50931808318167</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>4.223449160603238</v>
+        <v>5.845632746542623</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>20.91378500920492</v>
+        <v>21.40432135993477</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.6147649167503</v>
+        <v>24.95323249045939</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>7.477299998615397</v>
+        <v>9.027112148441766</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>31.73750420379126</v>
+        <v>35.48668122658637</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.48780898289051</v>
+        <v>36.72772577989329</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.06418363949784</v>
+        <v>16.09932392850544</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.93731190060103</v>
+        <v>18.76924653753855</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>17.36080848535482</v>
+        <v>19.00317190000817</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>12.07743494469755</v>
+        <v>17.0047294657789</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>12.30523156098892</v>
+        <v>14.93459947023861</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.88129216268453</v>
+        <v>33.57842458720835</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>12.60115977618126</v>
+        <v>13.19737546826365</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.79393948655557</v>
+        <v>21.81609080972646</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.82349860377345</v>
+        <v>31.46420810380989</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>9.959737017834845</v>
+        <v>9.940922561700106</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>16.06277700452371</v>
+        <v>15.35165857070073</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.38445794026842</v>
+        <v>17.77594328392063</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>4.085388020073829</v>
+        <v>5.781989312990802</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>17.9265789237535</v>
+        <v>17.68397595685874</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>18.03125699612488</v>
+        <v>21.1342645286866</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>24.6155021207156</v>
+        <v>25.26088259732731</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.94070704176086</v>
+        <v>27.21685772134689</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>3.868159002946609</v>
+        <v>6.113589611872531</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>32.30282046281442</v>
+        <v>31.72234495970394</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.91677258080582</v>
+        <v>31.9209018412451</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>7.440164615970168</v>
+        <v>9.458717316175239</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.63070688075372</v>
+        <v>39.91492677808617</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>41.2930637813348</v>
+        <v>39.66179278400865</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.17657632513819</v>
+        <v>41.46883991826611</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.19470959994747</v>
+        <v>45.23731200600568</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>44.44500139429431</v>
+        <v>46.01070254054856</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>22.17650601900159</v>
+        <v>32.75163111290109</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>37.33014176376294</v>
+        <v>44.03866265775694</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>46.49943989367122</v>
+        <v>46.01704950347744</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>19.36089826500839</v>
+        <v>19.51961612962072</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.36677960761132</v>
+        <v>26.30296165342088</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.5090758710388</v>
+        <v>30.42753814835996</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>10.38498334600051</v>
+        <v>10.63348044750166</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.38062765196619</v>
+        <v>27.99204327487815</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.36857928705756</v>
+        <v>33.82915859079105</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>41.10448003663244</v>
+        <v>38.7776553913959</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.675609559954498</v>
+        <v>10.49175309156517</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>21.80581745786333</v>
+        <v>22.47226052943619</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.32278316810575</v>
+        <v>28.16632388131604</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.613545290127853</v>
+        <v>4.90578571098618</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.07522661733762</v>
+        <v>32.68941773029272</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.91696754430821</v>
+        <v>35.58182804682399</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>8.509927509506849</v>
+        <v>10.28709906285643</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>44.68499538986845</v>
+        <v>45.70681343600016</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>46.69419661749746</v>
+        <v>47.61632343191782</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>46.57937558244812</v>
+        <v>48.38679527315418</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>47.42915595202781</v>
+        <v>49.31897779572977</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>49.71342338265005</v>
+        <v>53.22640221365944</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>13.04938490810318</v>
+        <v>10.80157242785981</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.40186144389246</v>
+        <v>34.02717464069551</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>44.03166886121814</v>
+        <v>42.15882086871668</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.05093581428516</v>
+        <v>14.39024716399161</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.00115840811553</v>
+        <v>27.99480291522826</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.15370293465498</v>
+        <v>30.39432420282878</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>10.17903643872993</v>
+        <v>10.26064358833706</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.76682792697856</v>
+        <v>27.70839639938955</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>37.78497089394997</v>
+        <v>36.49927136019736</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>6.995280921397718</v>
+        <v>8.659582058645579</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>43.03810161473191</v>
+        <v>40.61295241936458</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>4.707884978449641</v>
+        <v>7.529955088249245</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>13.46130944077528</v>
+        <v>15.31681439614773</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>22.32960856291579</v>
+        <v>23.62038701973977</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>2.657425840270175</v>
+        <v>5.179742787290927</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.06666310350627</v>
+        <v>28.93935008554894</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.39900527010562</v>
+        <v>35.64317481412911</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>2.769448199677022</v>
+        <v>5.223862233113529</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.06712135014234</v>
+        <v>39.29118665770109</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>44.22259503297745</v>
+        <v>43.98007706537614</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.87157996340134</v>
+        <v>40.00540605137766</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.47941684607823</v>
+        <v>41.67671562703628</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>41.31608239182415</v>
+        <v>47.60428518328931</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>6.572032033366664</v>
+        <v>8.196137875304608</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>21.04193565874018</v>
+        <v>25.06014493978776</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>42.78142314651799</v>
+        <v>43.83621516853326</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>9.571531618302021</v>
+        <v>10.49373841826685</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.67012447882026</v>
+        <v>24.61388109047765</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.67975066847117</v>
+        <v>30.15908949215212</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>10.097569565543</v>
+        <v>10.63203898548131</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>27.72165061608936</v>
+        <v>26.22995286905376</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.95657623859223</v>
+        <v>34.63911044467271</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2.821510101375345</v>
+        <v>4.962295239156308</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.6550294176247</v>
+        <v>34.90729517173213</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.15687787627094</v>
+        <v>22.59339666093949</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.66204264332696</v>
+        <v>18.72669087598956</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.78092605052027</v>
+        <v>34.22180495500665</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>39.90667400854455</v>
+        <v>37.38841256542482</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>7.877154695359785</v>
+        <v>8.895292181306456</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.34504143330663</v>
+        <v>15.8538320047357</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.47750890057209</v>
+        <v>21.38542301796543</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>10.27157796663646</v>
+        <v>11.20671063769264</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>18.28898219847678</v>
+        <v>19.25774775567597</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.72401248063108</v>
+        <v>30.72064953101476</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>9.904076452934287</v>
+        <v>9.789124361564646</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>13.79683974585394</v>
+        <v>13.73831818460316</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>16.92273990290674</v>
+        <v>17.89740457151438</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>4.18683295906936</v>
+        <v>5.687425197012384</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>17.27815778751343</v>
+        <v>17.459583418027</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>39.77898569407401</v>
+        <v>31.63343870787346</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>18.25653316021645</v>
+        <v>20.34883945473762</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>45.52265001622602</v>
+        <v>42.33802405146938</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>50.10428940171741</v>
+        <v>47.37017333447785</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>6.152720125038631</v>
+        <v>7.169374448530103</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.09450402231393</v>
+        <v>16.9506350474639</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.92363016146303</v>
+        <v>25.29954448427207</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>49.82811955770057</v>
+        <v>47.64892927050332</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>46.59593970714181</v>
+        <v>43.10191422581238</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>55.13189270623127</v>
+        <v>52.09099452657273</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>58.08380672194511</v>
+        <v>55.01016581195154</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.13917175967406</v>
+        <v>20.96209945251175</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>48.04751895074004</v>
+        <v>46.27213682341187</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>50.23381831654873</v>
+        <v>48.75841006838451</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.32690584281107</v>
+        <v>23.15709406046432</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.4402582109713</v>
+        <v>31.99749603105468</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.58381962433367</v>
+        <v>39.48020045248199</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>11.31276576894973</v>
+        <v>11.49802927008272</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.14040950730742</v>
+        <v>35.92157701703294</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.89427754375876</v>
+        <v>42.00453096558363</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>4.972328249033634</v>
+        <v>7.760838144919351</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>54.55961288889713</v>
+        <v>51.6489618841193</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>65.84344143757515</v>
+        <v>62.11719396614951</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>66.93358573256862</v>
+        <v>61.53257456527776</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>76.11150086719451</v>
+        <v>71.6645284142668</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>81.6860367698589</v>
+        <v>76.35801967383757</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>27.48755301811285</v>
+        <v>25.77539547215914</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>65.1943215423277</v>
+        <v>63.35753887662381</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>69.20008183607112</v>
+        <v>66.37031201924438</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>54.50259552413084</v>
+        <v>52.73058217411717</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>41.54898899320916</v>
+        <v>39.14048155386666</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>47.34275019191536</v>
+        <v>43.50770610391172</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>56.70067370410061</v>
+        <v>53.45239072914939</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.58358882435244</v>
+        <v>14.67336472622135</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>46.21598894834987</v>
+        <v>44.2000374883861</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.74015828529051</v>
+        <v>15.66278647796051</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.33118093695067</v>
+        <v>30.78088536045751</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>40.26604031521519</v>
+        <v>39.34988491539902</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>10.24597081105858</v>
+        <v>10.61058459407856</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.38607381423313</v>
+        <v>37.0848317102388</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>47.2148780323425</v>
+        <v>44.54427615138518</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>7.480875373174985</v>
+        <v>9.896741135413151</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>55.84613395036</v>
+        <v>53.51862004005953</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>72.08243679948949</v>
+        <v>67.25584234474323</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>67.86018998781523</v>
+        <v>63.66089861288589</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>73.9419558717678</v>
+        <v>69.28839969386968</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>83.77961528935963</v>
+        <v>78.28931790469345</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>16.10731988000868</v>
+        <v>15.59243571522606</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>61.33003435162294</v>
+        <v>54.99467734277904</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>72.66885650537091</v>
+        <v>65.15656238652126</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>49.45897388043657</v>
+        <v>46.57398347313986</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.54447857603372</v>
+        <v>24.58246011568892</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>32.18822678383753</v>
+        <v>31.12062552869413</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>41.27474178351019</v>
+        <v>39.20115265553758</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>9.579782310992616</v>
+        <v>10.50175420410393</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.86658436287837</v>
+        <v>39.71801993325776</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>47.99313623878476</v>
+        <v>45.8319042472754</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.81221817581419</v>
+        <v>12.17608240049445</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.26717644407888</v>
+        <v>29.21284472453792</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>43.76076779591592</v>
+        <v>41.99929487182413</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>11.65533498893485</v>
+        <v>11.51055337655776</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.83534705053587</v>
+        <v>32.73306143332417</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>49.97224035159914</v>
+        <v>46.63495348957189</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>3.09563932756204</v>
+        <v>4.847663297100162</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>47.00529336356884</v>
+        <v>45.09442351274758</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>71.43788879927307</v>
+        <v>66.4069717275376</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>52.64943021840189</v>
+        <v>50.72611845595491</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>65.28963479905299</v>
+        <v>59.78720872246166</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>85.58669028304332</v>
+        <v>79.09171640593442</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>9.163198272516045</v>
+        <v>9.967731453370824</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>50.3287045478116</v>
+        <v>48.74902760585267</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>70.69494198456354</v>
+        <v>66.54264842796707</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>12.18969550119579</v>
+        <v>17.92704480331961</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>12.23785519703145</v>
+        <v>18.12787676689042</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>21.79593344226263</v>
+        <v>24.60415644540422</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>7.515870423563381</v>
+        <v>13.05814011510692</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>20.96386005190469</v>
+        <v>22.14057868870189</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>22.83342062267864</v>
+        <v>23.58679120703782</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>10.07897683725112</v>
+        <v>14.95799954056624</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.55763493449559</v>
+        <v>30.11739221228363</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.35371149030545</v>
+        <v>30.79362217200678</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>13.98536983622378</v>
+        <v>19.13923142084358</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>16.99523481974553</v>
+        <v>20.84172471824984</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>16.51660089998458</v>
+        <v>20.9426653447944</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>18.0708831825137</v>
+        <v>21.9715873475123</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>15.46720092907974</v>
+        <v>19.8081178156865</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>32.11219710814064</v>
+        <v>32.07896343496107</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>15.79880979394685</v>
+        <v>17.80049555653624</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.93284272151428</v>
+        <v>25.80984805426099</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.50355876821904</v>
+        <v>28.84559019764036</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>7.747908225571322</v>
+        <v>13.03259118357833</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>16.69995857438305</v>
+        <v>18.55165833001163</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>19.73289377497186</v>
+        <v>21.45506631840036</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>7.992905252624908</v>
+        <v>13.46835260137756</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.17429400826933</v>
+        <v>26.17688699654619</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>15.32455932864601</v>
+        <v>20.55315357019351</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>17.21063299423916</v>
+        <v>22.78946584491516</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>21.81002900628224</v>
+        <v>25.1508816980835</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>7.043077927334881</v>
+        <v>12.99318694998614</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>25.64702513286634</v>
+        <v>27.48158837298217</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>26.18506969588752</v>
+        <v>27.9930038700983</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>10.43116556262253</v>
+        <v>15.4262886399706</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>33.59452565589176</v>
+        <v>34.05080816013174</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>33.0370445930543</v>
+        <v>33.8125714351676</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.69859103583355</v>
+        <v>32.21153500300009</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.06181548979293</v>
+        <v>35.5405315473928</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>34.85504927513011</v>
+        <v>35.30942167611076</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>21.37176345796764</v>
+        <v>27.44493493420052</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.09587438292493</v>
+        <v>35.12171832425867</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>35.31472788029318</v>
+        <v>36.71870731170571</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>22.9370085875697</v>
+        <v>23.3160726378327</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.8891447060062</v>
+        <v>29.5552288204639</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.88310029609566</v>
+        <v>30.27288571895032</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>8.946006740743773</v>
+        <v>13.57030830066126</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>32.97525374615381</v>
+        <v>30.10604852593</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>32.16974494733395</v>
+        <v>30.57828970350061</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>8.682360211834929</v>
+        <v>13.89568539106814</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>45.88550891816578</v>
+        <v>39.74764033804818</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>8.643464830334043</v>
+        <v>14.5384284663255</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>14.1180968636954</v>
+        <v>19.77971418228117</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>21.56020715079698</v>
+        <v>24.64708516622506</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>6.021633896213466</v>
+        <v>12.41405539070688</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>24.28089960919318</v>
+        <v>26.41210894465508</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.93337695417188</v>
+        <v>27.62523310466555</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>10.75264492191684</v>
+        <v>15.29296173704024</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>33.86744852000297</v>
+        <v>33.82716582685827</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>35.58222154675088</v>
+        <v>35.46000578829034</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.7686842626478</v>
+        <v>35.90486300731654</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>35.772990024816</v>
+        <v>36.69887475798397</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>41.04120375439624</v>
+        <v>41.40283189915977</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>11.94177056659851</v>
+        <v>14.33707154960505</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>21.86989774917798</v>
+        <v>25.38295794568597</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>30.14421761945162</v>
+        <v>31.00464127285943</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>17.2793270871945</v>
+        <v>19.04529915622522</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.33822035171301</v>
+        <v>28.48258817951179</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>30.06204263386223</v>
+        <v>29.66786112211333</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>8.606795631874526</v>
+        <v>13.33262100633274</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.24706537252605</v>
+        <v>28.0639438107076</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>32.40354384742535</v>
+        <v>30.96237087955989</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>10.5627221481963</v>
+        <v>15.19043113185095</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>45.64152028506697</v>
+        <v>38.69471763366749</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>5.720382649195006</v>
+        <v>13.11452867083147</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>9.560836027249724</v>
+        <v>16.78384067350854</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>19.69778487622948</v>
+        <v>23.07163202734196</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>5.897841780843994</v>
+        <v>12.27839704725181</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>23.02883264741233</v>
+        <v>24.30303377725151</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>27.84776039991329</v>
+        <v>28.66805766567278</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>5.760170651873249</v>
+        <v>12.47793146785325</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.43369100551858</v>
+        <v>30.39906217125342</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>34.64143118027084</v>
+        <v>34.47126643857933</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>30.61099788964182</v>
+        <v>32.79187953905366</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>32.52774647386739</v>
+        <v>34.24799021297571</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>38.48395185175131</v>
+        <v>38.58683565485808</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>7.279727386664952</v>
+        <v>12.8741519144728</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>16.01279134209012</v>
+        <v>21.41605712668433</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>34.09484024089417</v>
+        <v>33.2990699220872</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>13.49768143455089</v>
+        <v>16.68481974114879</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>27.77265509113839</v>
+        <v>26.76702948488471</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.64123411611461</v>
+        <v>29.15993876654853</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>8.231572090835154</v>
+        <v>13.41925359734249</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.37922942025562</v>
+        <v>26.40228575749241</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.34913000130301</v>
+        <v>29.6822144466858</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>7.006813280311444</v>
+        <v>13.01617314402213</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>39.50559704732036</v>
+        <v>34.06000609573656</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>31.2278082099969</v>
+        <v>28.52931792455852</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>23.26598332134193</v>
+        <v>24.03226857546606</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>38.43963338857313</v>
+        <v>33.79041951588892</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>38.69765591833405</v>
+        <v>34.60942407249646</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>14.96264768619385</v>
+        <v>17.495066740381</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>24.43766470514017</v>
+        <v>23.81693757768045</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>30.09508816636566</v>
+        <v>28.11036876015923</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>17.3010110848813</v>
+        <v>19.53796923411939</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>24.98803442763264</v>
+        <v>25.54297036627454</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>36.06873909723843</v>
+        <v>32.47655760536809</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>7.893911162180132</v>
+        <v>12.84411340515517</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>14.85971052683362</v>
+        <v>17.35023763170544</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>20.76738868068702</v>
+        <v>21.70843727019732</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>8.276155369572152</v>
+        <v>13.49450917120917</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>28.1463110606336</v>
+        <v>25.46555166178674</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>45.40717343905447</v>
+        <v>37.00299076200541</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>26.01186117580779</v>
+        <v>26.32820147879689</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>45.90363955382824</v>
+        <v>39.35477122091342</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>49.209462961669</v>
+        <v>42.24473189502066</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>13.33428926910827</v>
+        <v>16.28464128263571</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>26.01219083545558</v>
+        <v>24.56695230566327</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>34.36233442627439</v>
+        <v>31.77948556577204</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>48.02836575300513</v>
+        <v>42.14657687700943</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>47.51012332112497</v>
+        <v>40.57362196336196</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>52.28111548236139</v>
+        <v>44.50200101791398</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>52.22600161423945</v>
+        <v>45.17938535049676</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>26.09089728817235</v>
+        <v>24.89568246523888</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>48.7441749178318</v>
+        <v>42.22647094724447</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>48.29606443394801</v>
+        <v>42.48954573799785</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>24.77290795582308</v>
+        <v>25.46517026511323</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>9.354991268316319</v>
+        <v>14.04648112466065</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>41.8975747680653</v>
+        <v>36.75023913151611</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>42.64053271579846</v>
+        <v>38.40041951809975</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>9.558531699914951</v>
+        <v>15.14250863879234</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>57.15951019579375</v>
+        <v>47.830724641088</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>61.38146264343561</v>
+        <v>51.50774090458437</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>61.52967941039873</v>
+        <v>51.00899926688287</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>68.07410027098783</v>
+        <v>56.45397116379033</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>70.06574993373077</v>
+        <v>58.46293734661865</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>31.12395403130232</v>
+        <v>29.11679150085079</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>64.53140102956786</v>
+        <v>53.87980647908586</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>64.87890448932251</v>
+        <v>54.40421780297164</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>50.80749483487642</v>
+        <v>44.50760170921706</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>44.74925704746857</v>
+        <v>38.36689142043172</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>47.7797740803389</v>
+        <v>40.94208869789218</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>51.63447011978087</v>
+        <v>44.54700318215056</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>19.39832727641735</v>
+        <v>19.7833435082991</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>45.65317490470783</v>
+        <v>39.8059619293827</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>47.29195093589202</v>
+        <v>42.02448491325521</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>17.44994816702428</v>
+        <v>20.01305277740087</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>31.26818117037541</v>
+        <v>30.63394831715474</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>39.62491756389656</v>
+        <v>36.27545710410787</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>7.9578818978896</v>
+        <v>13.52432860667412</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>39.74923978336012</v>
+        <v>34.79748533558664</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>42.5122419748178</v>
+        <v>37.84243766417703</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>10.40337899203977</v>
+        <v>16.08353973958553</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>57.94979573894175</v>
+        <v>47.48782128400737</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>64.86512993777515</v>
+        <v>53.79795127607753</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>62.93827759342183</v>
+        <v>52.15327521521282</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>68.46533185592703</v>
+        <v>56.29773247061042</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>72.29697323234343</v>
+        <v>60.11134203850319</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>19.40168247201726</v>
+        <v>20.2505098894657</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>64.1817845941418</v>
+        <v>51.46104305225566</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>67.9471405544915</v>
+        <v>54.99548274345371</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>45.80084856762329</v>
+        <v>40.1170364397911</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>31.63433894831359</v>
+        <v>28.81883299553103</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>36.22144695792228</v>
+        <v>32.45220869971295</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>39.4889462855499</v>
+        <v>35.53972370219119</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>14.76531983304277</v>
+        <v>17.53361538940498</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>41.5642045021285</v>
+        <v>35.58152321113248</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>43.6931694967502</v>
+        <v>39.12032669264491</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>14.49702622817382</v>
+        <v>18.28920339849856</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>31.47932813811715</v>
+        <v>29.9323335002865</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>42.25421316273053</v>
+        <v>37.36854552361147</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>9.297716154273626</v>
+        <v>13.79333703853267</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>38.41139887675055</v>
+        <v>33.1215543379648</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>43.8615258160372</v>
+        <v>38.38456968828576</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>7.630466174710428</v>
+        <v>13.24631662891384</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>54.87873026973482</v>
+        <v>44.74844155953255</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>64.88414691687466</v>
+        <v>53.06895895607961</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>58.15009804148046</v>
+        <v>47.87650655423194</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>68.36443564484772</v>
+        <v>54.43105261396639</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>74.68899836449822</v>
+        <v>60.31794634243251</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>15.12232259807605</v>
+        <v>17.57180670444753</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>62.13675783708035</v>
+        <v>49.88892082766883</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>68.41088042203646</v>
+        <v>55.90795578542446</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/plate_1/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.575</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.256</v>
+        <v>18.735</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.59</v>
+        <v>22.306</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.949</v>
+        <v>0.967</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16.41615384259065</v>
+        <v>18.67701955147855</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.65410861859746</v>
+        <v>18.65528660193822</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.90299302883643</v>
+        <v>31.29177943019885</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.950228891700252</v>
+        <v>6.759283937841946</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.25618446643644</v>
+        <v>25.57610307641403</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.85712075218796</v>
+        <v>29.72269130168215</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.270242064062192</v>
+        <v>10.36741651155073</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>44.19017751463624</v>
+        <v>43.23548850036831</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>45.60110027360054</v>
+        <v>44.55296669837109</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.56878824981611</v>
+        <v>19.73994712885015</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.54795399694111</v>
+        <v>22.42015127745437</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.21733646609168</v>
+        <v>22.33718088910147</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.83326989046186</v>
+        <v>18.58419410217682</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.33967551944374</v>
+        <v>19.75992233490766</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>46.89769004781114</v>
+        <v>45.75408605202543</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.9305348238896</v>
+        <v>15.84084448521648</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.61644279407491</v>
+        <v>25.44007871061542</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.98018527674139</v>
+        <v>32.49634274371954</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.696831818794841</v>
+        <v>8.503345838938976</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11.60165091136587</v>
+        <v>14.78635509290906</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13.68865759166328</v>
+        <v>17.18284506919687</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.211010950396023</v>
+        <v>7.113577073781165</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.99642367016553</v>
+        <v>20.41548797436444</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23.79948101266455</v>
+        <v>24.73023186318044</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.50588821520068</v>
+        <v>27.92691169141511</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.35980720772048</v>
+        <v>30.83137447373946</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.647228948265276</v>
+        <v>7.30777141942994</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.54144638805356</v>
+        <v>33.67714759581113</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.05594138829783</v>
+        <v>33.69285389618794</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8.593650418274912</v>
+        <v>11.96863641355424</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>46.66444560092002</v>
+        <v>44.92264764024786</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46.33256198640573</v>
+        <v>45.4519228612849</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46.22054720061411</v>
+        <v>45.1071783020115</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>50.19198679509184</v>
+        <v>48.59590443470444</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.58648067029235</v>
+        <v>50.58666935200642</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>37.09850747911109</v>
+        <v>36.97661629410185</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>51.47664060824377</v>
+        <v>50.11102795285745</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>55.20459145944763</v>
+        <v>53.44127057403022</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.25339152986998</v>
+        <v>22.61570167268218</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.64547618076503</v>
+        <v>30.29097814066943</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.46058328560495</v>
+        <v>33.56361310190508</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.046581605611888</v>
+        <v>8.781962858462066</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.7879429020297</v>
+        <v>29.03037666514924</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.35478256592889</v>
+        <v>34.45119880577025</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4.324709295966432</v>
+        <v>8.037323782245508</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>45.4342518070539</v>
+        <v>42.74870121781353</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7.982241919612282</v>
+        <v>11.27128172946387</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.93225432127482</v>
+        <v>24.67921962056615</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.14709347617638</v>
+        <v>30.39381931062942</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.997840777126825</v>
+        <v>6.381879194519442</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.9667953337885</v>
+        <v>35.33491653638172</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>37.97747034492261</v>
+        <v>37.92927898391808</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>9.280465509059386</v>
+        <v>12.88277804294005</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>52.17109895385216</v>
+        <v>49.74968095855197</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>55.04573010718869</v>
+        <v>52.64257275718126</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>58.46146399549107</v>
+        <v>55.70166138458101</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>58.98938795595444</v>
+        <v>56.2568548968547</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>63.58632144232417</v>
+        <v>60.18764490064912</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>8.686916474569092</v>
+        <v>11.79093537798879</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.0182541224853</v>
+        <v>36.4929050732957</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>47.91942808350383</v>
+        <v>47.15902809375605</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>12.56162325999603</v>
+        <v>15.41026228513935</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.48162731253893</v>
+        <v>30.60634034328415</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.42215102803716</v>
+        <v>32.75418797355131</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.170970738954164</v>
+        <v>8.37444641243502</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.30161197919111</v>
+        <v>27.37462867169044</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.02218104073877</v>
+        <v>36.81274054602198</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.971296625706273</v>
+        <v>10.07240225670526</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.51205432146996</v>
+        <v>43.42820419199011</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5.971430022735223</v>
+        <v>9.441770357379959</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15.53481250374351</v>
+        <v>18.1915453249892</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.21853270828131</v>
+        <v>26.29682492993859</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2.461702996750081</v>
+        <v>6.520181099298984</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.33561258949315</v>
+        <v>31.58407255189592</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>38.46785354396364</v>
+        <v>37.63281410874469</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3.107528113941573</v>
+        <v>6.88305783386183</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.80474247321171</v>
+        <v>44.48332514504509</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.84079600707732</v>
+        <v>49.35253998010474</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>48.453855342234</v>
+        <v>47.3205415689806</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>50.55536125172985</v>
+        <v>49.25508366140075</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>57.74322591707642</v>
+        <v>55.44028508209666</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.903588316992387</v>
+        <v>9.945545649841435</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.82999537549109</v>
+        <v>27.3299992449788</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>51.10513057591196</v>
+        <v>49.70710349856422</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>8.342851995368065</v>
+        <v>11.41016565574904</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.20175262985383</v>
+        <v>27.05669010229732</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34.25182069836311</v>
+        <v>33.31822686542189</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4.803064163652973</v>
+        <v>8.466369669794886</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.23173111535744</v>
+        <v>26.35169098248056</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>37.65434208235899</v>
+        <v>36.41605295647576</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.726585520598899</v>
+        <v>6.499813311010804</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.19135208838637</v>
+        <v>37.63096930001852</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.91646800065175</v>
+        <v>24.59937925054876</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>18.97102024110357</v>
+        <v>20.67061693552006</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.48969253714731</v>
+        <v>32.46045588380407</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.61427333017227</v>
+        <v>35.24460118666245</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.767926687944598</v>
+        <v>10.57789201455123</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>14.66523304652512</v>
+        <v>17.08709667322148</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>21.09821861299071</v>
+        <v>22.71178775081796</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.80370992207137</v>
+        <v>13.55545250421661</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20.82875120811045</v>
+        <v>22.3341220290421</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.60231131205724</v>
+        <v>32.76668872707027</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3.575490395939546</v>
+        <v>8.232069819874496</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>9.541103592646113</v>
+        <v>12.94380318295969</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>15.20739626354944</v>
+        <v>17.98142472746543</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3.754719329350163</v>
+        <v>7.203207992457472</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>18.4340844663374</v>
+        <v>20.56378051396823</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.57436716335054</v>
+        <v>35.98678786760167</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>21.10334205423425</v>
+        <v>22.78531641030786</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.32827777279948</v>
+        <v>40.28250571200354</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.46707743339815</v>
+        <v>45.81701503400203</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.53937190466814</v>
+        <v>9.030785711982954</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>17.83900938837837</v>
+        <v>19.98157651173863</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>27.89856283200687</v>
+        <v>28.90268891203997</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.72608791454874</v>
+        <v>50.37182303998168</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>52.12733475293929</v>
+        <v>48.86910929244269</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.87475996480286</v>
+        <v>54.0113513746549</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>59.11501480125084</v>
+        <v>54.42029631077597</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>22.60977728859851</v>
+        <v>24.11693937607336</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>54.20303034553271</v>
+        <v>50.94220361928778</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>57.85998913588594</v>
+        <v>53.87578610652586</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>27.08636150971166</v>
+        <v>27.33809995640326</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.02211194862683</v>
+        <v>34.8747901809831</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>42.27704052530505</v>
+        <v>40.40825564249933</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6.206445487244114</v>
+        <v>9.485890663614086</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>37.92861962253435</v>
+        <v>36.99143848624716</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.28383399898175</v>
+        <v>41.20505102029686</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>7.570711083583252</v>
+        <v>10.27857229953705</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>60.24050411950446</v>
+        <v>55.96927457188879</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>65.26281722576449</v>
+        <v>60.5967213932289</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>74.36966367795921</v>
+        <v>68.08473327580354</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>79.66850781177264</v>
+        <v>71.89629779725976</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>81.30673761537383</v>
+        <v>74.22095933960416</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.1459223993217</v>
+        <v>30.74364472054848</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>71.46719106684297</v>
+        <v>64.51412811112118</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>75.31051293573535</v>
+        <v>68.63559733130499</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>57.00399394683917</v>
+        <v>53.04422877587862</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>43.71830872713886</v>
+        <v>42.07807019665201</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.44570876163198</v>
+        <v>47.05576201038948</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>58.10205427244723</v>
+        <v>53.729523292789</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.58730882731972</v>
+        <v>14.1854584567361</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.14850164469802</v>
+        <v>47.6547885964788</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>56.45459962869694</v>
+        <v>52.49910139812299</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>14.30222914315266</v>
+        <v>16.94279145612143</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.4116120266615</v>
+        <v>33.69972069565617</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.28542580845247</v>
+        <v>39.46300976029022</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>4.456402388096105</v>
+        <v>8.613573965639588</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.13824356460253</v>
+        <v>38.02835631047808</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.1232818677714</v>
+        <v>43.86972792592027</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>8.106324761806903</v>
+        <v>11.56061003065048</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>61.06515567532688</v>
+        <v>57.28106658086219</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>70.28577731134411</v>
+        <v>64.21523473898499</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>74.45787452305231</v>
+        <v>68.69433794469612</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>76.88905478394943</v>
+        <v>69.93815677720092</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>84.23594107211235</v>
+        <v>76.58839169616027</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>13.10819397262398</v>
+        <v>15.6132372367016</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>65.01981478263167</v>
+        <v>60.63156929434354</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>76.98838495793913</v>
+        <v>70.38782142555321</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>55.00388124297514</v>
+        <v>51.10665918176801</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.5655590182886</v>
+        <v>26.92436720117841</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.99167880705592</v>
+        <v>33.0042559046524</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>43.89051969646304</v>
+        <v>41.10869516727325</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7.254182990063878</v>
+        <v>10.77408232448728</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.09332378581173</v>
+        <v>44.08545674402659</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>55.48244712535373</v>
+        <v>51.86337868878951</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>10.10005752072159</v>
+        <v>12.99219701439749</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.75334620811822</v>
+        <v>32.43521867807041</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.23538892084225</v>
+        <v>41.20874334715917</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>5.277703848398613</v>
+        <v>8.745546800428901</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.40658280841735</v>
+        <v>34.13015089066085</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.78768292959634</v>
+        <v>44.46148861092865</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.877205753638528</v>
+        <v>6.541787419849314</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>51.32110784347904</v>
+        <v>48.92230467885386</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>70.30701310808273</v>
+        <v>64.62107600508504</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>56.97036111552297</v>
+        <v>54.00614422423796</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>65.51622882742868</v>
+        <v>61.47908774664111</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>84.92850408729814</v>
+        <v>76.44894800055145</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>6.970654008359251</v>
+        <v>10.40597115114682</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>55.03256768963418</v>
+        <v>52.32006864372313</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>74.74860100620882</v>
+        <v>67.7503194086095</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>14.66257695169725</v>
+        <v>18.31244271922497</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.56155284757801</v>
+        <v>20.79033490846874</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.74774449590898</v>
+        <v>27.71689423478962</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3.122433603806108</v>
+        <v>9.942123419869677</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.89073274603587</v>
+        <v>21.54977998533832</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.38996276442662</v>
+        <v>23.19784804330205</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.810078194992464</v>
+        <v>13.43100678038129</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>38.64361589691022</v>
+        <v>34.6197241523404</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>40.43121519122017</v>
+        <v>36.16233306370223</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20.43048172793264</v>
+        <v>22.92285725689905</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.42595827094632</v>
+        <v>26.60096541801199</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.50188507470879</v>
+        <v>26.57016695120313</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.82416175312954</v>
+        <v>20.68846295276447</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.59780172329237</v>
+        <v>21.15310912993172</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>39.16808183395477</v>
+        <v>34.4686561006805</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10.49528204354198</v>
+        <v>15.98141044605332</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.40230965627229</v>
+        <v>25.24770333698141</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.52362488050158</v>
+        <v>28.46245795940072</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.9831867711261104</v>
+        <v>9.457879904769179</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>10.46643310889654</v>
+        <v>15.2718847447477</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14.63390330322321</v>
+        <v>18.50042770545929</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2.52178841241011</v>
+        <v>10.28417776442204</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>24.54440297847152</v>
+        <v>25.31898822115654</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17.64157922178087</v>
+        <v>20.0690354789053</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>24.02201593998663</v>
+        <v>25.2328291202353</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.14479818419814</v>
+        <v>27.77021968002263</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3.442904138550162</v>
+        <v>10.54112409339164</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.53122756720019</v>
+        <v>29.66952834462531</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>31.31346483783596</v>
+        <v>30.04120731514373</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>8.096250284126103</v>
+        <v>13.88426754023442</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>44.90661862387951</v>
+        <v>39.66804855838693</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>46.00090236134142</v>
+        <v>40.5700672794415</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>44.64919802435983</v>
+        <v>40.30744538282175</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>49.93975552015765</v>
+        <v>43.62983122393643</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>49.99581346813984</v>
+        <v>44.45997928777582</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.31309789922558</v>
+        <v>25.15534975674963</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>48.80854465848294</v>
+        <v>42.8690417225483</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>51.4933017150044</v>
+        <v>44.46220277242973</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>18.29421109728274</v>
+        <v>20.47524199606374</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.40613799888724</v>
+        <v>29.53197820723299</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.63909947806805</v>
+        <v>31.54364065159166</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2.221047355768114</v>
+        <v>9.581619238309031</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.20738473567241</v>
+        <v>29.42996635354804</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.97328711653753</v>
+        <v>31.10270211381682</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>3.961407097239118</v>
+        <v>10.50365505378576</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.35479563154436</v>
+        <v>41.52025053742328</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>6.903880995307361</v>
+        <v>13.03253176713653</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>18.05537698148444</v>
+        <v>21.57280499693648</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.5652964281862</v>
+        <v>26.1716341638073</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2.327765311318895</v>
+        <v>9.563389885149537</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.00032229172104</v>
+        <v>28.5524951292559</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>31.23532003721462</v>
+        <v>30.34358559498229</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>7.55363192290141</v>
+        <v>13.5107622457362</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.05731620241075</v>
+        <v>38.92129413681046</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>48.72000743714371</v>
+        <v>42.85907209269013</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>49.34899524269998</v>
+        <v>43.38064934584176</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>51.08037726847247</v>
+        <v>44.73714986531855</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>58.07009683690492</v>
+        <v>49.56233660747407</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>6.677950147030824</v>
+        <v>13.0362322087065</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.38559222822074</v>
+        <v>30.98185605631825</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>38.89008581213709</v>
+        <v>36.04953417285259</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>9.217422147651469</v>
+        <v>14.48993671799469</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.23884189905439</v>
+        <v>27.9613299161672</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.65251011924956</v>
+        <v>30.41271598085096</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1.746121068530755</v>
+        <v>9.404897646511909</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>24.96399814256228</v>
+        <v>25.77935294097665</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.90204348990321</v>
+        <v>32.5677793694425</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>5.204870227822383</v>
+        <v>11.94923738504769</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>42.45827169553044</v>
+        <v>38.34015326826184</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>5.059587332732217</v>
+        <v>11.872765282273</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>14.21235072114204</v>
+        <v>18.53912234901752</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.44010265018736</v>
+        <v>25.20767984188645</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1.878925369213459</v>
+        <v>9.545569635663441</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.94047827357032</v>
+        <v>25.83777024359895</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>33.26063060154226</v>
+        <v>31.33594412016206</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2.887173161509427</v>
+        <v>10.05259831722496</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.84308835470944</v>
+        <v>36.05807188224163</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>47.17124263585347</v>
+        <v>41.66040831088148</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>46.05315916241875</v>
+        <v>40.2871375395919</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>49.15054099972485</v>
+        <v>42.63505608026567</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>54.73929987631104</v>
+        <v>46.85565354111475</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>5.075726187090019</v>
+        <v>12.03239921130846</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.35733430364284</v>
+        <v>27.35924395482489</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>42.47388501604508</v>
+        <v>38.18224676318693</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>6.542863192965996</v>
+        <v>12.79106956661022</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.044252707953</v>
+        <v>24.98060402234086</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.45877635552633</v>
+        <v>29.75922223999725</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1.785858920094284</v>
+        <v>9.395795478169958</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.65446820856714</v>
+        <v>23.02513066490307</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.77561246526319</v>
+        <v>30.30443613435284</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>2.670651406796367</v>
+        <v>9.798310106632936</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>34.38429178750772</v>
+        <v>31.9433440057562</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.95351991835238</v>
+        <v>26.24309365458353</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.29706232522548</v>
+        <v>23.13632655764152</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.68030541977287</v>
+        <v>33.45821983309248</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.36747616641269</v>
+        <v>34.08241363382601</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.891488684072591</v>
+        <v>14.54171044129021</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.33728767136951</v>
+        <v>20.73025591074371</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.30806244823638</v>
+        <v>25.7855594098288</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>12.87028047025914</v>
+        <v>17.06848774790848</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.53316230965003</v>
+        <v>25.63382343527659</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.46015954630928</v>
+        <v>32.68216161347997</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.8198280378231608</v>
+        <v>9.372672203927426</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>9.065721601494879</v>
+        <v>14.3536115262294</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.30009992929163</v>
+        <v>20.12013287841187</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3.196528488193199</v>
+        <v>10.2667205148316</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.19707595348732</v>
+        <v>24.87260256059757</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>44.89796469198663</v>
+        <v>39.41381516935485</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>24.77569269130625</v>
+        <v>25.71197859488868</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.91694940328905</v>
+        <v>39.02958260828591</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>49.74283180637392</v>
+        <v>43.63824356710676</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>7.729525472967346</v>
+        <v>13.55133670880495</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.45804201015656</v>
+        <v>23.68092404816453</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.52198269531777</v>
+        <v>33.78471611123316</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>53.16664739383184</v>
+        <v>46.0513979667916</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>48.63646483156482</v>
+        <v>42.80539471934625</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>56.36962226409957</v>
+        <v>48.6080265159394</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>54.2785977303286</v>
+        <v>47.14921770670382</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.6888153824654</v>
+        <v>21.24572207046686</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>51.71294514606786</v>
+        <v>45.25655167153563</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>55.06820007995221</v>
+        <v>47.64484513640311</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.05261117912263</v>
+        <v>24.84247058226927</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.80563874832529</v>
+        <v>33.22441134017548</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.26948823933366</v>
+        <v>38.45922643403459</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>3.261190326326556</v>
+        <v>10.21699259693534</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>41.2464485343812</v>
+        <v>37.51015727610142</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>42.78139527051783</v>
+        <v>38.78801802054302</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>7.247399519664874</v>
+        <v>12.91631459454644</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>61.27900689529219</v>
+        <v>52.42678841410388</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>65.01889842884098</v>
+        <v>54.8602087843768</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>69.8585612321591</v>
+        <v>59.07405180142083</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>74.73872459786577</v>
+        <v>61.79470725407509</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>78.00785258858136</v>
+        <v>64.77200288339615</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.04988133916229</v>
+        <v>28.36840197730134</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>70.39865419376346</v>
+        <v>58.92475391647725</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>72.71834112668378</v>
+        <v>60.45323790123045</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>54.58592304524618</v>
+        <v>47.37525613005376</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>43.67701035693003</v>
+        <v>39.16957887825003</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>47.95210223523051</v>
+        <v>42.28642989552647</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>55.44395039713162</v>
+        <v>48.06676879083979</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>9.240462288299362</v>
+        <v>14.46991671705728</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>46.19869161223642</v>
+        <v>41.15334358968122</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>52.5648371594231</v>
+        <v>45.99000875201158</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>12.52271489536002</v>
+        <v>16.88773445039255</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.78299874192498</v>
+        <v>31.65304486847761</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.69765294232597</v>
+        <v>37.37866932972192</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>1.994317694469849</v>
+        <v>9.571736857921376</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>35.901906890112</v>
+        <v>33.6177982383945</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>43.19272177442756</v>
+        <v>39.25318679727382</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>7.54994138453764</v>
+        <v>13.92251869792349</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>57.05195515103598</v>
+        <v>49.28215317419991</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>67.83582286674404</v>
+        <v>57.35012067822936</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>66.63075534489306</v>
+        <v>56.15222548745405</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>72.45944321989697</v>
+        <v>60.83869516714348</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>81.47941275309847</v>
+        <v>67.50634043628339</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>12.99930496191523</v>
+        <v>17.1368977506058</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>66.57571991056875</v>
+        <v>56.15671682569742</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>73.42502839282093</v>
+        <v>61.36636521917312</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>48.82192710750309</v>
+        <v>43.29524374889369</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.00748804833109</v>
+        <v>26.39027958155144</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.15324529417781</v>
+        <v>30.74104258548854</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.51624446874932</v>
+        <v>35.71809950788637</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>7.207489266360039</v>
+        <v>13.0619513185446</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.5428349804673</v>
+        <v>35.14740936735048</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>48.03807977482946</v>
+        <v>42.5231854980453</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>9.582381392191476</v>
+        <v>14.58632986723785</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.76843068097429</v>
+        <v>29.79335694053163</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.94182500206549</v>
+        <v>38.23884892311263</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>2.291955318362955</v>
+        <v>9.565977018438339</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.07752366143453</v>
+        <v>31.52949543974746</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>42.67572200306313</v>
+        <v>38.78162833952047</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>3.508668760742694</v>
+        <v>10.36511754622652</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>52.06952581069085</v>
+        <v>45.03461747799838</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>66.97808678906431</v>
+        <v>56.4444558348351</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>56.33880306410572</v>
+        <v>47.88769146336369</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>68.09014863498285</v>
+        <v>56.81360266275307</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>79.34591148486058</v>
+        <v>65.97715829798652</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>8.627260136273613</v>
+        <v>13.8158029809022</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>61.64750499325041</v>
+        <v>51.69069822122874</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>73.7381079643543</v>
+        <v>61.30695383210195</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>9.892349059462713</v>
+        <v>14.56505207934768</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>11.90506278632985</v>
+        <v>16.66602308308725</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.56118106321673</v>
+        <v>22.62943796161299</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1.83440708086928</v>
+        <v>8.49865225706154</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>12.83215379204452</v>
+        <v>16.93439582000535</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>14.04490885251711</v>
+        <v>17.76520901306909</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>5.487366400124486</v>
+        <v>11.34924063664391</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.46677466761482</v>
+        <v>26.59339041036631</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.50189258720239</v>
+        <v>28.26474598179495</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>13.88218306941103</v>
+        <v>18.26481448435961</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>17.80732328514055</v>
+        <v>21.18939613685426</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>17.95862323117914</v>
+        <v>21.02019762529939</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.16619644825715</v>
+        <v>17.21628311302621</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>12.75920316954867</v>
+        <v>16.96771221537735</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>27.40195372635434</v>
+        <v>26.90201997120052</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.47316865258311</v>
+        <v>15.56715493329171</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.56542891655616</v>
+        <v>25.158577884372</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.49663079727385</v>
+        <v>28.37142705135919</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.2265470625171844</v>
+        <v>8.301132834019779</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>9.527394651412827</v>
+        <v>14.19551788008408</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.39050132764749</v>
+        <v>18.52296359638703</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2.213089752419407</v>
+        <v>9.309659289310897</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.51025180357368</v>
+        <v>25.90225072056876</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>12.725598194607</v>
+        <v>16.41527042214283</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>18.66875863560197</v>
+        <v>21.38261865850907</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>21.72866054714508</v>
+        <v>23.15492537542462</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>1.650581302658217</v>
+        <v>8.91673331988018</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.20420119128303</v>
+        <v>25.20100715053916</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.22389546857222</v>
+        <v>25.85111737451815</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>5.021070316492164</v>
+        <v>11.16845812377504</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>35.91757865735852</v>
+        <v>33.77680071264798</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>36.57207270864322</v>
+        <v>34.24148790278527</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>35.47991140971545</v>
+        <v>34.06424748963562</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.01469914683447</v>
+        <v>38.13500432678266</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>42.22566245663165</v>
+        <v>38.91701829397161</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>18.27235154540562</v>
+        <v>20.379403522375</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>38.09905963671865</v>
+        <v>35.63962085620279</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>40.61594264555708</v>
+        <v>37.21162106760399</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.70022218893434</v>
+        <v>19.92346809915177</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.097435836325</v>
+        <v>29.82099037743679</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.70861952146731</v>
+        <v>31.65275264864946</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1.373698417766057</v>
+        <v>8.390148529981531</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>30.96634954112662</v>
+        <v>29.90146538286186</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.86037436892577</v>
+        <v>32.22066351386115</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>3.109386550256851</v>
+        <v>9.371889839999703</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>49.14630112381754</v>
+        <v>42.82454412843093</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>4.880292127089547</v>
+        <v>11.1038804597072</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>13.5772945153793</v>
+        <v>18.02906669888756</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>21.22303547195084</v>
+        <v>23.02377935122233</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>1.119770644225696</v>
+        <v>8.251598782767438</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.80985150446163</v>
+        <v>24.07511954601692</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.59464052421639</v>
+        <v>25.69271528083818</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>6.737030584645005</v>
+        <v>12.51726656677892</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.24587293795529</v>
+        <v>34.34409172153016</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>40.39270032835472</v>
+        <v>37.26127436284531</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>39.57095812612189</v>
+        <v>36.77052257077369</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>41.47598899424563</v>
+        <v>38.18458083372404</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>51.31567807126483</v>
+        <v>45.13189455444353</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>4.163153913322912</v>
+        <v>11.00419379232261</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.76548838873017</v>
+        <v>25.6829484888927</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.43087621775687</v>
+        <v>30.13811829318478</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.54743588569763</v>
+        <v>14.93043429451225</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.73340090602254</v>
+        <v>28.53595489442714</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>32.51050954991156</v>
+        <v>30.78445618190914</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>1.101026154050924</v>
+        <v>8.248765354489098</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>27.00697840057713</v>
+        <v>26.96188191987581</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.27077325800693</v>
+        <v>32.67513971013098</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.447317932859381</v>
+        <v>11.36998188727548</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>46.83492831182937</v>
+        <v>41.40939880647073</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>3.009826459400227</v>
+        <v>9.936791005619014</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>9.796197525303011</v>
+        <v>14.97958098949247</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>20.15314668485557</v>
+        <v>21.9833878211071</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.373379190178234</v>
+        <v>8.20617650429363</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>17.12654076603988</v>
+        <v>19.70175075924794</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.89887706948962</v>
+        <v>27.01657633472393</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>1.269702977150956</v>
+        <v>8.547399349438557</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.54670488061921</v>
+        <v>29.08809744175045</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>38.5808061421459</v>
+        <v>36.07308952493459</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33.75136015044832</v>
+        <v>32.05882765683703</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>37.06512234539645</v>
+        <v>34.49431504586823</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>45.33186627893284</v>
+        <v>40.7462494542268</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>2.632540877699935</v>
+        <v>9.926109279015879</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.68026547590541</v>
+        <v>22.30417967465276</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.74213561106426</v>
+        <v>33.01580528340113</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>7.402970704580699</v>
+        <v>12.82674108975015</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.95647682739644</v>
+        <v>26.02584093074826</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.98671111827697</v>
+        <v>29.93376621055466</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>1.077209594623472</v>
+        <v>8.235631803521549</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>23.2270349607199</v>
+        <v>24.08328573482042</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.50973884515919</v>
+        <v>30.5750814098943</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>1.924016630241855</v>
+        <v>8.6291198352137</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>37.21559906782736</v>
+        <v>34.0649172517039</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.1485301791551</v>
+        <v>28.23436729335453</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.07019941668348</v>
+        <v>23.3186302095491</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>37.35531234231313</v>
+        <v>34.59264609400893</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>37.59211615479803</v>
+        <v>34.91536397264473</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.967905176530437</v>
+        <v>13.94079807330094</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.44051103441669</v>
+        <v>21.76958369083374</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.94058049471295</v>
+        <v>27.33124940056798</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.97622782517277</v>
+        <v>17.46417830997594</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.8778236358143</v>
+        <v>26.39432216746489</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.64468300774664</v>
+        <v>34.21803816105116</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-0.1205803735897462</v>
+        <v>8.110569641582266</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>7.863688703389865</v>
+        <v>13.06026496640649</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.3066457996569</v>
+        <v>18.47038455079819</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>2.345301934264072</v>
+        <v>8.915488406858614</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>23.79015150664985</v>
+        <v>24.52300400042033</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>44.46746101049065</v>
+        <v>39.51392369479912</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.2307651293587</v>
+        <v>26.5175683660828</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.47957246432951</v>
+        <v>40.88946143272134</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>50.81233369328136</v>
+        <v>44.70223828337038</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>7.393997874063448</v>
+        <v>12.85736893876662</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>22.0317964764598</v>
+        <v>23.28646484377799</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>35.42110834275567</v>
+        <v>33.19933986821384</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>54.3090149194191</v>
+        <v>47.04736412353594</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>50.63155653857628</v>
+        <v>44.46357348443368</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>57.18979511374199</v>
+        <v>49.44677608360263</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>56.68991699015839</v>
+        <v>49.13795464571614</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>18.97537143387948</v>
+        <v>20.66181314900934</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>53.63602890203248</v>
+        <v>46.91415632811682</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>56.62829802978365</v>
+        <v>48.80776945138017</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.5839269098565</v>
+        <v>24.48401551638059</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>36.79568374063246</v>
+        <v>33.92575777025962</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>44.42243900055401</v>
+        <v>40.05200775857038</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>2.303286982719051</v>
+        <v>8.974661818760193</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>43.30230990400763</v>
+        <v>39.15621759145424</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>46.09489768486917</v>
+        <v>41.22045557183094</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>5.986845074267883</v>
+        <v>11.63013660564516</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>64.49102776429535</v>
+        <v>55.21488667802532</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>68.00620051533934</v>
+        <v>57.58080054928301</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>72.78089249235947</v>
+        <v>61.67703287346362</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>77.84834842979936</v>
+        <v>64.80947561151069</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>80.58824385141804</v>
+        <v>67.62564788065013</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.94921405112898</v>
+        <v>28.31061682373333</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>74.12590963320719</v>
+        <v>62.24947915083159</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>76.0725033666246</v>
+        <v>63.62662755958277</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>57.4510654402284</v>
+        <v>49.7482546772583</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>46.59511667102841</v>
+        <v>41.24898826565021</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>51.37642468182884</v>
+        <v>44.80776455155726</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>57.20373248745731</v>
+        <v>49.35748039187801</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.52222389997254</v>
+        <v>15.48642891117812</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>49.52215526536681</v>
+        <v>43.54672617386548</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>55.3340197092499</v>
+        <v>48.01728993744036</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>14.16346037884991</v>
+        <v>17.66212490137329</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.55373651295914</v>
+        <v>32.66058698559245</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>43.39806950403676</v>
+        <v>39.39685515072778</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>1.492959513060203</v>
+        <v>8.42234307291578</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>39.47824215240547</v>
+        <v>36.08906755218277</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>44.44671157119915</v>
+        <v>40.22994903561707</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>7.4685714269153</v>
+        <v>13.16147102193391</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>63.5789191713182</v>
+        <v>54.10017240705761</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>71.66559883335951</v>
+        <v>60.72370811874771</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>72.17612111419643</v>
+        <v>60.6741841112095</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>77.8225973774581</v>
+        <v>65.17110083349478</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>84.28303723454852</v>
+        <v>70.14494744620248</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.49557750267992</v>
+        <v>17.17362753880499</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>72.31865774996048</v>
+        <v>60.59072241919482</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>77.80304820052007</v>
+        <v>64.98360772300339</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>50.44773040989247</v>
+        <v>44.52760879063749</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.52319689477467</v>
+        <v>28.67379955723179</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.77780820645848</v>
+        <v>32.81682584353418</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.85946461137716</v>
+        <v>37.94994129478004</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>8.586282057741769</v>
+        <v>13.52091448489075</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.87787721238277</v>
+        <v>35.46747328160331</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>48.97548333611873</v>
+        <v>43.03120515907936</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>10.519133789449</v>
+        <v>14.82746882033256</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.48501753574362</v>
+        <v>30.7129344281746</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>43.72688526163404</v>
+        <v>39.64210458055618</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1.45809670902679</v>
+        <v>8.438308706098564</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>35.97148619109476</v>
+        <v>33.51962187580967</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>43.80323238981899</v>
+        <v>39.81272536710687</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>2.404161352661024</v>
+        <v>9.133122830667062</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>57.39984959446527</v>
+        <v>49.0977532763748</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>69.66689380960656</v>
+        <v>58.97718024787338</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>62.57368908598058</v>
+        <v>52.94724259766768</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>73.80037063580158</v>
+        <v>61.39036633974102</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>82.85602936479896</v>
+        <v>69.42758036544136</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.188148874285211</v>
+        <v>13.81319505905161</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>67.90323509511661</v>
+        <v>56.59736189589396</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>76.78074497115264</v>
+        <v>64.14117458002909</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>15.24061478324864</v>
+        <v>18.88374060704991</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>15.62057971566926</v>
+        <v>19.26469779349361</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.20001673038543</v>
+        <v>26.96139150104639</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.510414326132828</v>
+        <v>11.15472037649397</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.46814727468035</v>
+        <v>22.14164817785398</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>22.36521520794175</v>
+        <v>24.7092182864706</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>9.401951255807866</v>
+        <v>14.0431726106091</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>32.68097534710157</v>
+        <v>33.10536956500576</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.05339227950088</v>
+        <v>34.30219283706425</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>15.36410029230298</v>
+        <v>19.33372585229648</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>18.16670900948325</v>
+        <v>21.71758269405986</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>18.3648471892224</v>
+        <v>22.02797356904116</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>16.55485133345211</v>
+        <v>20.00737513654801</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>14.18436080713257</v>
+        <v>18.44965732984398</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.57631782742203</v>
+        <v>31.6187333702149</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.16150490879587</v>
+        <v>16.43721009268138</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.0110269003337</v>
+        <v>22.84242875315934</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.32846124807407</v>
+        <v>30.06365082198267</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.851854817434944</v>
+        <v>14.18830873846921</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.01346725880225</v>
+        <v>17.49297053170395</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.0202959533419</v>
+        <v>19.11406979409624</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>5.247235787208588</v>
+        <v>10.89945158862214</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>14.82835935100331</v>
+        <v>19.29921064897285</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>20.27895112610882</v>
+        <v>22.74815955357427</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.53006284080199</v>
+        <v>26.01088309022922</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.18345128823297</v>
+        <v>27.57895859171649</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.760188090994063</v>
+        <v>11.40717083989412</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.25872020352149</v>
+        <v>30.24967813429866</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.52718835267924</v>
+        <v>30.47534294654269</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>9.259549611199148</v>
+        <v>14.04750377427935</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>37.8652219709323</v>
+        <v>37.13728681876569</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.79581731110302</v>
+        <v>37.15910840454534</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>40.38282086585839</v>
+        <v>39.2944756962234</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>44.9688462195502</v>
+        <v>42.90278884593533</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>46.20128567639495</v>
+        <v>44.05898438368321</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.19954139958161</v>
+        <v>31.5716828861349</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>41.99100372826577</v>
+        <v>40.74360176916608</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>43.87132531627149</v>
+        <v>42.25921549093889</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>17.36409630625478</v>
+        <v>20.42524784217395</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.96004974790898</v>
+        <v>25.98453768722112</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.15907732327225</v>
+        <v>29.90734922006391</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>9.488626583264345</v>
+        <v>14.48469553274267</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.46529170220055</v>
+        <v>26.36680616753861</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.30496177644862</v>
+        <v>32.57734592202103</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>35.0683385142644</v>
+        <v>34.96173024060069</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>11.34599550988992</v>
+        <v>15.83335724259782</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.65833854365095</v>
+        <v>24.92060747720193</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.80547804859488</v>
+        <v>29.06619111409948</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>4.756835986224228</v>
+        <v>10.68208449165209</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>31.12346359639677</v>
+        <v>31.66294975524514</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.99941348385341</v>
+        <v>33.93603386624462</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>10.85274022942603</v>
+        <v>15.42875821777507</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>45.05116779918716</v>
+        <v>42.49406607942721</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>46.99849207812801</v>
+        <v>44.23462950382435</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>46.56210820561559</v>
+        <v>44.12561102960329</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>47.99201821787656</v>
+        <v>45.38545931469951</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>52.09982155572845</v>
+        <v>48.39992849215013</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>12.48735866860015</v>
+        <v>16.45449316186524</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>35.22079871667545</v>
+        <v>34.92124721307052</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.68999070025562</v>
+        <v>41.05250000553951</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>13.15560594112761</v>
+        <v>17.37329902835207</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.06347200852719</v>
+        <v>27.48993136269565</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.32060514902605</v>
+        <v>29.9469205723058</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>9.163768693736952</v>
+        <v>14.20841183721078</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>24.14494079244057</v>
+        <v>26.01336728325843</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.66094150060972</v>
+        <v>34.24385106506727</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>8.099666537096073</v>
+        <v>13.48615822577995</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>36.40774155687196</v>
+        <v>36.136551753959</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>8.144772599262037</v>
+        <v>13.43904242822774</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>15.44283504536718</v>
+        <v>19.36448366983268</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.99789114108413</v>
+        <v>24.98260283190805</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>4.767016870365765</v>
+        <v>10.8798406694418</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>27.38444608535783</v>
+        <v>28.52066363304679</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.50544838034295</v>
+        <v>33.31612858587066</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>5.132349000750832</v>
+        <v>10.88266037626255</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.24765335227696</v>
+        <v>36.71104498091898</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>42.46987034580293</v>
+        <v>40.57334492085258</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.72039024467618</v>
+        <v>36.64248796248099</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>38.69973960572869</v>
+        <v>38.33220207777549</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>44.71557967488567</v>
+        <v>42.97180184060173</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>9.165510729053782</v>
+        <v>14.04955899919546</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.02744778605163</v>
+        <v>27.75434094118555</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>43.78573020489415</v>
+        <v>41.66493973464427</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>9.357119924195196</v>
+        <v>14.20728797523387</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>22.46746027394199</v>
+        <v>24.73843699491505</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.73002698600949</v>
+        <v>29.3325347241862</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>9.522387839610683</v>
+        <v>14.35417044657241</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.21689024196419</v>
+        <v>25.2389766168462</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>32.87405976679464</v>
+        <v>32.84977074216004</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>4.502039768698676</v>
+        <v>10.34928641146066</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>31.40990165070105</v>
+        <v>31.95745525939837</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>19.24799024719277</v>
+        <v>22.63201523933478</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>16.50512208881526</v>
+        <v>20.17013943715575</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.20418432244914</v>
+        <v>30.80151143825396</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.25586367830562</v>
+        <v>33.31185182410698</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>7.635740983396552</v>
+        <v>12.90559860677466</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.26765476302479</v>
+        <v>17.44609459467645</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>18.07471642492883</v>
+        <v>21.36006810066304</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>11.63212690658645</v>
+        <v>15.86130194336456</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>19.44216539988521</v>
+        <v>21.92619064683132</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.52206461824268</v>
+        <v>30.1441144098884</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>8.782262739172232</v>
+        <v>14.0710457939549</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>12.24267051040864</v>
+        <v>16.69861797048795</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>15.80411523669436</v>
+        <v>19.27279326062724</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>5.64481906942228</v>
+        <v>10.90582633475442</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>16.39816980353019</v>
+        <v>19.64781398866194</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.8871247322624</v>
+        <v>29.90329792953148</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>18.79630776727073</v>
+        <v>21.89457786648059</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>37.65581478381422</v>
+        <v>36.56913504903083</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.13091071364911</v>
+        <v>40.19706820276379</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>6.929953862008116</v>
+        <v>12.09101311877468</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>15.4275038771289</v>
+        <v>19.12381629294539</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>22.77218850298152</v>
+        <v>24.95671311166438</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.44019084801602</v>
+        <v>42.27866564323417</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>39.35528977402888</v>
+        <v>38.26937299401777</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.56877823639023</v>
+        <v>45.29919597157392</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>51.33288152885634</v>
+        <v>47.08653588844277</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>18.90604321308317</v>
+        <v>21.78960976666988</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.04081571479854</v>
+        <v>41.28494661676633</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>46.3509493537407</v>
+        <v>43.71339771543276</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>23.56200351484506</v>
+        <v>24.82206512554717</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>31.48976297706388</v>
+        <v>31.01498584628334</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.80031873337107</v>
+        <v>37.08299914425195</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>10.74410891729736</v>
+        <v>15.05684850465499</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>32.84518009728993</v>
+        <v>32.77734858159378</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>39.83987361237535</v>
+        <v>37.88347518038272</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>8.918682447756847</v>
+        <v>13.39146599563353</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>49.94582673423758</v>
+        <v>46.20939146357878</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>59.48738433050062</v>
+        <v>53.53956598701043</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.57666870092176</v>
+        <v>55.37948417592556</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>70.13038906165215</v>
+        <v>61.50473805523916</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>74.56297452151856</v>
+        <v>65.08712647672553</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.03114438985506</v>
+        <v>28.23901299891349</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>61.16131703395376</v>
+        <v>54.40525041932412</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>65.26279564274707</v>
+        <v>58.04496078168316</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>49.38184928202254</v>
+        <v>45.90790624216265</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>35.03322798996749</v>
+        <v>35.09199418101046</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>39.8372506794236</v>
+        <v>38.74990812143247</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.97515101446311</v>
+        <v>46.33619580802326</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>13.61647901331183</v>
+        <v>17.90686186704995</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>41.4176602041741</v>
+        <v>39.85631794275846</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>45.89477309214064</v>
+        <v>43.36601572748669</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.62993216411673</v>
+        <v>19.75735927247129</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>30.6618281028281</v>
+        <v>30.57664918274011</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.73648104928501</v>
+        <v>36.8988740021513</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>9.750849569676451</v>
+        <v>14.54962538103083</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>35.02763140711973</v>
+        <v>34.34930183679235</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>42.32333391155897</v>
+        <v>40.12003724986875</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>10.64588866122464</v>
+        <v>15.13769507754997</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>52.27374661224795</v>
+        <v>48.04120302668845</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>64.75267496756041</v>
+        <v>57.1942407622269</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>62.64629519919647</v>
+        <v>56.13008369490156</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>67.31746685652166</v>
+        <v>59.33075685564781</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>76.38665682254914</v>
+        <v>66.47735565795793</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>17.85526916371578</v>
+        <v>20.14889122817794</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>53.71576759840084</v>
+        <v>49.42253011169232</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>64.48547881700087</v>
+        <v>57.8553170765094</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>43.98658853845998</v>
+        <v>41.73916076616185</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>21.50120199515833</v>
+        <v>24.29372272974938</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.7751349905508</v>
+        <v>28.91510762593331</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.42086475487511</v>
+        <v>35.70399080680033</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>9.385101026709439</v>
+        <v>14.38644599020273</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>37.12154009689658</v>
+        <v>36.33231947396661</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.76900541161417</v>
+        <v>41.79188610310166</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>12.58373773323007</v>
+        <v>16.38167053389542</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.1259682599849</v>
+        <v>29.3593308341028</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.91245442622238</v>
+        <v>38.07054071532631</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>10.52564627012531</v>
+        <v>14.79937791742406</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.1201263838644</v>
+        <v>31.28051227035701</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>44.19569369151093</v>
+        <v>41.01526751128691</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>4.968871520087959</v>
+        <v>10.63946985501744</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>43.69060286507387</v>
+        <v>41.15561147064719</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>63.8906283773293</v>
+        <v>56.76044010439072</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>48.45285492629615</v>
+        <v>44.94983193105818</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.12024638712933</v>
+        <v>51.08735281231095</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>75.47743907965466</v>
+        <v>65.73263344395176</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>10.04547113822786</v>
+        <v>14.62361537999143</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>45.11301242307201</v>
+        <v>42.58618061297138</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>64.23499972562658</v>
+        <v>56.9602210803306</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>15.14265897655853</v>
+        <v>18.51278543788959</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>15.42627756561551</v>
+        <v>18.81681182963118</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.50931808318167</v>
+        <v>27.50989424640136</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>5.845632746542623</v>
+        <v>10.88638064040599</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>21.40432135993477</v>
+        <v>23.14958304534843</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>24.95323249045939</v>
+        <v>26.25398080036836</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>9.027112148441766</v>
+        <v>13.43364015392143</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>35.48668122658637</v>
+        <v>34.8237859633628</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.72772577989329</v>
+        <v>35.8387462196212</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.09932392850544</v>
+        <v>19.3305319152497</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>18.76924653753855</v>
+        <v>21.65738277842501</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>19.00317190000817</v>
+        <v>21.92378574302628</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>17.0047294657789</v>
+        <v>19.96798724103517</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>14.93459947023861</v>
+        <v>18.41592397117496</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.57842458720835</v>
+        <v>33.44235177844269</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>13.19737546826365</v>
+        <v>16.51621835047616</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.81609080972646</v>
+        <v>23.34119340161221</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.46420810380989</v>
+        <v>30.94174907638383</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>9.940922561700106</v>
+        <v>14.44897286953797</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>15.35165857070073</v>
+        <v>18.33646324956731</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>17.77594328392063</v>
+        <v>20.26402600032297</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>5.781989312990802</v>
+        <v>10.74689986182716</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>17.68397595685874</v>
+        <v>20.27135436100452</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>21.1342645286866</v>
+        <v>23.08952953861012</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.26088259732731</v>
+        <v>26.30393082000847</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.21685772134689</v>
+        <v>27.86658983615072</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>6.113589611872531</v>
+        <v>11.20771310958141</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.72234495970394</v>
+        <v>31.65320957527289</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.9209018412451</v>
+        <v>31.87107177058088</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>9.458717316175239</v>
+        <v>13.85422896379548</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.91492677808617</v>
+        <v>38.26613080147769</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>39.66179278400865</v>
+        <v>38.12608530027697</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>41.46883991826611</v>
+        <v>39.80184915123655</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.23731200600568</v>
+        <v>42.85208261040395</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>46.01070254054856</v>
+        <v>43.73529817471196</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>32.75163111290109</v>
+        <v>32.40899891295109</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>44.03866265775694</v>
+        <v>41.84938245050095</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>46.01704950347744</v>
+        <v>43.46682309043659</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>19.51961612962072</v>
+        <v>21.20568848213961</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.30296165342088</v>
+        <v>26.84338497820855</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.42753814835996</v>
+        <v>30.1425319090039</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>10.63348044750166</v>
+        <v>14.76809789940859</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>27.99204327487815</v>
+        <v>27.99148175459484</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.82915859079105</v>
+        <v>33.10184252765375</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>38.7776553913959</v>
+        <v>36.50338795907396</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.49175309156517</v>
+        <v>14.89901168874462</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>22.47226052943619</v>
+        <v>24.65093690909722</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.16632388131604</v>
+        <v>28.9380874216146</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>4.90578571098618</v>
+        <v>10.42199751138366</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.68941773029272</v>
+        <v>32.47874259225539</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.58182804682399</v>
+        <v>34.80100299717535</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>10.28709906285643</v>
+        <v>14.78632759581575</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>45.70681343600016</v>
+        <v>42.74719085962069</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>47.61632343191782</v>
+        <v>44.38931525847276</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.38679527315418</v>
+        <v>45.27033001315101</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>49.31897779572977</v>
+        <v>46.1352066141724</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>53.22640221365944</v>
+        <v>48.92855316895408</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.80157242785981</v>
+        <v>14.94769579076175</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.02717464069551</v>
+        <v>33.77995744895981</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>42.15882086871668</v>
+        <v>40.35131396628944</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.39024716399161</v>
+        <v>17.52568975262218</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.99480291522826</v>
+        <v>27.96343355158629</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.39432420282878</v>
+        <v>30.08588064567142</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>10.26064358833706</v>
+        <v>14.47065996588253</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.70839639938955</v>
+        <v>27.49143110105861</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.49927136019736</v>
+        <v>34.96542093060314</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>8.659582058645579</v>
+        <v>13.26274397989263</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>40.61295241936458</v>
+        <v>37.78425711722127</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>7.529955088249245</v>
+        <v>12.50312746012267</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>15.31681439614773</v>
+        <v>18.91980368010456</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>23.62038701973977</v>
+        <v>24.87033657964342</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>5.179742787290927</v>
+        <v>10.63402717896718</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.93935008554894</v>
+        <v>29.24897957618654</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.64317481412911</v>
+        <v>34.39929541310676</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>5.223862233113529</v>
+        <v>10.37708529297518</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.29118665770109</v>
+        <v>37.78806039677811</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>43.98007706537614</v>
+        <v>41.18911589565298</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.00540605137766</v>
+        <v>38.58876590644926</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>41.67671562703628</v>
+        <v>40.03203428139847</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.60428518328931</v>
+        <v>44.5485230112555</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>8.196137875304608</v>
+        <v>12.95335279411859</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.06014493978776</v>
+        <v>26.64239658381079</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>43.83621516853326</v>
+        <v>41.22774263936952</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>10.49373841826685</v>
+        <v>14.30486291512673</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>24.61388109047765</v>
+        <v>25.41243659438234</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.15908949215212</v>
+        <v>29.6498072742815</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>10.63203898548131</v>
+        <v>14.63430756079057</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>26.22995286905376</v>
+        <v>26.51911860015948</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.63911044467271</v>
+        <v>33.36635384647618</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>4.962295239156308</v>
+        <v>10.00687196278708</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.90729517173213</v>
+        <v>33.38830837148146</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.59339666093949</v>
+        <v>23.80368148434063</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.72669087598956</v>
+        <v>20.91791786881581</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>34.22180495500665</v>
+        <v>32.77694792823503</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>37.38841256542482</v>
+        <v>35.52110916312771</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>8.895292181306456</v>
+        <v>13.11441550863291</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.8538320047357</v>
+        <v>18.31886086795827</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.38542301796543</v>
+        <v>22.63813334502386</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>11.20671063769264</v>
+        <v>15.14782533012928</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>19.25774775567597</v>
+        <v>21.40040611384531</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.72064953101476</v>
+        <v>30.39412547115061</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>9.789124361564646</v>
+        <v>14.30871797812684</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>13.73831818460316</v>
+        <v>17.19800910348275</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>17.89740457151438</v>
+        <v>20.19986479928401</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>5.687425197012384</v>
+        <v>10.53021382087442</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>17.459583418027</v>
+        <v>19.92770317515532</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.63343870787346</v>
+        <v>31.10725357621</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>20.34883945473762</v>
+        <v>22.2848605856866</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.33802405146938</v>
+        <v>39.19840217704129</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>47.37017333447785</v>
+        <v>43.25137802392923</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>7.169374448530103</v>
+        <v>11.79763277797764</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.9506350474639</v>
+        <v>19.60723063946858</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.29954448427207</v>
+        <v>26.11689335477744</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>47.64892927050332</v>
+        <v>43.83088916098246</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>43.10191422581238</v>
+        <v>39.88066182412582</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>52.09099452657273</v>
+        <v>46.93313419300451</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>55.01016581195154</v>
+        <v>49.07226302769054</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.96209945251175</v>
+        <v>22.42400304468627</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>46.27213682341187</v>
+        <v>42.61418981839007</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>48.75841006838451</v>
+        <v>44.47534668194383</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.15709406046432</v>
+        <v>24.38789898717049</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.99749603105468</v>
+        <v>30.91979813952011</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>39.48020045248199</v>
+        <v>37.28737804124144</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>11.49802927008272</v>
+        <v>15.19017651471708</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.92157701703294</v>
+        <v>34.27478224414646</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>42.00453096558363</v>
+        <v>38.93699933515787</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>7.760838144919351</v>
+        <v>12.38986351495377</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>51.6489618841193</v>
+        <v>46.89843332727103</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>62.11719396614951</v>
+        <v>55.20313149655637</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>61.53257456527776</v>
+        <v>55.02074209894428</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>71.6645284142668</v>
+        <v>62.43932956469695</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>76.35801967383757</v>
+        <v>66.57326266322704</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.77539547215914</v>
+        <v>26.75604442877557</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>63.35753887662381</v>
+        <v>55.48956272354494</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>66.37031201924438</v>
+        <v>58.63704006683722</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>52.73058217411717</v>
+        <v>47.57786903224076</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>39.14048155386666</v>
+        <v>36.79980649629181</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>43.50770610391172</v>
+        <v>40.25780908318625</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>53.45239072914939</v>
+        <v>48.02517693164431</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>14.67336472622135</v>
+        <v>17.79661552582575</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>44.2000374883861</v>
+        <v>40.69160032023576</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>15.66278647796051</v>
+        <v>18.85290043654511</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.78088536045751</v>
+        <v>30.29646228987836</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>39.34988491539902</v>
+        <v>37.06971018153811</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>10.61058459407856</v>
+        <v>14.78962705602657</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.0848317102388</v>
+        <v>35.13971063937922</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.54427615138518</v>
+        <v>41.28317010870785</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>9.896741135413151</v>
+        <v>14.37501647226</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>53.51862004005953</v>
+        <v>48.30783589795987</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>67.25584234474323</v>
+        <v>58.87559383464713</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>63.66089861288589</v>
+        <v>56.47636016992054</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>69.28839969386968</v>
+        <v>60.33090888561714</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>78.28931790469345</v>
+        <v>67.84214905546347</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>15.59243571522606</v>
+        <v>18.53277622044301</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>54.99467734277904</v>
+        <v>49.59991355367018</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>65.15656238652126</v>
+        <v>57.87456652083421</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>46.57398347313986</v>
+        <v>42.77740142367281</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>24.58246011568892</v>
+        <v>25.3528268570239</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.12062552869413</v>
+        <v>30.02528395827531</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>39.20115265553758</v>
+        <v>36.60580618192569</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>10.50175420410393</v>
+        <v>14.42883881239303</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>39.71801993325776</v>
+        <v>37.17869235576806</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>45.8319042472754</v>
+        <v>42.25031924921085</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>12.17608240049445</v>
+        <v>15.72476337730157</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.21284472453792</v>
+        <v>29.00228584882759</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>41.99929487182413</v>
+        <v>38.61797328683854</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>11.51055337655776</v>
+        <v>15.06378505916207</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.73306143332417</v>
+        <v>31.81581614253635</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>46.63495348957189</v>
+        <v>42.27595096008712</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>4.847663297100162</v>
+        <v>10.21963689508771</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>45.09442351274758</v>
+        <v>41.63309257123711</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>66.4069717275376</v>
+        <v>58.42876456409068</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>50.72611845595491</v>
+        <v>46.0027539243406</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>59.78720872246166</v>
+        <v>53.03968438017719</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>79.09171640593442</v>
+        <v>67.98096451802724</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>9.967731453370824</v>
+        <v>14.32488517025937</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>48.74902760585267</v>
+        <v>44.3413392264697</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>66.54264842796707</v>
+        <v>58.15710659527963</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>17.92704480331961</v>
+        <v>23.68416657775071</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>18.12787676689042</v>
+        <v>24.08851023341608</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>24.60415644540422</v>
+        <v>27.1207471471328</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>13.05814011510692</v>
+        <v>21.09688206872961</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>22.14057868870189</v>
+        <v>25.61671692160674</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>23.58679120703782</v>
+        <v>26.33115253007986</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>14.95799954056624</v>
+        <v>22.15832304506572</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>30.11739221228363</v>
+        <v>29.64620402694458</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.79362217200678</v>
+        <v>30.10736086981936</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>19.13923142084358</v>
+        <v>24.62038838660393</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>20.84172471824984</v>
+        <v>25.56233847995833</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>20.9426653447944</v>
+        <v>25.50104907802168</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>21.9715873475123</v>
+        <v>25.3881135566299</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>19.8081178156865</v>
+        <v>24.71192591306318</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>32.07896343496107</v>
+        <v>30.50803765467537</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.80049555653624</v>
+        <v>23.58554245243742</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.80984805426099</v>
+        <v>27.42899852582386</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.84559019764036</v>
+        <v>29.00076536929086</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>13.03259118357833</v>
+        <v>21.29655940367496</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>18.55165833001163</v>
+        <v>23.65920642748933</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>21.45506631840036</v>
+        <v>25.1512756293312</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>13.46835260137756</v>
+        <v>21.45560168080831</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>26.17688699654619</v>
+        <v>27.59156181724384</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>20.55315357019351</v>
+        <v>24.82885030161708</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>22.78946584491516</v>
+        <v>26.30653523970998</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>25.1508816980835</v>
+        <v>27.29230739009658</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>12.99318694998614</v>
+        <v>21.28313425570273</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>27.48158837298217</v>
+        <v>28.44165250932849</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>27.9930038700983</v>
+        <v>28.6369153058026</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>15.4262886399706</v>
+        <v>22.40348146204514</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>34.05080816013174</v>
+        <v>31.85323238751063</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>33.8125714351676</v>
+        <v>31.76311434387129</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>32.21153500300009</v>
+        <v>31.33254420155703</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.5405315473928</v>
+        <v>32.90007157641831</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>35.30942167611076</v>
+        <v>32.99195420600962</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>27.44493493420052</v>
+        <v>28.06925336669615</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>35.12171832425867</v>
+        <v>32.58685570818854</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>36.71870731170571</v>
+        <v>33.26044843026047</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>23.3160726378327</v>
+        <v>26.00091074671435</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.5552288204639</v>
+        <v>29.24917884717868</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.27288571895032</v>
+        <v>29.68481603695258</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>13.57030830066126</v>
+        <v>21.34638645323962</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>30.10604852593</v>
+        <v>29.44070375919906</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>30.57828970350061</v>
+        <v>30.00824599736303</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>13.89568539106814</v>
+        <v>21.53760445016471</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>39.74764033804818</v>
+        <v>34.2112065657701</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>14.5384284663255</v>
+        <v>22.12195070247255</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>19.77971418228117</v>
+        <v>25.05984885835933</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>24.64708516622506</v>
+        <v>27.21186656809086</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>12.41405539070688</v>
+        <v>20.97609284796826</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.41210894465508</v>
+        <v>28.00275339536542</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>27.62523310466555</v>
+        <v>28.66368836676763</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>15.29296173704024</v>
+        <v>22.44111241861748</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>33.82716582685827</v>
+        <v>31.94747250352481</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>35.46000578829034</v>
+        <v>32.80627102122208</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>35.90486300731654</v>
+        <v>33.067173130768</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>36.69887475798397</v>
+        <v>33.52720638090369</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>41.40283189915977</v>
+        <v>35.7332115472521</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>14.33707154960505</v>
+        <v>22.09725699225339</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.38295794568597</v>
+        <v>28.06004163986941</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.00464127285943</v>
+        <v>30.65556238184717</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>19.04529915622522</v>
+        <v>24.02718128078725</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.48258817951179</v>
+        <v>28.68460705238282</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.66786112211333</v>
+        <v>29.41706644507835</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>13.33262100633274</v>
+        <v>21.26636737018059</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.0639438107076</v>
+        <v>28.43959162288469</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.96237087955989</v>
+        <v>30.2208729115036</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>15.19043113185095</v>
+        <v>22.27360774227088</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>38.69471763366749</v>
+        <v>33.81031211241829</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>13.11452867083147</v>
+        <v>21.44175001207093</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>16.78384067350854</v>
+        <v>23.42808195767578</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>23.07163202734196</v>
+        <v>26.29401311537597</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>12.27839704725181</v>
+        <v>20.97021271836961</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>24.30303377725151</v>
+        <v>26.67342421082008</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.66805766567278</v>
+        <v>28.95212054558134</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>12.47793146785325</v>
+        <v>21.01669390257208</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>30.39906217125342</v>
+        <v>30.06843106110379</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>34.47126643857933</v>
+        <v>32.23507770184866</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>32.79187953905366</v>
+        <v>31.23225472276246</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.24799021297571</v>
+        <v>32.05644010247047</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>38.58683565485808</v>
+        <v>34.20995338511607</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>12.8741519144728</v>
+        <v>21.42627529477901</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>21.41605712668433</v>
+        <v>25.97327691228662</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>33.2990699220872</v>
+        <v>31.57941702169119</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>16.68481974114879</v>
+        <v>22.9505998156531</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>26.76702948488471</v>
+        <v>27.9013099637092</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.15993876654853</v>
+        <v>29.18642531859672</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>13.41925359734249</v>
+        <v>21.27153894075215</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>26.40228575749241</v>
+        <v>27.53621955300685</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.6822144466858</v>
+        <v>29.50040108603451</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>13.01617314402213</v>
+        <v>21.07592264162402</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>34.06000609573656</v>
+        <v>31.38169703808422</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>28.52931792455852</v>
+        <v>28.64176563345166</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>24.03226857546606</v>
+        <v>26.57621181331242</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>33.79041951588892</v>
+        <v>31.29906550942122</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>34.60942407249646</v>
+        <v>31.76327179613519</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>17.495066740381</v>
+        <v>23.24502454109839</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>23.81693757768045</v>
+        <v>26.27173000282214</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>28.11036876015923</v>
+        <v>28.40091198122861</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>19.53796923411939</v>
+        <v>24.2757873020066</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>25.54297036627454</v>
+        <v>27.38781244954192</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>32.47655760536809</v>
+        <v>30.74434354228354</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>12.84411340515517</v>
+        <v>21.21793810439393</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>17.35023763170544</v>
+        <v>23.12793168342691</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>21.70843727019732</v>
+        <v>25.20039496567354</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>13.49450917120917</v>
+        <v>21.27507306315148</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>25.46555166178674</v>
+        <v>27.11417601718046</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>37.00299076200541</v>
+        <v>32.77218804964586</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>26.32820147879689</v>
+        <v>27.67415037106723</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>39.35477122091342</v>
+        <v>34.0522803544452</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>42.24473189502066</v>
+        <v>35.50395236322434</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>16.28464128263571</v>
+        <v>22.73636676918607</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>24.56695230566327</v>
+        <v>26.67755853500256</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>31.77948556577204</v>
+        <v>30.30074129038048</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>42.14657687700943</v>
+        <v>35.61223834555265</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>40.57362196336196</v>
+        <v>34.81437776926217</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>44.50200101791398</v>
+        <v>36.83734350451757</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>45.17938535049676</v>
+        <v>37.10570730048794</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>24.89568246523888</v>
+        <v>26.6779220465881</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>42.22647094724447</v>
+        <v>35.77939372556133</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>42.48954573799785</v>
+        <v>35.90912653142112</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>25.46517026511323</v>
+        <v>27.21601845602616</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>14.04648112466065</v>
+        <v>21.52822197640092</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>36.75023913151611</v>
+        <v>32.76172162814031</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>38.40041951809975</v>
+        <v>33.64422812296671</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>15.14250863879234</v>
+        <v>22.15830412829164</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>47.830724641088</v>
+        <v>38.5632818972902</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>51.50774090458437</v>
+        <v>40.24081062684829</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>51.00899926688287</v>
+        <v>40.49642897802226</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>56.45397116379033</v>
+        <v>42.71830617162214</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>58.46293734661865</v>
+        <v>44.02350951062682</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>29.11679150085079</v>
+        <v>28.91731566355998</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>53.87980647908586</v>
+        <v>41.43757701422552</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>54.40421780297164</v>
+        <v>41.9148600872537</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>44.50760170921706</v>
+        <v>36.96238755529626</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>38.36689142043172</v>
+        <v>33.67434327328611</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>40.94208869789218</v>
+        <v>35.03309471285435</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>44.54700318215056</v>
+        <v>36.90118726244046</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>19.7833435082991</v>
+        <v>24.30586449873852</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>39.8059619293827</v>
+        <v>34.50387894756933</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>42.02448491325521</v>
+        <v>35.76084586422101</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>20.01305277740087</v>
+        <v>24.57231326250331</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>30.63394831715474</v>
+        <v>29.93196136148798</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>36.27545710410787</v>
+        <v>32.77880417986661</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>13.52432860667412</v>
+        <v>21.32980694451455</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>34.79748533558664</v>
+        <v>31.77277447772477</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>37.84243766417703</v>
+        <v>33.50080257994382</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>16.08353973958553</v>
+        <v>22.81353870627899</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>47.48782128400737</v>
+        <v>38.29847146493981</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>53.79795127607753</v>
+        <v>41.5498249109518</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>52.15327521521282</v>
+        <v>40.82477528375432</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>56.29773247061042</v>
+        <v>42.77721625749317</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>60.11134203850319</v>
+        <v>44.80067201105181</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>20.2505098894657</v>
+        <v>24.56717392350507</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>51.46104305225566</v>
+        <v>40.33722825287126</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>54.99548274345371</v>
+        <v>42.32344593470167</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>40.1170364397911</v>
+        <v>34.78791600854929</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>28.81883299553103</v>
+        <v>28.8175387509773</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>32.45220869971295</v>
+        <v>30.48826950565549</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>35.53972370219119</v>
+        <v>32.38180862349138</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>17.53361538940498</v>
+        <v>23.24607347403033</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>35.58152321113248</v>
+        <v>32.15909908979912</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>39.12032669264491</v>
+        <v>34.2266339804528</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>18.28920339849856</v>
+        <v>23.58107460020914</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>29.9323335002865</v>
+        <v>29.33239607373242</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>37.36854552361147</v>
+        <v>33.19127277745463</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>13.79333703853267</v>
+        <v>21.36360388209295</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>33.1215543379648</v>
+        <v>30.86045381594469</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>38.38456968828576</v>
+        <v>33.63009682252101</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>13.24631662891384</v>
+        <v>21.28504982087487</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>44.74844155953255</v>
+        <v>36.59368059468236</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>53.06895895607961</v>
+        <v>41.03978828025254</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>47.87650655423194</v>
+        <v>38.12446939845594</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>54.43105261396639</v>
+        <v>41.45273274783214</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>60.31794634243251</v>
+        <v>44.82264988577843</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>17.57180670444753</v>
+        <v>23.20976614380139</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>49.88892082766883</v>
+        <v>39.06016426450391</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>55.90795578542446</v>
+        <v>42.44788797175134</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.434</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.735</v>
+        <v>15.499</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.44</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.306</v>
+        <v>18.541</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.967</v>
+        <v>2.122</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.67701955147855</v>
+        <v>16.04516826720745</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.65528660193822</v>
+        <v>16.40696440967147</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.29177943019885</v>
+        <v>30.54923737358668</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.759283937841946</v>
+        <v>2.476365687479962</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.57610307641403</v>
+        <v>23.58285592622365</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.72269130168215</v>
+        <v>28.59911688140924</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.36741651155073</v>
+        <v>6.741463211544023</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>43.23548850036831</v>
+        <v>41.23840027246499</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>44.55296669837109</v>
+        <v>45.11597523262479</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>19.73994712885015</v>
+        <v>17.43095369359372</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>22.42015127745437</v>
+        <v>20.3553447193456</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22.33718088910147</v>
+        <v>20.11974918798292</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18.58419410217682</v>
+        <v>13.94821746310938</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.75992233490766</v>
+        <v>15.84322706484641</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>45.75408605202543</v>
+        <v>38.95112957742242</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.84084448521648</v>
+        <v>13.87776244613401</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.44007871061542</v>
+        <v>24.9223305028438</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.49634274371954</v>
+        <v>33.64751991008735</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.503345838938976</v>
+        <v>2.787817460274589</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.78635509290906</v>
+        <v>11.0471568631567</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.18284506919687</v>
+        <v>14.60065514451612</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.113577073781165</v>
+        <v>2.8674534870513</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>20.41548797436444</v>
+        <v>17.18721423211677</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>24.73023186318044</v>
+        <v>22.4870433239533</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.92691169141511</v>
+        <v>27.34342054634996</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.83137447373946</v>
+        <v>29.67219281946971</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.30777141942994</v>
+        <v>1.688260028710058</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.67714759581113</v>
+        <v>33.47638264672013</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.69285389618794</v>
+        <v>32.97267079027175</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>11.96863641355424</v>
+        <v>7.612336581034384</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>44.92264764024786</v>
+        <v>47.20371729451806</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>45.4519228612849</v>
+        <v>47.38902299652533</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>45.1071783020115</v>
+        <v>47.91042229738422</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>48.59590443470444</v>
+        <v>51.07066866910391</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>50.58666935200642</v>
+        <v>50.98093736769694</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.97661629410185</v>
+        <v>26.98261875234253</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>50.11102795285745</v>
+        <v>45.41280482481122</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53.44127057403022</v>
+        <v>56.84539282633636</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>22.61570167268218</v>
+        <v>20.89266925083461</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.29097814066943</v>
+        <v>32.5766647189167</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33.56361310190508</v>
+        <v>34.77028024965215</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.781962858462066</v>
+        <v>3.953577387679125</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.03037666514924</v>
+        <v>29.14224746360043</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.45119880577025</v>
+        <v>34.4814771140991</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>8.037323782245508</v>
+        <v>3.525041263638052</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>42.74870121781353</v>
+        <v>45.70361536601931</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>11.27128172946387</v>
+        <v>8.465503903929715</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.67921962056615</v>
+        <v>22.32680694292543</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30.39381931062942</v>
+        <v>28.95592673961261</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6.381879194519442</v>
+        <v>0.6228537703095114</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.33491653638172</v>
+        <v>33.97949559824602</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>37.92927898391808</v>
+        <v>37.43370956895875</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>12.88277804294005</v>
+        <v>8.698389412426842</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>49.74968095855197</v>
+        <v>50.3700991091246</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>52.64257275718126</v>
+        <v>54.11676021620466</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>55.70166138458101</v>
+        <v>59.09214842935431</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>56.2568548968547</v>
+        <v>59.58504197148164</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>60.18764490064912</v>
+        <v>62.43110937609262</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>11.79093537798879</v>
+        <v>9.419788815338723</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.4929050732957</v>
+        <v>33.85495188423963</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>47.15902809375605</v>
+        <v>47.95365384099058</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>15.41026228513935</v>
+        <v>11.70302295193717</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.60634034328415</v>
+        <v>30.62806417080261</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>32.75418797355131</v>
+        <v>33.65564812110162</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8.37444641243502</v>
+        <v>2.489387974540517</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.37462867169044</v>
+        <v>25.42203418525995</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>36.81274054602198</v>
+        <v>38.23792655248172</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>10.07240225670526</v>
+        <v>4.840420689364056</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>43.42820419199011</v>
+        <v>44.51210982991942</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>9.441770357379959</v>
+        <v>5.139084820015999</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>18.1915453249892</v>
+        <v>14.2249606832843</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.29682492993859</v>
+        <v>24.35213188883012</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.520181099298984</v>
+        <v>1.254276987189805</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.58407255189592</v>
+        <v>31.02412289542302</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.63281410874469</v>
+        <v>37.89349805262785</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6.88305783386183</v>
+        <v>2.253691923390065</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.48332514504509</v>
+        <v>45.7554417279032</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>49.35253998010474</v>
+        <v>51.79066241931632</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>47.3205415689806</v>
+        <v>47.65470351743664</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>49.25508366140075</v>
+        <v>49.70110881307778</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>55.44028508209666</v>
+        <v>55.39822200807161</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>9.945545649841435</v>
+        <v>6.331449441661391</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.3299992449788</v>
+        <v>22.99841188579615</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.70710349856422</v>
+        <v>49.5422584370081</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11.41016565574904</v>
+        <v>7.419485516774643</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.05669010229732</v>
+        <v>26.53538606531602</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>33.31822686542189</v>
+        <v>34.49360027422152</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>8.466369669794886</v>
+        <v>3.850778755724853</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26.35169098248056</v>
+        <v>24.67365162127323</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36.41605295647576</v>
+        <v>37.97919413949545</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6.499813311010804</v>
+        <v>1.893404272747343</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.63096930001852</v>
+        <v>38.51261408410002</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.59937925054876</v>
+        <v>22.54481657511543</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>20.67061693552006</v>
+        <v>18.55813185256936</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.46045588380407</v>
+        <v>32.37867896727399</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.24460118666245</v>
+        <v>36.0642282603484</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.57789201455123</v>
+        <v>5.788341600068328</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>17.08709667322148</v>
+        <v>13.77344493329311</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.71178775081796</v>
+        <v>20.52234483600598</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.55545250421661</v>
+        <v>10.25826737101183</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.3341220290421</v>
+        <v>20.35306654181235</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.76668872707027</v>
+        <v>32.42969956275206</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>8.232069819874496</v>
+        <v>2.692586706535771</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>12.94380318295969</v>
+        <v>8.541337452291689</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>17.98142472746543</v>
+        <v>13.62185086561638</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>7.203207992457472</v>
+        <v>2.977453202121222</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>20.56378051396823</v>
+        <v>17.6684731312844</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.98678786760167</v>
+        <v>37.51096882753013</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>22.78531641030786</v>
+        <v>20.41787414187217</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>40.28250571200354</v>
+        <v>41.36293819607384</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>45.81701503400203</v>
+        <v>48.12021963410803</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.030785711982954</v>
+        <v>4.293405081602728</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>19.98157651173863</v>
+        <v>16.83024507231528</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.90268891203997</v>
+        <v>28.75027984063511</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>50.37182303998168</v>
+        <v>54.77932940497535</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>48.86910929244269</v>
+        <v>53.09606761958528</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>54.0113513746549</v>
+        <v>60.00409196737475</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>54.42029631077597</v>
+        <v>60.62348750946764</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>24.11693937607336</v>
+        <v>22.16346916395243</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.94220361928778</v>
+        <v>55.30884327228566</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>53.87578610652586</v>
+        <v>58.73361492001474</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>27.33809995640326</v>
+        <v>25.89549242531941</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>34.8747901809831</v>
+        <v>36.97312040827536</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>40.40825564249933</v>
+        <v>42.76385694204323</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>9.485890663614086</v>
+        <v>5.355161258264918</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.99143848624716</v>
+        <v>40.09695094517885</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>41.20505102029686</v>
+        <v>43.53856266867439</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>10.27857229953705</v>
+        <v>6.873057333264317</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>55.96927457188879</v>
+        <v>61.7932645758205</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>60.5967213932289</v>
+        <v>66.23838126565015</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>68.08473327580354</v>
+        <v>76.98309224837439</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>71.89629779725976</v>
+        <v>80.77503333063719</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>74.22095933960416</v>
+        <v>83.08347210489748</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30.74364472054848</v>
+        <v>31.58319819833305</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>64.51412811112118</v>
+        <v>72.92244472061779</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>68.63559733130499</v>
+        <v>76.69981713761302</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>53.04422877587862</v>
+        <v>57.90838435033669</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>42.07807019665201</v>
+        <v>44.16824700431233</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>47.05576201038948</v>
+        <v>50.0410094653602</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>53.729523292789</v>
+        <v>59.48977551444614</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>14.1854584567361</v>
+        <v>9.211495303667053</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>47.6547885964788</v>
+        <v>50.40855370972363</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>52.49910139812299</v>
+        <v>57.06764046178769</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>16.94279145612143</v>
+        <v>13.63920675227331</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>33.69972069565617</v>
+        <v>34.43893765304646</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>39.46300976029022</v>
+        <v>41.77672070876888</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>8.613573965639588</v>
+        <v>2.93226907716106</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.02835631047808</v>
+        <v>38.41550195180128</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>43.86972792592027</v>
+        <v>46.71736628326067</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>11.56061003065048</v>
+        <v>6.980090422219728</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>57.28106658086219</v>
+        <v>61.19228433118971</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>64.21523473898499</v>
+        <v>71.71118730441819</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>68.69433794469612</v>
+        <v>76.00009508262528</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>69.93815677720092</v>
+        <v>78.2329808047959</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>76.58839169616027</v>
+        <v>86.38972914072035</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>15.6132372367016</v>
+        <v>12.33673666535946</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>60.63156929434354</v>
+        <v>66.31881230338976</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>70.38782142555321</v>
+        <v>79.33923308129516</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>51.10665918176801</v>
+        <v>56.20223919438531</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.92436720117841</v>
+        <v>26.14391119334211</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.0042559046524</v>
+        <v>33.60179885583423</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>41.10869516727325</v>
+        <v>44.24543897595489</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>10.77408232448728</v>
+        <v>6.179258177469176</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>44.08545674402659</v>
+        <v>46.65663919221396</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>51.86337868878951</v>
+        <v>56.65926749783452</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>12.99219701439749</v>
+        <v>9.257861265489122</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.43521867807041</v>
+        <v>32.84386334591344</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>41.20874334715917</v>
+        <v>44.70087796128364</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>8.745546800428901</v>
+        <v>4.359784687080577</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.13015089066085</v>
+        <v>34.37392201356768</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>44.46148861092865</v>
+        <v>48.48998753441075</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>6.541787419849314</v>
+        <v>1.436610602556645</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>48.92230467885386</v>
+        <v>51.73040590011471</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>64.62107600508504</v>
+        <v>71.3916976076231</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>54.00614422423796</v>
+        <v>57.66999986419917</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>61.47908774664111</v>
+        <v>66.80258098977117</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>76.44894800055145</v>
+        <v>86.8930028030522</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>10.40597115114682</v>
+        <v>6.031287433062374</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>52.32006864372313</v>
+        <v>55.27827052965553</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>67.7503194086095</v>
+        <v>76.50172412097915</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>18.31244271922497</v>
+        <v>13.95861222060001</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>20.79033490846874</v>
+        <v>17.10596582290685</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.71689423478962</v>
+        <v>28.80119415309301</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9.942123419869677</v>
+        <v>1.527965818719778</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.54977998533832</v>
+        <v>20.70379090555416</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>23.19784804330205</v>
+        <v>23.66359601542498</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>13.43100678038129</v>
+        <v>6.567194306239315</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.6197241523404</v>
+        <v>40.93382149816657</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>36.16233306370223</v>
+        <v>43.26245235934901</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.92285725689905</v>
+        <v>20.3748363957519</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>26.60096541801199</v>
+        <v>25.638926623097</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>26.57016695120313</v>
+        <v>25.66646905487078</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.68846295276447</v>
+        <v>19.32327504322132</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21.15310912993172</v>
+        <v>18.64642904938675</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.4686561006805</v>
+        <v>41.17390130136459</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>15.98141044605332</v>
+        <v>9.134549878441437</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.24770333698141</v>
+        <v>24.74285388710458</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.46245795940072</v>
+        <v>28.89389303885911</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>9.457879904769179</v>
+        <v>-1.195927805952987</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>15.2718847447477</v>
+        <v>9.64743798944102</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>18.50042770545929</v>
+        <v>13.37403896611481</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>10.28417776442204</v>
+        <v>0.8682662877989173</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.31898822115654</v>
+        <v>25.37322956475147</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>20.0690354789053</v>
+        <v>17.14337694807037</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.2328291202353</v>
+        <v>23.86108947078306</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.77021968002263</v>
+        <v>28.8401680421751</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>10.54112409339164</v>
+        <v>1.779573673872136</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.66952834462531</v>
+        <v>31.40928979175757</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.04120731514373</v>
+        <v>32.41728168809507</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>13.88426754023442</v>
+        <v>7.043059882205029</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>39.66804855838693</v>
+        <v>47.34332864308642</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>40.5700672794415</v>
+        <v>48.59141957542866</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.30744538282175</v>
+        <v>46.73530962290884</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.62983122393643</v>
+        <v>52.53871995642074</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>44.45997928777582</v>
+        <v>52.17560659057656</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.15534975674963</v>
+        <v>23.90379247575856</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>42.8690417225483</v>
+        <v>48.99271298096858</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>44.46220277242973</v>
+        <v>54.02689925653328</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>20.47524199606374</v>
+        <v>18.47067040449574</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.53197820723299</v>
+        <v>30.75967680686166</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.54364065159166</v>
+        <v>34.21843795440104</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>9.581619238309031</v>
+        <v>0.3402544392488451</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.42996635354804</v>
+        <v>30.96564618860552</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.10270211381682</v>
+        <v>32.57740448538851</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.50365505378576</v>
+        <v>2.465761170030699</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>41.52025053742328</v>
+        <v>49.38694799879052</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>13.03253176713653</v>
+        <v>5.458130629292384</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.57280499693648</v>
+        <v>17.29181230902953</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.1716341638073</v>
+        <v>26.03219413205285</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>9.563389885149537</v>
+        <v>0.1618105816842395</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.5524951292559</v>
+        <v>29.48800419363258</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.34358559498229</v>
+        <v>32.28268048049777</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>13.5107622457362</v>
+        <v>6.092645942837848</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>38.92129413681046</v>
+        <v>45.083066637516</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>42.85907209269013</v>
+        <v>51.39187493423975</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>43.38064934584176</v>
+        <v>51.53547271457477</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>44.73714986531855</v>
+        <v>53.61870227526721</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>49.56233660747407</v>
+        <v>61.07705901852513</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.0362322087065</v>
+        <v>6.214742559748434</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>30.98185605631825</v>
+        <v>32.19217232067275</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>36.04953417285259</v>
+        <v>40.69021285514012</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14.48993671799469</v>
+        <v>8.125404291303859</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.9613299161672</v>
+        <v>28.72933663396901</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>30.41271598085096</v>
+        <v>32.1888026370419</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>9.404897646511909</v>
+        <v>-0.4465448234699423</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.77935294097665</v>
+        <v>25.28836873031797</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.5677793694425</v>
+        <v>34.47813249980322</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>11.94923738504769</v>
+        <v>3.439649321361408</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>38.34015326826184</v>
+        <v>44.40694260808775</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>11.872765282273</v>
+        <v>3.190464447399886</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.53912234901752</v>
+        <v>13.08276705221259</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.20767984188645</v>
+        <v>24.84788567353051</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>9.545569635663441</v>
+        <v>0.2383055572206985</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.83777024359895</v>
+        <v>27.77756833925986</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>31.33594412016206</v>
+        <v>34.81982312636351</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>10.05259831722496</v>
+        <v>1.266283697757927</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>36.05807188224163</v>
+        <v>42.55241070526701</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>41.66040831088148</v>
+        <v>50.39222082269076</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>40.2871375395919</v>
+        <v>49.44426107261751</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>42.63505608026567</v>
+        <v>52.64915375080827</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>46.85565354111475</v>
+        <v>58.10822085182608</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>12.03239921130846</v>
+        <v>3.325111551395469</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>27.35924395482489</v>
+        <v>26.81071392444015</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>38.18224676318693</v>
+        <v>45.69492139974724</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>12.79106956661022</v>
+        <v>5.302785990459924</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.98060402234086</v>
+        <v>24.3233213842179</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.75922223999725</v>
+        <v>30.9846396490313</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.395795478169958</v>
+        <v>-0.2985137380901861</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.02513066490307</v>
+        <v>21.86459207954769</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.30443613435284</v>
+        <v>31.15660499080048</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>9.798310106632936</v>
+        <v>1.033817480846736</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.9433440057562</v>
+        <v>35.87038818748477</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.24309365458353</v>
+        <v>26.55551250283203</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.13632655764152</v>
+        <v>20.73516697308218</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.45821983309248</v>
+        <v>36.87916167181259</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.08241363382601</v>
+        <v>37.44162550253208</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>14.54171044129021</v>
+        <v>8.067207448867091</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>20.73025591074371</v>
+        <v>18.29697500431849</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.7855594098288</v>
+        <v>25.96023051184882</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>17.06848774790848</v>
+        <v>11.92702940655107</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.63382343527659</v>
+        <v>24.59026918502732</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.68216161347997</v>
+        <v>35.33087858059969</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>9.372672203927426</v>
+        <v>-1.062326574124214</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>14.3536115262294</v>
+        <v>8.200438167629709</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>20.12013287841187</v>
+        <v>16.90987791177436</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>10.2667205148316</v>
+        <v>1.764771821234461</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.87260256059757</v>
+        <v>24.95856938259527</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>39.41381516935485</v>
+        <v>47.65776739342481</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.71197859488868</v>
+        <v>25.09692601685299</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>39.02958260828591</v>
+        <v>44.6642660420694</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>43.63824356710676</v>
+        <v>52.06312130641219</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>13.55133670880495</v>
+        <v>6.734932614252426</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.68092404816453</v>
+        <v>22.94285358513024</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>33.78471611123316</v>
+        <v>37.89914583502495</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>46.0513979667916</v>
+        <v>55.48619602095422</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.80539471934625</v>
+        <v>51.02558932990357</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>48.6080265159394</v>
+        <v>58.96519722626123</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>47.14921770670382</v>
+        <v>56.29271441266857</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.24572207046686</v>
+        <v>20.16374938253961</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>45.25655167153563</v>
+        <v>54.63570346569514</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>47.64484513640311</v>
+        <v>57.63103201385476</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.84247058226927</v>
+        <v>24.00740597126038</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.22441134017548</v>
+        <v>36.27727909566462</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>38.45922643403459</v>
+        <v>43.20045827204956</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.21699259693534</v>
+        <v>1.249366700037953</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>37.51015727610142</v>
+        <v>42.35086844188842</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.78801802054302</v>
+        <v>44.04532342119953</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>12.91631459454644</v>
+        <v>5.837447915259506</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>52.42678841410388</v>
+        <v>64.1712278602883</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>54.8602087843768</v>
+        <v>67.74024391922552</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>59.07405180142083</v>
+        <v>73.57144121919268</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>61.79470725407509</v>
+        <v>77.43647302380306</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>64.77200288339615</v>
+        <v>81.40039613883002</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.36840197730134</v>
+        <v>29.70535364843946</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>58.92475391647725</v>
+        <v>73.62600495705517</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>60.45323790123045</v>
+        <v>75.88983684175058</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>47.37525613005376</v>
+        <v>56.57616665978744</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>39.16957887825003</v>
+        <v>45.65155111943042</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>42.28642989552647</v>
+        <v>49.73595571713633</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>48.06676879083979</v>
+        <v>57.96182640230074</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.46991671705728</v>
+        <v>8.232578749261428</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>41.15334358968122</v>
+        <v>47.97102497462607</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>45.99000875201158</v>
+        <v>54.6488332482927</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>16.88773445039255</v>
+        <v>11.36685043033322</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.65304486847761</v>
+        <v>33.28510553600521</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>37.37866932972192</v>
+        <v>41.62046366648502</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>9.571736857921376</v>
+        <v>-0.5784075526129548</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.6177982383945</v>
+        <v>36.67707726022357</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>39.25318679727382</v>
+        <v>44.38774688927076</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.92251869792349</v>
+        <v>5.733924840731856</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>49.28215317419991</v>
+        <v>59.53259926583381</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>57.35012067822936</v>
+        <v>71.28718996629428</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>56.15222548745405</v>
+        <v>69.82101172229972</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>60.83869516714348</v>
+        <v>75.55855712969753</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>67.50634043628339</v>
+        <v>85.20917365592918</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.1368977506058</v>
+        <v>11.73295187363671</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>56.15671682569742</v>
+        <v>69.89744611983163</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>61.36636521917312</v>
+        <v>76.84695121008548</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43.29524374889369</v>
+        <v>50.83757431412013</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.39027958155144</v>
+        <v>26.39835120623367</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.74104258548854</v>
+        <v>32.97421375548285</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.71809950788637</v>
+        <v>39.39062269602599</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>13.0619513185446</v>
+        <v>5.818531745792868</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.14740936735048</v>
+        <v>41.74687480079427</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>42.5231854980453</v>
+        <v>49.98495690955228</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>14.58632986723785</v>
+        <v>8.075479748585387</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.79335694053163</v>
+        <v>31.35181777369775</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>38.23884892311263</v>
+        <v>43.31170873434554</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.565977018438339</v>
+        <v>0.09634179690065636</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>31.52949543974746</v>
+        <v>34.2820673038986</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.78162833952047</v>
+        <v>44.14633704031979</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10.36511754622652</v>
+        <v>1.167171962437358</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>45.03461747799838</v>
+        <v>54.8375459837544</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>56.4444558348351</v>
+        <v>70.70328988291259</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>47.88769146336369</v>
+        <v>59.25506207708277</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>56.81360266275307</v>
+        <v>71.78331702038764</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>65.97715829798652</v>
+        <v>83.37292476331288</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>13.8158029809022</v>
+        <v>7.512368959847102</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>51.69069822122874</v>
+        <v>65.68595474518082</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>61.30695383210195</v>
+        <v>77.40106303614782</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>14.56505207934768</v>
+        <v>8.450320702658566</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.66602308308725</v>
+        <v>10.65473068429835</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.62943796161299</v>
+        <v>20.31171583718524</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>8.49865225706154</v>
+        <v>0.512858041758502</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>16.93439582000535</v>
+        <v>12.19715486190761</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>17.76520901306909</v>
+        <v>13.42597421551664</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>11.34924063664391</v>
+        <v>4.423356058576235</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.59339041036631</v>
+        <v>26.30455278211093</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.26474598179495</v>
+        <v>28.76486673705001</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>18.26481448435961</v>
+        <v>12.89845402132786</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.18939613685426</v>
+        <v>16.90968789209843</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.02019762529939</v>
+        <v>17.18436049413932</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.21628311302621</v>
+        <v>13.99730982845361</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>16.96771221537735</v>
+        <v>12.15051829746263</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.90201997120052</v>
+        <v>27.89966281766874</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>15.56715493329171</v>
+        <v>9.259881946202775</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.158577884372</v>
+        <v>25.12678179341784</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.37142705135919</v>
+        <v>29.03889098890665</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.301132834019779</v>
+        <v>-1.56007797344013</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>14.19551788008408</v>
+        <v>8.845450413851861</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>18.52296359638703</v>
+        <v>14.40619080755455</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>9.309659289310897</v>
+        <v>1.106054731933128</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.90225072056876</v>
+        <v>26.68175877374736</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>16.41527042214283</v>
+        <v>11.62775332176474</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>21.38261865850907</v>
+        <v>17.48697753143946</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>23.15492537542462</v>
+        <v>21.39099434521081</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>8.91673331988018</v>
+        <v>0.2183621188183444</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.20100715053916</v>
+        <v>23.8547531536885</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.85111737451815</v>
+        <v>25.34823564399913</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>11.16845812377504</v>
+        <v>3.664466502062552</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>33.77680071264798</v>
+        <v>36.36097480928774</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>34.24148790278527</v>
+        <v>37.03563897752754</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>34.06424748963562</v>
+        <v>35.74239373821317</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>38.13500432678266</v>
+        <v>43.00539379470426</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>38.91701829397161</v>
+        <v>43.08930063904013</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>20.379403522375</v>
+        <v>16.89749482465938</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>35.63962085620279</v>
+        <v>37.77610995408725</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>37.21162106760399</v>
+        <v>40.99239181188322</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>19.92346809915177</v>
+        <v>17.74250505274939</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.82099037743679</v>
+        <v>31.46540616723654</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>31.65275264864946</v>
+        <v>34.49465651093455</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>8.390148529981531</v>
+        <v>-0.3954828831348891</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.90146538286186</v>
+        <v>31.90200865207991</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>32.22066351386115</v>
+        <v>34.848221262718</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>9.371889839999703</v>
+        <v>1.776778514614403</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>42.82454412843093</v>
+        <v>51.46710402049557</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.1038804597072</v>
+        <v>3.40405004457946</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>18.02906669888756</v>
+        <v>12.34977559556214</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>23.02377935122233</v>
+        <v>20.92296261440407</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>8.251598782767438</v>
+        <v>-0.6388932096991233</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>24.07511954601692</v>
+        <v>22.31225458991758</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.69271528083818</v>
+        <v>24.43390600158248</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>12.51726656677892</v>
+        <v>5.458180465267763</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.34409172153016</v>
+        <v>36.87795202525145</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>37.26127436284531</v>
+        <v>41.25967728803042</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>36.77052257077369</v>
+        <v>40.04200489063661</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>38.18458083372404</v>
+        <v>42.32074578012327</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>45.13189455444353</v>
+        <v>53.11999202233073</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>11.00419379232261</v>
+        <v>3.702348484211171</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.6829484888927</v>
+        <v>23.59850224548275</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.13811829318478</v>
+        <v>30.4331128967798</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>14.93043429451225</v>
+        <v>10.00522137103169</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.53595489442714</v>
+        <v>30.65882918580873</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>30.78445618190914</v>
+        <v>33.62711769508159</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>8.248765354489098</v>
+        <v>-0.4913333179312289</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.96188191987581</v>
+        <v>27.88794903717449</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.67513971013098</v>
+        <v>35.09129408921147</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>11.36998188727548</v>
+        <v>4.397213195424492</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>41.40939880647073</v>
+        <v>49.46475895800071</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>9.936791005619014</v>
+        <v>0.9579690550223354</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>14.97958098949247</v>
+        <v>8.167270864023823</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>21.9833878211071</v>
+        <v>19.96923117383023</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>8.20617650429363</v>
+        <v>-0.9822447641120249</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>19.70175075924794</v>
+        <v>17.79099639088852</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>27.01657633472393</v>
+        <v>27.00090440541164</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>8.547399349438557</v>
+        <v>-0.1525085876791081</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.08809744175045</v>
+        <v>30.20252019427508</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.07308952493459</v>
+        <v>39.65156320544029</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>32.05882765683703</v>
+        <v>34.54349014917734</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>34.49431504586823</v>
+        <v>38.07965980042746</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>40.7462494542268</v>
+        <v>47.0759792458331</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>9.926109279015879</v>
+        <v>0.9978754928433382</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>22.30417967465276</v>
+        <v>19.21968614675487</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.01580528340113</v>
+        <v>36.09596375761001</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>12.82674108975015</v>
+        <v>6.685628269959636</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.02584093074826</v>
+        <v>26.76006757170408</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.93376621055466</v>
+        <v>32.03700438268861</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>8.235631803521549</v>
+        <v>-0.6864623291658276</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.08328573482042</v>
+        <v>23.95321776106584</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.5750814098943</v>
+        <v>32.2439602140449</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>8.6291198352137</v>
+        <v>0.6610011929104012</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>34.0649172517039</v>
+        <v>39.45839932663659</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.23436729335453</v>
+        <v>30.49917033908251</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.3186302095491</v>
+        <v>22.18884910145151</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.59264609400893</v>
+        <v>38.91906476188241</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.91536397264473</v>
+        <v>39.07223444203402</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>13.94079807330094</v>
+        <v>8.538658281688679</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.76958369083374</v>
+        <v>21.10423433299213</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.33124940056798</v>
+        <v>29.30036983224564</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>17.46417830997594</v>
+        <v>13.49477212170781</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.39432216746489</v>
+        <v>26.28334005284842</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>34.21803816105116</v>
+        <v>37.90690304337009</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>8.110569641582266</v>
+        <v>-1.641696001231875</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>13.06026496640649</v>
+        <v>7.022636926572755</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.47038455079819</v>
+        <v>14.92385528508568</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>8.915488406858614</v>
+        <v>1.202668053864723</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.52300400042033</v>
+        <v>24.35652746903538</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.51392369479912</v>
+        <v>46.67125999944778</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.5175683660828</v>
+        <v>26.98680227510989</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>40.88946143272134</v>
+        <v>47.39071051783774</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>44.70223828337038</v>
+        <v>53.07859933206538</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>12.85736893876662</v>
+        <v>6.678381996141528</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>23.28646484377799</v>
+        <v>22.33110439460227</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>33.19933986821384</v>
+        <v>36.76360745014149</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>47.04736412353594</v>
+        <v>56.52702394979632</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.46357348443368</v>
+        <v>53.06477535134698</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>49.44677608360263</v>
+        <v>59.61554482003943</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>49.13795464571614</v>
+        <v>58.82178235063813</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>20.66181314900934</v>
+        <v>19.29127646692394</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>46.91415632811682</v>
+        <v>56.43404463671508</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>48.80776945138017</v>
+        <v>59.34446785291735</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>24.48401551638059</v>
+        <v>23.71660973155141</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>33.92575777025962</v>
+        <v>37.41521901400202</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>40.05200775857038</v>
+        <v>45.63754149530353</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.974661818760193</v>
+        <v>0.4695340134542967</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>39.15621759145424</v>
+        <v>44.83247627053449</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>41.22045557183094</v>
+        <v>47.7990024443649</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>11.63013660564516</v>
+        <v>4.693516715464135</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>55.21488667802532</v>
+        <v>67.77781205397237</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>57.58080054928301</v>
+        <v>70.67784797274669</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>61.67703287346362</v>
+        <v>76.71430055123714</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>64.80947561151069</v>
+        <v>80.83904209203369</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>67.62564788065013</v>
+        <v>83.80922609440539</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.31061682373333</v>
+        <v>29.65408998167249</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>62.24947915083159</v>
+        <v>77.50283285321221</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>63.62662755958277</v>
+        <v>79.37868432681509</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>49.7482546772583</v>
+        <v>59.84030360537535</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>41.24898826565021</v>
+        <v>49.13915309970436</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>44.80776455155726</v>
+        <v>53.92605648004002</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>49.35748039187801</v>
+        <v>60.09104417637448</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>15.48642891117812</v>
+        <v>11.28663634308195</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>43.54672617386548</v>
+        <v>51.88093485559692</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>48.01728993744036</v>
+        <v>57.93224736609973</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>17.66212490137329</v>
+        <v>13.52712834217565</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.66058698559245</v>
+        <v>35.43426550912729</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>39.39685515072778</v>
+        <v>44.66118515140604</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>8.42234307291578</v>
+        <v>-0.9129207981909673</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>36.08906755218277</v>
+        <v>41.02694981711994</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>40.22994903561707</v>
+        <v>45.74679507665828</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>13.16147102193391</v>
+        <v>5.850574956497226</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>54.10017240705761</v>
+        <v>66.93065135579107</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>60.72370811874771</v>
+        <v>75.09337480147667</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>60.6741841112095</v>
+        <v>76.10607551725434</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>65.17110083349478</v>
+        <v>81.56458171856298</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>70.14494744620248</v>
+        <v>87.72881396768673</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>17.17362753880499</v>
+        <v>12.75783912456853</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>60.59072241919482</v>
+        <v>76.28712948751907</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>64.98360772300339</v>
+        <v>81.61503891725619</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>44.52760879063749</v>
+        <v>53.06486928452676</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.67379955723179</v>
+        <v>30.84664531274118</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.81682584353418</v>
+        <v>37.49742962693712</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.94994129478004</v>
+        <v>43.63653962012575</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>13.52091448489075</v>
+        <v>7.884242563214642</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.46747328160331</v>
+        <v>43.97872459682898</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>43.03120515907936</v>
+        <v>51.27410222202791</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>14.82746882033256</v>
+        <v>9.294255357087863</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.7129344281746</v>
+        <v>33.37477229429468</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>39.64210458055618</v>
+        <v>45.56553933673941</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>8.438308706098564</v>
+        <v>-0.4955588881561113</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>33.51962187580967</v>
+        <v>37.53064093975895</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>39.81272536710687</v>
+        <v>45.28050059997616</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>9.133122830667062</v>
+        <v>0.7429115100979438</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>49.0977532763748</v>
+        <v>60.72669657069086</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>58.97718024787338</v>
+        <v>73.27948850382613</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>52.94724259766768</v>
+        <v>66.24057754533106</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>61.39036633974102</v>
+        <v>78.02682661305855</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>69.42758036544136</v>
+        <v>86.87252693733814</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>13.81319505905161</v>
+        <v>8.429253151424177</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>56.59736189589396</v>
+        <v>72.39111764001585</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>64.14117458002909</v>
+        <v>80.47888980744612</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>18.88374060704991</v>
+        <v>13.81719788477118</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>19.26469779349361</v>
+        <v>14.68754474676887</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.96139150104639</v>
+        <v>24.12436465110582</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>11.15472037649397</v>
+        <v>4.193868643572252</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>22.14164817785398</v>
+        <v>18.07945398486184</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>24.7092182864706</v>
+        <v>21.23891047823396</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>14.0431726106091</v>
+        <v>7.911330784245401</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>33.10536956500576</v>
+        <v>30.14903098035178</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.30219283706425</v>
+        <v>32.11787130682354</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.33372585229648</v>
+        <v>14.62481775087299</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>21.71758269405986</v>
+        <v>17.21698753821718</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>22.02797356904116</v>
+        <v>17.60191333221836</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>20.00737513654801</v>
+        <v>13.55338708966032</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>18.44965732984398</v>
+        <v>12.42840816279518</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>31.6187333702149</v>
+        <v>26.54678369562345</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>16.43721009268138</v>
+        <v>10.67928298270516</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.84242875315934</v>
+        <v>18.87373790322386</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.06365082198267</v>
+        <v>28.8280431463126</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>14.18830873846921</v>
+        <v>7.777326208237703</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>17.49297053170395</v>
+        <v>11.88481487854728</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.11406979409624</v>
+        <v>15.34115676067996</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>10.89945158862214</v>
+        <v>4.019398613245588</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>19.29921064897285</v>
+        <v>12.88800329237131</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.74815955357427</v>
+        <v>18.83306658246313</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.01088309022922</v>
+        <v>23.67569004050835</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.57895859171649</v>
+        <v>25.03138034433729</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>11.40717083989412</v>
+        <v>3.398181189053577</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>30.24967813429866</v>
+        <v>28.6643117101485</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.47534294654269</v>
+        <v>29.13630508846738</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>14.04750377427935</v>
+        <v>7.563716179739156</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>37.13728681876569</v>
+        <v>38.47214099927267</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.15910840454534</v>
+        <v>37.94869319703106</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>39.2944756962234</v>
+        <v>40.49075616435792</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>42.90278884593533</v>
+        <v>44.33190173239972</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>44.05898438368321</v>
+        <v>44.18035290901732</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.5716828861349</v>
+        <v>24.28511249887365</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>40.74360176916608</v>
+        <v>38.8987482625043</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.25921549093889</v>
+        <v>45.23431257726646</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>20.42524784217395</v>
+        <v>16.06722823816925</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.98453768722112</v>
+        <v>23.74136858129588</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.90734922006391</v>
+        <v>28.1136775154245</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>14.48469553274267</v>
+        <v>7.806663232748626</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.36680616753861</v>
+        <v>23.71918545742868</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.57734592202103</v>
+        <v>30.3332390790913</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>34.96173024060069</v>
+        <v>34.38274792756411</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>15.83335724259782</v>
+        <v>10.41109386866854</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.92060747720193</v>
+        <v>21.88155056857995</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.06619111409948</v>
+        <v>27.33437255823543</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>10.68208449165209</v>
+        <v>2.828240178279181</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>31.66294975524514</v>
+        <v>29.99711064528687</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.93603386624462</v>
+        <v>33.47230554378442</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>15.42875821777507</v>
+        <v>9.693323188367213</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>42.49406607942721</v>
+        <v>43.44414720264803</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.23462950382435</v>
+        <v>45.97392845663174</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>44.12561102960329</v>
+        <v>47.26904772465248</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>45.38545931469951</v>
+        <v>48.43817644533517</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>48.39992849215013</v>
+        <v>51.65205518725146</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>16.45449316186524</v>
+        <v>13.34837221889402</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.92124721307052</v>
+        <v>33.61771759692411</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>41.05250000553951</v>
+        <v>42.75593181846546</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>17.37329902835207</v>
+        <v>11.79154366508679</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>27.48993136269565</v>
+        <v>24.98014455203907</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.9469205723058</v>
+        <v>28.48865637351691</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>14.20841183721078</v>
+        <v>7.527144701366577</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.01336728325843</v>
+        <v>22.74383263673182</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.24385106506727</v>
+        <v>34.17193386504755</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>13.48615822577995</v>
+        <v>6.501893584834356</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>36.136551753959</v>
+        <v>35.68073215199554</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>13.43904242822774</v>
+        <v>6.477651911153597</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>19.36448366983268</v>
+        <v>13.92847185839604</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.98260283190805</v>
+        <v>21.7648835876187</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>10.8798406694418</v>
+        <v>2.836964515884684</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.52066363304679</v>
+        <v>26.83948084164562</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.31612858587066</v>
+        <v>32.96364965293505</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>10.88266037626255</v>
+        <v>3.328214861907956</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>36.71104498091898</v>
+        <v>36.8351179120434</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>40.57334492085258</v>
+        <v>42.25619834249482</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.64248796248099</v>
+        <v>34.27803808687425</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>38.33220207777549</v>
+        <v>36.50816680241502</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>42.97180184060173</v>
+        <v>42.37120899946284</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>14.04955899919546</v>
+        <v>8.393903415804889</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.75434094118555</v>
+        <v>22.58196720427125</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>41.66493973464427</v>
+        <v>42.78430383238052</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>14.20728797523387</v>
+        <v>7.589648044305601</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>24.73843699491505</v>
+        <v>21.45454754950469</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.3325347241862</v>
+        <v>27.77787173154274</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>14.35417044657241</v>
+        <v>8.083611375178876</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.2389766168462</v>
+        <v>21.93732939499397</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>32.84977074216004</v>
+        <v>32.32980009292865</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>10.34928641146066</v>
+        <v>2.681339334012037</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>31.95745525939837</v>
+        <v>30.41204144675747</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.63201523933478</v>
+        <v>17.84074828362287</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>20.17013943715575</v>
+        <v>14.98330903573334</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.80151143825396</v>
+        <v>29.38473444179473</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.31185182410698</v>
+        <v>32.99203041656341</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>12.90559860677466</v>
+        <v>5.776534145566618</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>17.44609459467645</v>
+        <v>11.30221118868181</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>21.36006810066304</v>
+        <v>16.41152840106661</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>15.86130194336456</v>
+        <v>10.52251221101775</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>21.92619064683132</v>
+        <v>18.33835549200055</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.1441144098884</v>
+        <v>29.03126290530018</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>14.0710457939549</v>
+        <v>7.764258743949572</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>16.69861797048795</v>
+        <v>10.82404762327686</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>19.27279326062724</v>
+        <v>13.56861789192551</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>10.90582633475442</v>
+        <v>4.220891378756249</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>19.64781398866194</v>
+        <v>15.1136411575491</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.90329792953148</v>
+        <v>33.22889899104464</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>21.89457786648059</v>
+        <v>17.37723328457338</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.56913504903083</v>
+        <v>37.42024522209525</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>40.19706820276379</v>
+        <v>42.39487742567594</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>12.09101311877468</v>
+        <v>5.131737095718144</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>19.12381629294539</v>
+        <v>13.42424440238889</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>24.95671311166438</v>
+        <v>23.32276455103533</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>42.27866564323417</v>
+        <v>44.34413103949413</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38.26937299401777</v>
+        <v>38.69427320019322</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>45.29919597157392</v>
+        <v>48.54129506251562</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.08653588844277</v>
+        <v>51.85262885457838</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>21.78960976666988</v>
+        <v>17.69805976043338</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>41.28494661676633</v>
+        <v>42.75229934347705</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>43.71339771543276</v>
+        <v>45.90116104025796</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.82206512554717</v>
+        <v>22.89485792353339</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>31.01498584628334</v>
+        <v>30.43629859052382</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>37.08299914425195</v>
+        <v>38.90912418218181</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>15.05684850465499</v>
+        <v>9.234397776941567</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>32.77734858159378</v>
+        <v>34.8272878535616</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37.88347518038272</v>
+        <v>39.72058512675055</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>13.39146599563353</v>
+        <v>7.297373005113748</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>46.20939146357878</v>
+        <v>50.96817132534456</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>53.53956598701043</v>
+        <v>60.73877361197772</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>55.37948417592556</v>
+        <v>64.7570856913409</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>61.50473805523916</v>
+        <v>72.01083932770618</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>65.08712647672553</v>
+        <v>77.15481656803338</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.23901299891349</v>
+        <v>28.88825234842149</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>54.40525041932412</v>
+        <v>61.68228882377234</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>58.04496078168316</v>
+        <v>66.36209758760275</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>45.90790624216265</v>
+        <v>49.09835381386583</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>35.09199418101046</v>
+        <v>34.3002182488738</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.74990812143247</v>
+        <v>39.17401675718018</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>46.33619580802326</v>
+        <v>50.17615046347746</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>17.90686186704995</v>
+        <v>12.05819990931272</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>39.85631794275846</v>
+        <v>40.79706094694362</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>43.36601572748669</v>
+        <v>45.51994993151369</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>19.75735927247129</v>
+        <v>16.05945283019135</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>30.57664918274011</v>
+        <v>30.18780216518694</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.8988740021513</v>
+        <v>39.05490522072098</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>14.54962538103083</v>
+        <v>8.218885132817235</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>34.34930183679235</v>
+        <v>34.62942879521223</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>40.12003724986875</v>
+        <v>42.57408746999922</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>15.13769507754997</v>
+        <v>9.418140411416314</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>48.04120302668845</v>
+        <v>52.4138867209416</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>57.1942407622269</v>
+        <v>66.87041469667774</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>56.13008369490156</v>
+        <v>64.78578171413155</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>59.33075685564781</v>
+        <v>69.11580392629322</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>66.47735565795793</v>
+        <v>79.10653504115128</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>20.14889122817794</v>
+        <v>17.48332861030169</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>49.42253011169232</v>
+        <v>55.70545259182635</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>57.8553170765094</v>
+        <v>67.8117671075718</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>41.73916076616185</v>
+        <v>43.84422982666668</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.29372272974938</v>
+        <v>20.14695032548834</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.91510762593331</v>
+        <v>26.1282689378545</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.70399080680033</v>
+        <v>35.67733762332212</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>14.38644599020273</v>
+        <v>7.642103125607573</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.33231947396661</v>
+        <v>36.98676723876506</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>41.79188610310166</v>
+        <v>43.79490594488941</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>16.38167053389542</v>
+        <v>11.61240432621304</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.3593308341028</v>
+        <v>28.94659383350324</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.07054071532631</v>
+        <v>41.27279703568244</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>14.79937791742406</v>
+        <v>9.158294051407442</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.28051227035701</v>
+        <v>30.82938460458185</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>41.01526751128691</v>
+        <v>44.76418403507083</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>10.63946985501744</v>
+        <v>3.087183533414798</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>41.15561147064719</v>
+        <v>43.80628656072929</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>56.76044010439072</v>
+        <v>65.35730405861071</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>44.94983193105818</v>
+        <v>48.31000292098926</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>51.08735281231095</v>
+        <v>57.62737782444539</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>65.73263344395176</v>
+        <v>77.73175618944626</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>14.62361537999143</v>
+        <v>9.021413786776115</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>42.58618061297138</v>
+        <v>44.18978559423045</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>56.9602210803306</v>
+        <v>65.98614682573636</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>18.51278543788959</v>
+        <v>13.79920845558218</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>18.81681182963118</v>
+        <v>14.67449425553785</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>27.50989424640136</v>
+        <v>25.97069829855186</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>10.88638064040599</v>
+        <v>4.656403990948505</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.14958304534843</v>
+        <v>20.58914679723677</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.25398080036836</v>
+        <v>24.35920602187078</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>13.43364015392143</v>
+        <v>7.504985515569395</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>34.8237859633628</v>
+        <v>33.08520711118165</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.8387462196212</v>
+        <v>35.40950756929963</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>19.3305319152497</v>
+        <v>15.81032317685655</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>21.65738277842501</v>
+        <v>18.23965760137055</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>21.92378574302628</v>
+        <v>18.78373340343875</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>19.96798724103517</v>
+        <v>14.07886397747765</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>18.41592397117496</v>
+        <v>13.40077074215913</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.44235177844269</v>
+        <v>29.67711151369247</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>16.51621835047616</v>
+        <v>12.32384974817863</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>23.34119340161221</v>
+        <v>21.65248156639034</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.94174907638383</v>
+        <v>32.06392703304562</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>14.44897286953797</v>
+        <v>8.833277201402439</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>18.33646324956731</v>
+        <v>14.90054123037602</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.26402600032297</v>
+        <v>18.33101974459932</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>10.74689986182716</v>
+        <v>4.602399436177478</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.27135436100452</v>
+        <v>17.22621507139112</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>23.08952953861012</v>
+        <v>19.77650188703048</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>26.30393082000847</v>
+        <v>24.65291887528833</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.86658983615072</v>
+        <v>26.48951735224191</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>11.20771310958141</v>
+        <v>4.003084635511922</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.65320957527289</v>
+        <v>31.48719911235379</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.87107177058088</v>
+        <v>31.89065135505724</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>13.85422896379548</v>
+        <v>7.827929891835112</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>38.26613080147769</v>
+        <v>41.02519217739494</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>38.12608530027697</v>
+        <v>40.33410252278009</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>39.80184915123655</v>
+        <v>42.45229086950619</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>42.85208261040395</v>
+        <v>45.57139856995926</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.73529817471196</v>
+        <v>44.95469386111874</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>32.40899891295109</v>
+        <v>25.12692275083471</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>41.84938245050095</v>
+        <v>40.39526628018553</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>43.46682309043659</v>
+        <v>47.19728114289499</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>21.20568848213961</v>
+        <v>19.24489632320483</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.84338497820855</v>
+        <v>27.44813432215956</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.1425319090039</v>
+        <v>30.66159858018835</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>14.76809789940859</v>
+        <v>9.289953356394335</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>27.99148175459484</v>
+        <v>28.67835330453905</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.10184252765375</v>
+        <v>33.43431474606334</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.50338795907396</v>
+        <v>40.26915712299474</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>14.89901168874462</v>
+        <v>9.585449041373046</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.65093690909722</v>
+        <v>21.80622080976111</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.9380874216146</v>
+        <v>28.2296263222056</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>10.42199751138366</v>
+        <v>3.000588290642099</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.47874259225539</v>
+        <v>32.04212578998398</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>34.80100299717535</v>
+        <v>35.53056325635596</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>14.78632759581575</v>
+        <v>9.097162831089072</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>42.74719085962069</v>
+        <v>44.84221736866749</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>44.38931525847276</v>
+        <v>47.34959746705904</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>45.27033001315101</v>
+        <v>49.33001434505002</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>46.1352066141724</v>
+        <v>50.17457523627161</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>48.92855316895408</v>
+        <v>53.54055755322659</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>14.94769579076175</v>
+        <v>11.85028436680658</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.77995744895981</v>
+        <v>32.92495201098777</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>40.35131396628944</v>
+        <v>42.95412281002132</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>17.52568975262218</v>
+        <v>13.75590492799802</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.96343355158629</v>
+        <v>28.37353502877659</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.08588064567142</v>
+        <v>30.81766052136976</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>14.47065996588253</v>
+        <v>8.918205102609878</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.49143110105861</v>
+        <v>27.81451835712138</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.96542093060314</v>
+        <v>37.26460690108142</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>13.26274397989263</v>
+        <v>7.335141631109547</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>37.78425711722127</v>
+        <v>42.26656246523731</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>12.50312746012267</v>
+        <v>5.793086193463527</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>18.91980368010456</v>
+        <v>13.88750053443065</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>24.87033657964342</v>
+        <v>23.00025175657768</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>10.63402717896718</v>
+        <v>3.417053928713649</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.24897957618654</v>
+        <v>29.04839494496233</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>34.39929541310676</v>
+        <v>35.84138770868649</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>10.37708529297518</v>
+        <v>3.528915016290995</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>37.78806039677811</v>
+        <v>39.65384920305711</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>41.18911589565298</v>
+        <v>44.61524826164435</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.58876590644926</v>
+        <v>38.1478296476181</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>40.03203428139847</v>
+        <v>40.23991795112708</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>44.5485230112555</v>
+        <v>45.98858527473915</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>12.95335279411859</v>
+        <v>7.661328758101078</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>26.64239658381079</v>
+        <v>22.43380028236835</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>41.22774263936952</v>
+        <v>44.07775214016631</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>14.30486291512673</v>
+        <v>9.406795572311019</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.41243659438234</v>
+        <v>25.00102539351965</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.6498072742815</v>
+        <v>30.61005087152271</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>14.63430756079057</v>
+        <v>9.485272081642456</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>26.51911860015948</v>
+        <v>26.2239357504549</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>33.36635384647618</v>
+        <v>35.34914367340365</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>10.00687196278708</v>
+        <v>3.384624500860486</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>33.38830837148146</v>
+        <v>36.05554887214939</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.80368148434063</v>
+        <v>22.83342570341429</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.91791786881581</v>
+        <v>18.43771791259213</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>32.77694792823503</v>
+        <v>35.19814984079402</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>35.52110916312771</v>
+        <v>38.62964415977353</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>13.11441550863291</v>
+        <v>7.692851060342065</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>18.31886086795827</v>
+        <v>15.1949765563791</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>22.63813334502386</v>
+        <v>21.34317217966752</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>15.14782533012928</v>
+        <v>10.17026783249998</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>21.40040611384531</v>
+        <v>18.28735005447618</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.39412547115061</v>
+        <v>31.19848825942926</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>14.30871797812684</v>
+        <v>8.95779380062999</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>17.19800910348275</v>
+        <v>12.75385789947716</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.19986479928401</v>
+        <v>16.10819489559621</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>10.53021382087442</v>
+        <v>4.384923875471021</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>19.92770317515532</v>
+        <v>16.63107438918276</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.10725357621</v>
+        <v>37.85021514310862</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>22.2848605856866</v>
+        <v>19.83870887651199</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>39.19840217704129</v>
+        <v>43.82144310341025</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>43.25137802392923</v>
+        <v>49.29508502675169</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>11.79763277797764</v>
+        <v>5.876398360518046</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>19.60723063946858</v>
+        <v>15.49950161448424</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.11689335477744</v>
+        <v>26.40426465542892</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>43.83088916098246</v>
+        <v>49.37481811104691</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.88066182412582</v>
+        <v>44.67508112778442</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>46.93313419300451</v>
+        <v>54.07945047546124</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>49.07226302769054</v>
+        <v>57.40763991340235</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>22.42400304468627</v>
+        <v>20.93907539214475</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>42.61418981839007</v>
+        <v>47.98976291126307</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>44.47534668194383</v>
+        <v>50.31509358408807</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>24.38789898717049</v>
+        <v>22.43534391233676</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>30.91979813952011</v>
+        <v>31.52166513004548</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.28737804124144</v>
+        <v>40.37455681493866</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>15.19017651471708</v>
+        <v>10.13905959365252</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.27478224414646</v>
+        <v>38.70190303534241</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.93699933515787</v>
+        <v>43.07335750068926</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>12.38986351495377</v>
+        <v>5.735646807019048</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>46.89843332727103</v>
+        <v>54.03513236558319</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>55.20313149655637</v>
+        <v>64.76039691598073</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>55.02074209894428</v>
+        <v>66.49029769366149</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>62.43932956469695</v>
+        <v>74.91346569576284</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>66.57326266322704</v>
+        <v>80.06813618853961</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.75604442877557</v>
+        <v>26.60100606789406</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>55.48956272354494</v>
+        <v>65.32359229260787</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>58.63704006683722</v>
+        <v>68.92774077739843</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>47.57786903224076</v>
+        <v>54.29111200993454</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>36.79980649629181</v>
+        <v>40.80039908706395</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>40.25780908318625</v>
+        <v>45.18889364664848</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>48.02517693164431</v>
+        <v>55.83346708460941</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>17.79661552582575</v>
+        <v>14.00922489688727</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>40.69160032023576</v>
+        <v>45.7891989554046</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>18.85290043654511</v>
+        <v>14.90092008737539</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.29646228987836</v>
+        <v>30.76331253709163</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>37.06971018153811</v>
+        <v>40.34810135172953</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>14.78962705602657</v>
+        <v>9.169477238034847</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>35.13971063937922</v>
+        <v>37.86475498358813</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.28317010870785</v>
+        <v>45.93904912517851</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>14.37501647226</v>
+        <v>8.301723744012495</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>48.30783589795987</v>
+        <v>55.30920835244245</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>58.87559383464713</v>
+        <v>70.79045619148124</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>56.47636016992054</v>
+        <v>67.10656144455507</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>60.33090888561714</v>
+        <v>72.63906156204897</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>67.84214905546347</v>
+        <v>82.21673261917124</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>18.53277622044301</v>
+        <v>14.59061714262829</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>49.59991355367018</v>
+        <v>59.19987574152631</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>57.87456652083421</v>
+        <v>70.5589332747283</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>42.77740142367281</v>
+        <v>48.36468883225355</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.3528268570239</v>
+        <v>24.99510987200992</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>30.02528395827531</v>
+        <v>31.32792910118919</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.60580618192569</v>
+        <v>40.37191795019403</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>14.42883881239303</v>
+        <v>9.477440531304737</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>37.17869235576806</v>
+        <v>41.89136289643999</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>42.25031924921085</v>
+        <v>47.79241791378065</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>15.72476337730157</v>
+        <v>11.16424714525546</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.00228584882759</v>
+        <v>29.44842765746335</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>38.61797328683854</v>
+        <v>43.32180519575893</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.06378505916207</v>
+        <v>10.41563479239518</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.81581614253635</v>
+        <v>33.43222438788346</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>42.27595096008712</v>
+        <v>48.33649930109027</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>10.21963689508771</v>
+        <v>2.940337745838161</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>41.63309257123711</v>
+        <v>46.34041671612794</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>58.42876456409068</v>
+        <v>69.58937425873071</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>46.0027539243406</v>
+        <v>51.44745698163778</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>53.03968438017719</v>
+        <v>63.11366733825135</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>67.98096451802724</v>
+        <v>83.25893465965564</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>14.32488517025937</v>
+        <v>8.898703799328985</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>44.3413392264697</v>
+        <v>49.62497198812886</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>58.15710659527963</v>
+        <v>69.83891034255886</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.68416657775071</v>
+        <v>14.4800809860319</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>24.08851023341608</v>
+        <v>14.63795576427274</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>27.1207471471328</v>
+        <v>23.37013847883001</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>21.09688206872961</v>
+        <v>8.897674900434751</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>25.61671692160674</v>
+        <v>20.76472169078682</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>26.33115253007986</v>
+        <v>22.62817629363548</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>22.15832304506572</v>
+        <v>11.10469298788739</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.64620402694458</v>
+        <v>29.63281674195178</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.10736086981936</v>
+        <v>31.00771960929666</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>24.62038838660393</v>
+        <v>16.07128837568489</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.56233847995833</v>
+        <v>17.9413777492821</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>25.50104907802168</v>
+        <v>18.14459777336135</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>25.3881135566299</v>
+        <v>20.14934658762511</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>24.71192591306318</v>
+        <v>16.86854366102565</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>30.50803765467537</v>
+        <v>32.05406217965628</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>23.58554245243742</v>
+        <v>14.6989924354237</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>27.42899852582386</v>
+        <v>25.310401179112</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.00076536929086</v>
+        <v>29.20953289074626</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.29655940367496</v>
+        <v>8.800212884144486</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>23.65920642748933</v>
+        <v>16.31396001321719</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.1512756293312</v>
+        <v>19.25240731622635</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>21.45560168080831</v>
+        <v>9.383687827650792</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>27.59156181724384</v>
+        <v>26.26434969431314</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>24.82885030161708</v>
+        <v>17.88069056043729</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>26.30653523970998</v>
+        <v>20.29087412993422</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>27.29230739009658</v>
+        <v>23.66673471834983</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>21.28313425570273</v>
+        <v>8.672700691368359</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>28.44165250932849</v>
+        <v>26.65337180962108</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>28.6369153058026</v>
+        <v>27.58444023180446</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>22.40348146204514</v>
+        <v>11.5957245496145</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>31.85323238751063</v>
+        <v>34.83223248737361</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>31.76311434387129</v>
+        <v>34.50556782553279</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>31.33254420155703</v>
+        <v>32.49062513231794</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>32.90007157641831</v>
+        <v>36.79347713528516</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.99195420600962</v>
+        <v>36.24000714141417</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.06925336669615</v>
+        <v>24.44797147806315</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>32.58685570818854</v>
+        <v>33.58785798859783</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>33.26044843026047</v>
+        <v>37.22768719186952</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>26.00091074671435</v>
+        <v>22.47773775991268</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.24917884717868</v>
+        <v>29.86817520712998</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.68481603695258</v>
+        <v>30.55396129120523</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>21.34638645323962</v>
+        <v>9.710597675212608</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.44070375919906</v>
+        <v>31.11101715884317</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>30.00824599736303</v>
+        <v>31.47971749751963</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>21.53760445016471</v>
+        <v>9.906160580419293</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>34.2112065657701</v>
+        <v>43.20217269055205</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>22.12195070247255</v>
+        <v>10.38981058426011</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>25.05984885835933</v>
+        <v>16.54144910493129</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>27.21186656809086</v>
+        <v>23.21627761590211</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>20.97609284796826</v>
+        <v>7.581081626547853</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.00275339536542</v>
+        <v>25.32594258060563</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.66368836676763</v>
+        <v>26.96220876772708</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>22.44111241861748</v>
+        <v>11.37050873895097</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>31.94747250352481</v>
+        <v>34.64364705574392</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>32.80627102122208</v>
+        <v>36.58712985695978</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.067173130768</v>
+        <v>36.38630358244548</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.52720638090369</v>
+        <v>37.6503356355286</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>35.7332115472521</v>
+        <v>43.90932108163011</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>22.09725699225339</v>
+        <v>11.59132718099766</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>28.06004163986941</v>
+        <v>23.6777130693964</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>30.65556238184717</v>
+        <v>31.16841918808024</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>24.02718128078725</v>
+        <v>16.83867676735597</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.68460705238282</v>
+        <v>28.72725293292151</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.41706644507835</v>
+        <v>29.94119639435535</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>21.26636737018059</v>
+        <v>9.313275094082559</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.43959162288469</v>
+        <v>28.47390277548559</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.2208729115036</v>
+        <v>31.59560915753535</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>22.27360774227088</v>
+        <v>11.54667262742529</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.81031211241829</v>
+        <v>42.22851768300183</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>21.44175001207093</v>
+        <v>8.17568589218849</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>23.42808195767578</v>
+        <v>12.46722186593394</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>26.29401311537597</v>
+        <v>21.18074033525167</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>20.97021271836961</v>
+        <v>7.757970116125453</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>26.67342421082008</v>
+        <v>23.56961854846066</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.95212054558134</v>
+        <v>28.46226385359111</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>21.01669390257208</v>
+        <v>7.879072758461874</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>30.06843106110379</v>
+        <v>30.71961358029769</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>32.23507770184866</v>
+        <v>35.4864926146449</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.23225472276246</v>
+        <v>33.02222756476617</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>32.05644010247047</v>
+        <v>34.89076113652736</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>34.20995338511607</v>
+        <v>40.17246756377786</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>21.42627529477901</v>
+        <v>8.321343568239495</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>25.97327691228662</v>
+        <v>18.48658077404163</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>31.57941702169119</v>
+        <v>34.27792090276858</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>22.9505998156531</v>
+        <v>13.76691233599433</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>27.9013099637092</v>
+        <v>26.67029682548914</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.18642531859672</v>
+        <v>29.46774058369029</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>21.27153894075215</v>
+        <v>9.360546661950988</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>27.53621955300685</v>
+        <v>26.48249872257372</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.50040108603451</v>
+        <v>30.07800438204137</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>21.07592264162402</v>
+        <v>8.728868954446412</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>31.38169703808422</v>
+        <v>36.5899066086703</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>28.64176563345166</v>
+        <v>29.2377475989265</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>26.57621181331242</v>
+        <v>23.1086083919798</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>31.29906550942122</v>
+        <v>35.88552089906909</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>31.76327179613519</v>
+        <v>36.80217289482875</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>23.24502454109839</v>
+        <v>14.8840576800601</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>26.27173000282214</v>
+        <v>23.13743054627431</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>28.40091198122861</v>
+        <v>28.84062687764204</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>24.2757873020066</v>
+        <v>17.32368421513431</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>27.38781244954192</v>
+        <v>24.71742808786383</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>30.74434354228354</v>
+        <v>33.95745139616029</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>21.21793810439393</v>
+        <v>8.886814046544213</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>23.12793168342691</v>
+        <v>14.7606965936529</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>25.20039496567354</v>
+        <v>20.11273146700647</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>21.27507306315148</v>
+        <v>9.621013297032178</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>27.11417601718046</v>
+        <v>25.20265669146164</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>32.77218804964586</v>
+        <v>41.84884245489569</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>27.67415037106723</v>
+        <v>26.04936562990405</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>34.0522803544452</v>
+        <v>43.17394236189566</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>35.50395236322434</v>
+        <v>46.60603257769969</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>22.73636676918607</v>
+        <v>13.46797812853711</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>26.67755853500256</v>
+        <v>23.73822820206309</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>30.30074129038048</v>
+        <v>32.98080674966359</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>35.61223834555265</v>
+        <v>45.9885762330759</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>34.81437776926217</v>
+        <v>44.35304537469404</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>36.83734350451757</v>
+        <v>49.11421922611294</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>37.10570730048794</v>
+        <v>49.97714390284732</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>26.6779220465881</v>
+        <v>24.73542287187311</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>35.77939372556133</v>
+        <v>46.26507487601709</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>35.90912653142112</v>
+        <v>46.35901825118424</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>27.21601845602616</v>
+        <v>24.76062714211004</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>21.52822197640092</v>
+        <v>10.10117620141048</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>32.76172162814031</v>
+        <v>39.2111572044296</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>33.64422812296671</v>
+        <v>41.58175251374985</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>22.15830412829164</v>
+        <v>11.19319163933104</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>38.5632818972902</v>
+        <v>53.62315243090173</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>40.24081062684829</v>
+        <v>58.12920814104971</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>40.49642897802226</v>
+        <v>58.52912570202068</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>42.71830617162214</v>
+        <v>64.22495544670575</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>44.02350951062682</v>
+        <v>66.8954311687659</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>28.91731566355998</v>
+        <v>30.33211070214541</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>41.43757701422552</v>
+        <v>60.8458861832293</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>41.9148600872537</v>
+        <v>61.48184322940438</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>36.96238755529626</v>
+        <v>48.75481244990983</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>33.67434327328611</v>
+        <v>41.80116048020948</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>35.03309471285435</v>
+        <v>44.65802402068964</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>36.90118726244046</v>
+        <v>49.37412676284951</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>24.30586449873852</v>
+        <v>18.06320875857455</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>34.50387894756933</v>
+        <v>43.04247545214417</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>35.76084586422101</v>
+        <v>45.64649749224502</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>24.57231326250331</v>
+        <v>17.83457883396382</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>29.93196136148798</v>
+        <v>30.98956983619684</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>32.77880417986661</v>
+        <v>38.43616871072135</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>21.32980694451455</v>
+        <v>9.182503357228246</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>31.77277447772477</v>
+        <v>37.04163482175164</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>33.50080257994382</v>
+        <v>40.62330679485176</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>22.81353870627899</v>
+        <v>12.19371352722046</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>38.29847146493981</v>
+        <v>53.423824806184</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>41.5498249109518</v>
+        <v>61.37509347920427</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>40.82477528375432</v>
+        <v>59.35222654906663</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>42.77721625749317</v>
+        <v>64.2627573169255</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>44.80067201105181</v>
+        <v>68.83579678198733</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>24.56717392350507</v>
+        <v>18.35987810051466</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>40.33722825287126</v>
+        <v>59.17523411527797</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>42.32344593470167</v>
+        <v>63.38089257622785</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>34.78791600854929</v>
+        <v>43.60626255220491</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>28.8175387509773</v>
+        <v>29.62739746390266</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>30.48826950565549</v>
+        <v>33.91677838637617</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>32.38180862349138</v>
+        <v>37.53641169090005</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>23.24607347403033</v>
+        <v>14.74467350927145</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>32.15909908979912</v>
+        <v>39.02915317195851</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>34.2266339804528</v>
+        <v>42.1562729028784</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>23.58107460020914</v>
+        <v>15.60983644095209</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>29.33239607373242</v>
+        <v>30.54445041849811</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>33.19127277745463</v>
+        <v>40.47939932743509</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>21.36360388209295</v>
+        <v>9.929881309350126</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>30.86045381594469</v>
+        <v>35.35299088597628</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>33.63009682252101</v>
+        <v>41.67732423135308</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>21.28504982087487</v>
+        <v>8.939029685554818</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>36.59368059468236</v>
+        <v>50.26506528549884</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>41.03978828025254</v>
+        <v>60.74192427807191</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>38.12446939845594</v>
+        <v>53.80769181409492</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>41.45273274783214</v>
+        <v>62.68835156253897</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>44.82264988577843</v>
+        <v>69.79859207252878</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>23.20976614380139</v>
+        <v>15.05667894046916</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>39.06016426450391</v>
+        <v>56.95376747407602</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>42.44788797175134</v>
+        <v>63.91952119553847</v>
       </c>
     </row>
   </sheetData>
